--- a/docs/infection_signature_curation_template.xlsx
+++ b/docs/infection_signature_curation_template.xlsx
@@ -9,21 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="9947"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="9945"/>
   </bookViews>
   <sheets>
     <sheet name="curation sheet" sheetId="1" r:id="rId1"/>
     <sheet name="pick lists" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="255">
   <si>
     <t>curation_date</t>
   </si>
@@ -543,9 +540,6 @@
     <t>down</t>
   </si>
   <si>
-    <t>CL:0000906 (activated CD8-positive, alpha-beta T cell)</t>
-  </si>
-  <si>
     <t>days</t>
   </si>
   <si>
@@ -666,9 +660,6 @@
     <t>Circular Dichroism</t>
   </si>
   <si>
-    <t>CL:0000904 (central memory CD4-positive, alpha-beta T cell)</t>
-  </si>
-  <si>
     <t>CyTOF</t>
   </si>
   <si>
@@ -717,9 +708,6 @@
     <t>CL:0000094 (granulocyte)</t>
   </si>
   <si>
-    <t>Flow Cytometry</t>
-  </si>
-  <si>
     <t>CL:0000037 (hematopoietic stem cell)</t>
   </si>
   <si>
@@ -766,9 +754,6 @@
   </si>
   <si>
     <t>Line Probe Assay</t>
-  </si>
-  <si>
-    <t>CL:0000940 (mucosal invariant T cell)</t>
   </si>
   <si>
     <t>Liquid Chromatography</t>
@@ -826,9 +811,6 @@
   </si>
   <si>
     <t>Neutralizing Antibody Titer Assay</t>
-  </si>
-  <si>
-    <t>CL:0000784 (plasmacytoid dendric cell)</t>
   </si>
   <si>
     <t>NMR</t>
@@ -946,6 +928,33 @@
   <si>
     <t>Questions or notes for further examination from the curator. Will not appear in Dashboard.</t>
   </si>
+  <si>
+    <t>differentially expressed</t>
+  </si>
+  <si>
+    <t>clinical laboratory test</t>
+  </si>
+  <si>
+    <t>CL:0000784 (plasmacytoid dendritic cell)</t>
+  </si>
+  <si>
+    <t>CL:0000897 (CD4-positive, alpha-beta memory T cell)</t>
+  </si>
+  <si>
+    <t>CL:0000898 (naive T cell)</t>
+  </si>
+  <si>
+    <t>CL:0000946 (antibody secreting cell)</t>
+  </si>
+  <si>
+    <t>CL:2000000 (epidermal melanocyte)</t>
+  </si>
+  <si>
+    <t>CL_0000981 (double negative memory b cell)</t>
+  </si>
+  <si>
+    <t>UBERON:0002097 (skin of body)</t>
+  </si>
 </sst>
 </file>
 
@@ -954,11 +963,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1149,144 +1165,143 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1302,25 +1317,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="shared"/>
-      <sheetName val="infection"/>
-      <sheetName val="vaccination"/>
-      <sheetName val="pick lists"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1533,124 +1529,124 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="47.38671875" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.71875" customWidth="1"/>
-    <col min="6" max="6" width="12.71875" customWidth="1"/>
-    <col min="7" max="7" width="23.71875" customWidth="1"/>
-    <col min="8" max="8" width="56.109375" customWidth="1"/>
-    <col min="9" max="9" width="44.88671875" customWidth="1"/>
-    <col min="10" max="10" width="29.109375" customWidth="1"/>
-    <col min="11" max="11" width="53.21875" customWidth="1"/>
+    <col min="3" max="3" width="47.375" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="23.75" customWidth="1"/>
+    <col min="8" max="8" width="56.125" customWidth="1"/>
+    <col min="9" max="9" width="44.875" customWidth="1"/>
+    <col min="10" max="10" width="29.125" customWidth="1"/>
+    <col min="11" max="11" width="53.25" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
     <col min="13" max="13" width="24" customWidth="1"/>
     <col min="14" max="14" width="34.5" customWidth="1"/>
-    <col min="15" max="15" width="83.21875" customWidth="1"/>
-    <col min="16" max="16" width="21.21875" customWidth="1"/>
+    <col min="15" max="15" width="83.25" customWidth="1"/>
+    <col min="16" max="16" width="21.25" customWidth="1"/>
     <col min="17" max="17" width="20" customWidth="1"/>
-    <col min="18" max="18" width="22.38671875" customWidth="1"/>
-    <col min="19" max="19" width="41.609375" customWidth="1"/>
+    <col min="18" max="18" width="22.375" customWidth="1"/>
+    <col min="19" max="19" width="41.625" customWidth="1"/>
     <col min="20" max="20" width="33.5" customWidth="1"/>
     <col min="21" max="21" width="28.5" customWidth="1"/>
-    <col min="22" max="22" width="18.109375" customWidth="1"/>
-    <col min="23" max="23" width="27.609375" customWidth="1"/>
+    <col min="22" max="22" width="18.125" customWidth="1"/>
+    <col min="23" max="23" width="27.625" customWidth="1"/>
     <col min="24" max="24" width="22" customWidth="1"/>
-    <col min="25" max="25" width="15.71875" customWidth="1"/>
-    <col min="26" max="26" width="48.38671875" customWidth="1"/>
+    <col min="25" max="25" width="15.75" customWidth="1"/>
+    <col min="26" max="26" width="48.375" customWidth="1"/>
     <col min="27" max="27" width="32" customWidth="1"/>
-    <col min="28" max="28" width="54.38671875" customWidth="1"/>
-    <col min="29" max="29" width="33.21875" customWidth="1"/>
-    <col min="30" max="38" width="29.609375" customWidth="1"/>
+    <col min="28" max="28" width="54.375" customWidth="1"/>
+    <col min="29" max="29" width="33.25" customWidth="1"/>
+    <col min="30" max="38" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="13.7" customHeight="1">
-      <c r="A1" s="34"/>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="32"/>
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="Q1" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="R1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="S1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="V1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="W1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="35" t="s">
+      <c r="X1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="35" t="s">
+      <c r="Y1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="35" t="s">
+      <c r="Z1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="35" t="s">
+      <c r="AA1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="35" t="s">
+      <c r="AB1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="34" t="s">
+      <c r="AC1" s="32" t="s">
         <v>27</v>
       </c>
       <c r="AD1" s="1"/>
@@ -1664,43 +1660,43 @@
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:38" ht="21" hidden="1" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="43" t="s">
+      <c r="J2" s="38"/>
+      <c r="K2" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="40" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="42"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="40"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
@@ -1712,85 +1708,85 @@
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:38" ht="21" hidden="1" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="47" t="s">
+      <c r="I3" s="48"/>
+      <c r="J3" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="49" t="s">
+      <c r="K3" s="49"/>
+      <c r="L3" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="47" t="s">
+      <c r="M3" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="50" t="s">
+      <c r="O3" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="49" t="s">
+      <c r="P3" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="49" t="s">
+      <c r="R3" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="49" t="s">
+      <c r="S3" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49" t="s">
+      <c r="T3" s="47"/>
+      <c r="U3" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="49" t="s">
+      <c r="V3" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="49" t="s">
+      <c r="W3" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="49" t="s">
+      <c r="X3" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="Y3" s="49" t="s">
+      <c r="Y3" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="49" t="s">
+      <c r="Z3" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="49" t="s">
+      <c r="AA3" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="AB3" s="50" t="s">
+      <c r="AB3" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="AC3" s="48" t="s">
+      <c r="AC3" s="46" t="s">
         <v>33</v>
       </c>
       <c r="AD3" s="3"/>
@@ -1803,92 +1799,92 @@
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
     </row>
-    <row r="4" spans="1:38" ht="18.350000000000001" hidden="1" customHeight="1">
-      <c r="A4" s="49" t="s">
+    <row r="4" spans="1:38" ht="18.399999999999999" hidden="1" customHeight="1">
+      <c r="A4" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="49" t="s">
+      <c r="L4" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="47" t="s">
+      <c r="N4" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="50" t="s">
+      <c r="O4" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="49" t="s">
+      <c r="P4" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="49" t="s">
+      <c r="R4" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="49" t="s">
+      <c r="S4" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="49" t="s">
+      <c r="T4" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="49" t="s">
+      <c r="U4" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="V4" s="49" t="s">
+      <c r="V4" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="W4" s="49" t="s">
+      <c r="W4" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="49" t="s">
+      <c r="X4" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="50" t="s">
+      <c r="Y4" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="Z4" s="49" t="s">
+      <c r="Z4" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="AA4" s="49" t="s">
+      <c r="AA4" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="AB4" s="50" t="s">
+      <c r="AB4" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AC4" s="48" t="s">
+      <c r="AC4" s="46" t="s">
         <v>37</v>
       </c>
       <c r="AD4" s="3"/>
@@ -1902,37 +1898,37 @@
       <c r="AL4" s="3"/>
     </row>
     <row r="5" spans="1:38" ht="24" hidden="1" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="49"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="47"/>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
@@ -1943,38 +1939,38 @@
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
     </row>
-    <row r="6" spans="1:38" ht="19" hidden="1" customHeight="1">
-      <c r="A6" s="49" t="s">
+    <row r="6" spans="1:38" ht="18.95" hidden="1" customHeight="1">
+      <c r="A6" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="50"/>
-      <c r="AC6" s="49"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="47"/>
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
@@ -1985,299 +1981,299 @@
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
     </row>
-    <row r="7" spans="1:38" s="62" customFormat="1" ht="66" customHeight="1">
-      <c r="A7" s="57" t="s">
+    <row r="7" spans="1:38" s="60" customFormat="1" ht="66" customHeight="1">
+      <c r="A7" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="R7" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="S7" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="U7" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="V7" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="W7" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="X7" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y7" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z7" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA7" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB7" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="B7" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q7" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="R7" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="S7" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="U7" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="V7" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="W7" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="X7" s="59" t="s">
+      <c r="AC7" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="Y7" s="59" t="s">
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="59"/>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="59"/>
+      <c r="AI7" s="59"/>
+      <c r="AJ7" s="59"/>
+      <c r="AK7" s="59"/>
+      <c r="AL7" s="59"/>
+    </row>
+    <row r="8" spans="1:38" s="60" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A8" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="T8" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="U8" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="V8" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="W8" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="X8" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y8" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z8" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="Z7" s="59" t="s">
+      <c r="AA8" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB8" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="AA7" s="59" t="s">
+      <c r="AC8" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD8" s="59"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="59"/>
+      <c r="AI8" s="59"/>
+      <c r="AJ8" s="59"/>
+      <c r="AK8" s="59"/>
+      <c r="AL8" s="59"/>
+    </row>
+    <row r="9" spans="1:38" s="60" customFormat="1" ht="146.44999999999999" customHeight="1">
+      <c r="A9" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q9" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="R9" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="S9" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="T9" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="U9" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="V9" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="W9" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="X9" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="AB7" s="59" t="s">
+      <c r="Y9" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="AC7" s="59" t="s">
+      <c r="Z9" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="61"/>
-      <c r="AF7" s="61"/>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="61"/>
-      <c r="AI7" s="61"/>
-      <c r="AJ7" s="61"/>
-      <c r="AK7" s="61"/>
-      <c r="AL7" s="61"/>
-    </row>
-    <row r="8" spans="1:38" s="62" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A8" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="59" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="K8" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="O8" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="P8" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q8" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="R8" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="S8" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="T8" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="U8" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="V8" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="W8" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="X8" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y8" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z8" s="59" t="s">
+      <c r="AA9" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="AA8" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB8" s="59" t="s">
+      <c r="AB9" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="AC8" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD8" s="61"/>
-      <c r="AE8" s="61"/>
-      <c r="AF8" s="61"/>
-      <c r="AG8" s="61"/>
-      <c r="AH8" s="61"/>
-      <c r="AI8" s="61"/>
-      <c r="AJ8" s="61"/>
-      <c r="AK8" s="61"/>
-      <c r="AL8" s="61"/>
-    </row>
-    <row r="9" spans="1:38" s="62" customFormat="1" ht="146.35" customHeight="1">
-      <c r="A9" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="M9" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="N9" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="O9" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="P9" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q9" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="R9" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="S9" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="T9" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="U9" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="V9" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="W9" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="X9" s="59" t="s">
+      <c r="AC9" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="Y9" s="59" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z9" s="59" t="s">
-        <v>247</v>
-      </c>
-      <c r="AA9" s="59" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB9" s="59" t="s">
-        <v>249</v>
-      </c>
-      <c r="AC9" s="59" t="s">
-        <v>250</v>
-      </c>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="61"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="61"/>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="61"/>
-      <c r="AK9" s="61"/>
-      <c r="AL9" s="61"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="59"/>
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="59"/>
+      <c r="AJ9" s="59"/>
+      <c r="AK9" s="59"/>
+      <c r="AL9" s="59"/>
     </row>
     <row r="10" spans="1:38" ht="44.25" customHeight="1">
       <c r="A10" s="4"/>
@@ -2325,7 +2321,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="29"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -2365,7 +2361,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="29"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="7"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -2405,7 +2401,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="29"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="7"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -2445,7 +2441,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="29"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="7"/>
       <c r="H14" s="12"/>
       <c r="I14" s="9"/>
@@ -2485,7 +2481,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="29"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="7"/>
       <c r="H15" s="12"/>
       <c r="I15" s="9"/>
@@ -2525,7 +2521,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="29"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="7"/>
       <c r="H16" s="15"/>
       <c r="I16" s="6"/>
@@ -2565,7 +2561,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="29"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="7"/>
       <c r="H17" s="15"/>
       <c r="I17" s="6"/>
@@ -2605,7 +2601,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="29"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="6"/>
       <c r="H18" s="12"/>
       <c r="I18" s="9"/>
@@ -2645,7 +2641,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="29"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="6"/>
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
@@ -2685,7 +2681,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="29"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="6"/>
       <c r="H20" s="16"/>
       <c r="I20" s="17"/>
@@ -2725,7 +2721,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="29"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
       <c r="I21" s="6"/>
@@ -2765,7 +2761,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="29"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="6"/>
       <c r="H22" s="15"/>
       <c r="I22" s="6"/>
@@ -2805,7 +2801,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="29"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
       <c r="I23" s="6"/>
@@ -2845,7 +2841,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="29"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
       <c r="I24" s="6"/>
@@ -2885,7 +2881,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="29"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="6"/>
       <c r="H25" s="15"/>
       <c r="I25" s="6"/>
@@ -2925,7 +2921,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="29"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="6"/>
       <c r="H26" s="15"/>
       <c r="I26" s="6"/>
@@ -2965,7 +2961,7 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="29"/>
+      <c r="F27" s="27"/>
       <c r="G27" s="6"/>
       <c r="H27" s="15"/>
       <c r="I27" s="6"/>
@@ -3005,7 +3001,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="29"/>
+      <c r="F28" s="27"/>
       <c r="G28" s="6"/>
       <c r="H28" s="15"/>
       <c r="I28" s="6"/>
@@ -3045,7 +3041,7 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="29"/>
+      <c r="F29" s="27"/>
       <c r="G29" s="6"/>
       <c r="H29" s="15"/>
       <c r="I29" s="6"/>
@@ -3085,7 +3081,7 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="29"/>
+      <c r="F30" s="27"/>
       <c r="G30" s="6"/>
       <c r="H30" s="15"/>
       <c r="I30" s="6"/>
@@ -3125,7 +3121,7 @@
       <c r="C31" s="12"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="29"/>
+      <c r="F31" s="27"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -3142,7 +3138,7 @@
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="4"/>
-      <c r="W31" s="32"/>
+      <c r="W31" s="30"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="8"/>
@@ -3165,7 +3161,7 @@
       <c r="C32" s="12"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="29"/>
+      <c r="F32" s="27"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -3205,7 +3201,7 @@
       <c r="C33" s="12"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="29"/>
+      <c r="F33" s="27"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -3245,7 +3241,7 @@
       <c r="C34" s="12"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="29"/>
+      <c r="F34" s="27"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -3285,7 +3281,7 @@
       <c r="C35" s="12"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="29"/>
+      <c r="F35" s="27"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -3325,7 +3321,7 @@
       <c r="C36" s="12"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="29"/>
+      <c r="F36" s="27"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -3365,7 +3361,7 @@
       <c r="C37" s="12"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="29"/>
+      <c r="F37" s="27"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -3405,7 +3401,7 @@
       <c r="C38" s="12"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="29"/>
+      <c r="F38" s="27"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -3445,7 +3441,7 @@
       <c r="C39" s="12"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="29"/>
+      <c r="F39" s="27"/>
       <c r="G39" s="6"/>
       <c r="H39" s="15"/>
       <c r="I39" s="6"/>
@@ -3485,7 +3481,7 @@
       <c r="C40" s="6"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="29"/>
+      <c r="F40" s="27"/>
       <c r="G40" s="6"/>
       <c r="H40" s="15"/>
       <c r="I40" s="6"/>
@@ -3525,7 +3521,7 @@
       <c r="C41" s="12"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="29"/>
+      <c r="F41" s="27"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -3565,7 +3561,7 @@
       <c r="C42" s="6"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="29"/>
+      <c r="F42" s="27"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -3605,7 +3601,7 @@
       <c r="C43" s="12"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="29"/>
+      <c r="F43" s="27"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -3645,7 +3641,7 @@
       <c r="C44" s="12"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="29"/>
+      <c r="F44" s="27"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -3685,14 +3681,14 @@
       <c r="C45" s="12"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="29"/>
+      <c r="F45" s="27"/>
       <c r="G45" s="4"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="30"/>
+      <c r="M45" s="28"/>
       <c r="N45" s="4"/>
       <c r="O45" s="6"/>
       <c r="P45" s="4"/>
@@ -3725,14 +3721,14 @@
       <c r="C46" s="12"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="29"/>
+      <c r="F46" s="27"/>
       <c r="G46" s="4"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="30"/>
+      <c r="M46" s="28"/>
       <c r="N46" s="4"/>
       <c r="O46" s="6"/>
       <c r="P46" s="4"/>
@@ -3765,14 +3761,14 @@
       <c r="C47" s="12"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="29"/>
+      <c r="F47" s="27"/>
       <c r="G47" s="4"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="30"/>
+      <c r="M47" s="28"/>
       <c r="N47" s="4"/>
       <c r="O47" s="6"/>
       <c r="P47" s="4"/>
@@ -3805,14 +3801,14 @@
       <c r="C48" s="12"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="29"/>
+      <c r="F48" s="27"/>
       <c r="G48" s="4"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="30"/>
+      <c r="M48" s="28"/>
       <c r="N48" s="4"/>
       <c r="O48" s="6"/>
       <c r="P48" s="4"/>
@@ -3845,14 +3841,14 @@
       <c r="C49" s="12"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-      <c r="F49" s="29"/>
+      <c r="F49" s="27"/>
       <c r="G49" s="4"/>
       <c r="H49" s="9"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="30"/>
+      <c r="M49" s="28"/>
       <c r="N49" s="4"/>
       <c r="O49" s="6"/>
       <c r="P49" s="4"/>
@@ -3885,14 +3881,14 @@
       <c r="C50" s="12"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="F50" s="29"/>
+      <c r="F50" s="27"/>
       <c r="G50" s="4"/>
       <c r="H50" s="9"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="30"/>
+      <c r="M50" s="28"/>
       <c r="N50" s="4"/>
       <c r="O50" s="6"/>
       <c r="P50" s="4"/>
@@ -3925,14 +3921,14 @@
       <c r="C51" s="12"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="29"/>
+      <c r="F51" s="27"/>
       <c r="G51" s="4"/>
       <c r="H51" s="9"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="20"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="30"/>
+      <c r="M51" s="28"/>
       <c r="N51" s="4"/>
       <c r="O51" s="6"/>
       <c r="P51" s="4"/>
@@ -3965,14 +3961,14 @@
       <c r="C52" s="12"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="29"/>
+      <c r="F52" s="27"/>
       <c r="G52" s="4"/>
       <c r="H52" s="9"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="30"/>
+      <c r="M52" s="28"/>
       <c r="N52" s="4"/>
       <c r="O52" s="6"/>
       <c r="P52" s="4"/>
@@ -4005,14 +4001,14 @@
       <c r="C53" s="12"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="29"/>
+      <c r="F53" s="27"/>
       <c r="G53" s="4"/>
       <c r="H53" s="9"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="30"/>
+      <c r="M53" s="28"/>
       <c r="N53" s="4"/>
       <c r="O53" s="6"/>
       <c r="P53" s="4"/>
@@ -4045,14 +4041,14 @@
       <c r="C54" s="12"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="29"/>
+      <c r="F54" s="27"/>
       <c r="G54" s="4"/>
       <c r="H54" s="9"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="30"/>
+      <c r="M54" s="28"/>
       <c r="N54" s="4"/>
       <c r="O54" s="6"/>
       <c r="P54" s="4"/>
@@ -4085,14 +4081,14 @@
       <c r="C55" s="12"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="29"/>
+      <c r="F55" s="27"/>
       <c r="G55" s="4"/>
       <c r="H55" s="12"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="30"/>
+      <c r="M55" s="28"/>
       <c r="N55" s="4"/>
       <c r="O55" s="6"/>
       <c r="P55" s="4"/>
@@ -4125,14 +4121,14 @@
       <c r="C56" s="12"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
-      <c r="F56" s="29"/>
+      <c r="F56" s="27"/>
       <c r="G56" s="4"/>
       <c r="H56" s="18"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="30"/>
+      <c r="M56" s="28"/>
       <c r="N56" s="4"/>
       <c r="O56" s="6"/>
       <c r="P56" s="4"/>
@@ -4165,14 +4161,14 @@
       <c r="C57" s="12"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
-      <c r="F57" s="29"/>
+      <c r="F57" s="27"/>
       <c r="G57" s="4"/>
       <c r="H57" s="12"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="30"/>
+      <c r="M57" s="28"/>
       <c r="N57" s="4"/>
       <c r="O57" s="6"/>
       <c r="P57" s="4"/>
@@ -4205,14 +4201,14 @@
       <c r="C58" s="12"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
-      <c r="F58" s="29"/>
+      <c r="F58" s="27"/>
       <c r="G58" s="4"/>
       <c r="H58" s="12"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="30"/>
+      <c r="M58" s="28"/>
       <c r="N58" s="4"/>
       <c r="O58" s="6"/>
       <c r="P58" s="4"/>
@@ -4245,14 +4241,14 @@
       <c r="C59" s="12"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="29"/>
+      <c r="F59" s="27"/>
       <c r="G59" s="4"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="30"/>
+      <c r="M59" s="28"/>
       <c r="N59" s="4"/>
       <c r="O59" s="6"/>
       <c r="P59" s="4"/>
@@ -4285,14 +4281,14 @@
       <c r="C60" s="12"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
-      <c r="F60" s="29"/>
+      <c r="F60" s="27"/>
       <c r="G60" s="4"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="30"/>
+      <c r="M60" s="28"/>
       <c r="N60" s="4"/>
       <c r="O60" s="6"/>
       <c r="P60" s="4"/>
@@ -4325,14 +4321,14 @@
       <c r="C61" s="12"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
-      <c r="F61" s="29"/>
+      <c r="F61" s="27"/>
       <c r="G61" s="4"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="30"/>
+      <c r="M61" s="28"/>
       <c r="N61" s="4"/>
       <c r="O61" s="6"/>
       <c r="P61" s="4"/>
@@ -4365,14 +4361,14 @@
       <c r="C62" s="12"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
-      <c r="F62" s="29"/>
+      <c r="F62" s="27"/>
       <c r="G62" s="4"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="30"/>
+      <c r="M62" s="28"/>
       <c r="N62" s="4"/>
       <c r="O62" s="6"/>
       <c r="P62" s="4"/>
@@ -4399,20 +4395,20 @@
       <c r="AK62" s="10"/>
       <c r="AL62" s="10"/>
     </row>
-    <row r="63" spans="1:38" ht="14.35">
+    <row r="63" spans="1:38">
       <c r="A63" s="9"/>
       <c r="B63" s="5"/>
       <c r="C63" s="12"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
-      <c r="F63" s="29"/>
+      <c r="F63" s="27"/>
       <c r="G63" s="4"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="6"/>
       <c r="K63" s="9"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="30"/>
+      <c r="M63" s="28"/>
       <c r="N63" s="4"/>
       <c r="O63" s="6"/>
       <c r="P63" s="4"/>
@@ -4439,20 +4435,20 @@
       <c r="AK63" s="9"/>
       <c r="AL63" s="9"/>
     </row>
-    <row r="64" spans="1:38" ht="14.35">
+    <row r="64" spans="1:38">
       <c r="A64" s="9"/>
       <c r="B64" s="5"/>
       <c r="C64" s="12"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
-      <c r="F64" s="29"/>
+      <c r="F64" s="27"/>
       <c r="G64" s="4"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="6"/>
       <c r="K64" s="20"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="30"/>
+      <c r="M64" s="28"/>
       <c r="N64" s="4"/>
       <c r="O64" s="6"/>
       <c r="P64" s="4"/>
@@ -4479,20 +4475,20 @@
       <c r="AK64" s="9"/>
       <c r="AL64" s="9"/>
     </row>
-    <row r="65" spans="1:38" ht="14.35">
+    <row r="65" spans="1:38">
       <c r="A65" s="9"/>
       <c r="B65" s="5"/>
       <c r="C65" s="12"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
-      <c r="F65" s="29"/>
+      <c r="F65" s="27"/>
       <c r="G65" s="4"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
       <c r="J65" s="6"/>
       <c r="K65" s="9"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="30"/>
+      <c r="M65" s="28"/>
       <c r="N65" s="4"/>
       <c r="O65" s="6"/>
       <c r="P65" s="4"/>
@@ -4519,20 +4515,20 @@
       <c r="AK65" s="9"/>
       <c r="AL65" s="9"/>
     </row>
-    <row r="66" spans="1:38" ht="14.35">
+    <row r="66" spans="1:38">
       <c r="A66" s="9"/>
       <c r="B66" s="5"/>
       <c r="C66" s="12"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
-      <c r="F66" s="29"/>
+      <c r="F66" s="27"/>
       <c r="G66" s="4"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
       <c r="J66" s="6"/>
       <c r="K66" s="9"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="30"/>
+      <c r="M66" s="28"/>
       <c r="N66" s="4"/>
       <c r="O66" s="6"/>
       <c r="P66" s="4"/>
@@ -4559,20 +4555,20 @@
       <c r="AK66" s="9"/>
       <c r="AL66" s="9"/>
     </row>
-    <row r="67" spans="1:38" ht="14.35">
+    <row r="67" spans="1:38">
       <c r="A67" s="9"/>
       <c r="B67" s="5"/>
       <c r="C67" s="12"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
-      <c r="F67" s="29"/>
+      <c r="F67" s="27"/>
       <c r="G67" s="4"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
       <c r="J67" s="6"/>
       <c r="K67" s="20"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="30"/>
+      <c r="M67" s="28"/>
       <c r="N67" s="4"/>
       <c r="O67" s="6"/>
       <c r="P67" s="4"/>
@@ -4599,20 +4595,20 @@
       <c r="AK67" s="9"/>
       <c r="AL67" s="9"/>
     </row>
-    <row r="68" spans="1:38" ht="14.35">
+    <row r="68" spans="1:38">
       <c r="A68" s="9"/>
       <c r="B68" s="5"/>
       <c r="C68" s="12"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
-      <c r="F68" s="29"/>
+      <c r="F68" s="27"/>
       <c r="G68" s="4"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="6"/>
       <c r="K68" s="9"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="30"/>
+      <c r="M68" s="28"/>
       <c r="N68" s="4"/>
       <c r="O68" s="6"/>
       <c r="P68" s="4"/>
@@ -4639,20 +4635,20 @@
       <c r="AK68" s="9"/>
       <c r="AL68" s="9"/>
     </row>
-    <row r="69" spans="1:38" ht="14.35">
+    <row r="69" spans="1:38">
       <c r="A69" s="9"/>
       <c r="B69" s="5"/>
       <c r="C69" s="12"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
-      <c r="F69" s="29"/>
+      <c r="F69" s="27"/>
       <c r="G69" s="4"/>
       <c r="H69" s="6"/>
       <c r="I69" s="9"/>
       <c r="J69" s="6"/>
       <c r="K69" s="20"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="30"/>
+      <c r="M69" s="28"/>
       <c r="N69" s="4"/>
       <c r="O69" s="6"/>
       <c r="P69" s="4"/>
@@ -4679,20 +4675,20 @@
       <c r="AK69" s="9"/>
       <c r="AL69" s="9"/>
     </row>
-    <row r="70" spans="1:38" ht="14.35">
+    <row r="70" spans="1:38">
       <c r="A70" s="9"/>
       <c r="B70" s="5"/>
       <c r="C70" s="12"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
-      <c r="F70" s="29"/>
+      <c r="F70" s="27"/>
       <c r="G70" s="4"/>
       <c r="H70" s="6"/>
       <c r="I70" s="9"/>
       <c r="J70" s="6"/>
       <c r="K70" s="20"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="30"/>
+      <c r="M70" s="28"/>
       <c r="N70" s="4"/>
       <c r="O70" s="6"/>
       <c r="P70" s="4"/>
@@ -4725,14 +4721,14 @@
       <c r="C71" s="12"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
-      <c r="F71" s="29"/>
+      <c r="F71" s="27"/>
       <c r="G71" s="4"/>
       <c r="H71" s="12"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="30"/>
+      <c r="M71" s="28"/>
       <c r="N71" s="4"/>
       <c r="O71" s="6"/>
       <c r="P71" s="4"/>
@@ -4765,14 +4761,14 @@
       <c r="C72" s="12"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
-      <c r="F72" s="29"/>
+      <c r="F72" s="27"/>
       <c r="G72" s="4"/>
       <c r="H72" s="18"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="30"/>
+      <c r="M72" s="28"/>
       <c r="N72" s="4"/>
       <c r="O72" s="6"/>
       <c r="P72" s="4"/>
@@ -4805,14 +4801,14 @@
       <c r="C73" s="12"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
-      <c r="F73" s="29"/>
+      <c r="F73" s="27"/>
       <c r="G73" s="4"/>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="30"/>
+      <c r="M73" s="28"/>
       <c r="N73" s="4"/>
       <c r="O73" s="6"/>
       <c r="P73" s="4"/>
@@ -4845,14 +4841,14 @@
       <c r="C74" s="12"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
-      <c r="F74" s="29"/>
+      <c r="F74" s="27"/>
       <c r="G74" s="4"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="30"/>
+      <c r="M74" s="28"/>
       <c r="N74" s="4"/>
       <c r="O74" s="6"/>
       <c r="P74" s="4"/>
@@ -4885,14 +4881,14 @@
       <c r="C75" s="12"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
-      <c r="F75" s="29"/>
+      <c r="F75" s="27"/>
       <c r="G75" s="4"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="30"/>
+      <c r="M75" s="28"/>
       <c r="N75" s="4"/>
       <c r="O75" s="6"/>
       <c r="P75" s="4"/>
@@ -4925,14 +4921,14 @@
       <c r="C76" s="12"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
-      <c r="F76" s="29"/>
+      <c r="F76" s="27"/>
       <c r="G76" s="4"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="30"/>
+      <c r="M76" s="28"/>
       <c r="N76" s="4"/>
       <c r="O76" s="6"/>
       <c r="P76" s="4"/>
@@ -4965,14 +4961,14 @@
       <c r="C77" s="12"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
-      <c r="F77" s="29"/>
+      <c r="F77" s="27"/>
       <c r="G77" s="4"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="20"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="30"/>
+      <c r="M77" s="28"/>
       <c r="N77" s="4"/>
       <c r="O77" s="6"/>
       <c r="P77" s="4"/>
@@ -5005,14 +5001,14 @@
       <c r="C78" s="12"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
-      <c r="F78" s="29"/>
+      <c r="F78" s="27"/>
       <c r="G78" s="4"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="30"/>
+      <c r="M78" s="28"/>
       <c r="N78" s="4"/>
       <c r="O78" s="6"/>
       <c r="P78" s="4"/>
@@ -5045,14 +5041,14 @@
       <c r="C79" s="12"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
-      <c r="F79" s="29"/>
+      <c r="F79" s="27"/>
       <c r="G79" s="4"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="30"/>
+      <c r="M79" s="28"/>
       <c r="N79" s="4"/>
       <c r="O79" s="6"/>
       <c r="P79" s="4"/>
@@ -5085,14 +5081,14 @@
       <c r="C80" s="12"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
-      <c r="F80" s="29"/>
+      <c r="F80" s="27"/>
       <c r="G80" s="4"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="30"/>
+      <c r="M80" s="28"/>
       <c r="N80" s="4"/>
       <c r="O80" s="6"/>
       <c r="P80" s="4"/>
@@ -5125,14 +5121,14 @@
       <c r="C81" s="12"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
-      <c r="F81" s="29"/>
+      <c r="F81" s="27"/>
       <c r="G81" s="4"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="30"/>
+      <c r="M81" s="28"/>
       <c r="N81" s="4"/>
       <c r="O81" s="6"/>
       <c r="P81" s="4"/>
@@ -5165,14 +5161,14 @@
       <c r="C82" s="12"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
-      <c r="F82" s="29"/>
+      <c r="F82" s="27"/>
       <c r="G82" s="4"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="30"/>
+      <c r="M82" s="28"/>
       <c r="N82" s="4"/>
       <c r="O82" s="6"/>
       <c r="P82" s="4"/>
@@ -5205,14 +5201,14 @@
       <c r="C83" s="12"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
-      <c r="F83" s="29"/>
+      <c r="F83" s="27"/>
       <c r="G83" s="4"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="30"/>
+      <c r="M83" s="28"/>
       <c r="N83" s="4"/>
       <c r="O83" s="6"/>
       <c r="P83" s="4"/>
@@ -5245,14 +5241,14 @@
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
-      <c r="F84" s="29"/>
+      <c r="F84" s="27"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="31"/>
+      <c r="M84" s="29"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
@@ -5285,14 +5281,14 @@
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
-      <c r="F85" s="29"/>
+      <c r="F85" s="27"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="31"/>
+      <c r="M85" s="29"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
@@ -5325,14 +5321,14 @@
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="29"/>
+      <c r="F86" s="27"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="31"/>
+      <c r="M86" s="29"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
@@ -5365,14 +5361,14 @@
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="29"/>
+      <c r="F87" s="27"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="31"/>
+      <c r="M87" s="29"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
@@ -5405,14 +5401,14 @@
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
-      <c r="F88" s="29"/>
+      <c r="F88" s="27"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="31"/>
+      <c r="M88" s="29"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
       <c r="P88" s="4"/>
@@ -5445,14 +5441,14 @@
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
-      <c r="F89" s="29"/>
+      <c r="F89" s="27"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="31"/>
+      <c r="M89" s="29"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
       <c r="P89" s="4"/>
@@ -5485,7 +5481,7 @@
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="29"/>
+      <c r="F90" s="27"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
@@ -5525,7 +5521,7 @@
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
-      <c r="F91" s="29"/>
+      <c r="F91" s="27"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
@@ -5565,7 +5561,7 @@
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="29"/>
+      <c r="F92" s="27"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
@@ -5605,7 +5601,7 @@
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
-      <c r="F93" s="29"/>
+      <c r="F93" s="27"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
@@ -5645,7 +5641,7 @@
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
-      <c r="F94" s="29"/>
+      <c r="F94" s="27"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
@@ -5685,7 +5681,7 @@
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="29"/>
+      <c r="F95" s="27"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
@@ -5725,7 +5721,7 @@
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
-      <c r="F96" s="29"/>
+      <c r="F96" s="27"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
@@ -5765,7 +5761,7 @@
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
-      <c r="F97" s="29"/>
+      <c r="F97" s="27"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
@@ -5805,7 +5801,7 @@
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
-      <c r="F98" s="29"/>
+      <c r="F98" s="27"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
@@ -5845,7 +5841,7 @@
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="29"/>
+      <c r="F99" s="27"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
@@ -5885,7 +5881,7 @@
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="29"/>
+      <c r="F100" s="27"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
@@ -42030,12 +42026,6 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'pick lists'!$D$2:$D$60</xm:f>
-          </x14:formula1>
-          <xm:sqref>J10:J100</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
             <xm:f>'pick lists'!$E$2:$E$12</xm:f>
           </x14:formula1>
           <xm:sqref>N10:N100</xm:sqref>
@@ -42058,6 +42048,12 @@
           </x14:formula1>
           <xm:sqref>I10:I100</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'pick lists'!$D$2:$D$60</xm:f>
+          </x14:formula1>
+          <xm:sqref>J10:J100</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -42071,16 +42067,18 @@
   </sheetPr>
   <dimension ref="A1:I1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.609375" customWidth="1"/>
-    <col min="2" max="2" width="29.38671875" customWidth="1"/>
-    <col min="3" max="3" width="22.38671875" customWidth="1"/>
-    <col min="4" max="4" width="37.38671875" customWidth="1"/>
-    <col min="5" max="5" width="50.21875" customWidth="1"/>
-    <col min="6" max="6" width="29.609375" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="29.375" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="37.375" customWidth="1"/>
+    <col min="5" max="5" width="50.25" customWidth="1"/>
+    <col min="6" max="6" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
@@ -42108,11 +42106,11 @@
       <c r="H1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.35">
+    <row r="2" spans="1:9">
       <c r="A2" s="24" t="s">
         <v>111</v>
       </c>
@@ -42125,8 +42123,8 @@
       <c r="D2" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>108</v>
+      <c r="E2" s="61" t="s">
+        <v>152</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>105</v>
@@ -42137,3394 +42135,3407 @@
       <c r="H2" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="25" t="s">
-        <v>109</v>
+      <c r="I2" s="24" t="s">
+        <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.35">
+    <row r="3" spans="1:9">
       <c r="A3" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E3" t="s">
-        <v>116</v>
+      <c r="E3" s="61" t="s">
+        <v>133</v>
       </c>
       <c r="F3" t="s">
         <v>114</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" s="25" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.35">
+      <c r="I3" s="24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="24"/>
       <c r="D4" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
-      <c r="E4" t="s">
-        <v>123</v>
+      <c r="E4" s="61" t="s">
+        <v>246</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I4" s="25" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.35">
+      <c r="I4" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="24"/>
       <c r="D5" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
-      <c r="E5" t="s">
-        <v>129</v>
+      <c r="E5" s="61" t="s">
+        <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I5" s="25" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.35">
+      <c r="I5" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" s="12"/>
       <c r="C6" s="18"/>
       <c r="D6" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
-      <c r="E6" t="s">
-        <v>134</v>
+      <c r="E6" s="61" t="s">
+        <v>149</v>
       </c>
       <c r="G6" t="s">
-        <v>136</v>
-      </c>
-      <c r="I6" s="25" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.35">
+      <c r="I6" s="24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" s="6"/>
       <c r="C7" s="24"/>
       <c r="D7" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="22"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="25"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="25"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="25"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="E7" t="s">
+      <c r="I11" s="24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="25"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="25"/>
+      <c r="D13" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="25"/>
+      <c r="D14" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="25"/>
+      <c r="D15" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="25"/>
+      <c r="D16" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="25"/>
+      <c r="D17" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="25"/>
+      <c r="D18" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="25"/>
+      <c r="D19" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="25"/>
+      <c r="D20" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="25"/>
+      <c r="D21" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="25"/>
+      <c r="D22" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="25"/>
+      <c r="D23" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="25"/>
+      <c r="D24" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="25"/>
+      <c r="D25" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="25"/>
+      <c r="D26" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="25"/>
+      <c r="D27" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="25"/>
+      <c r="D28" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="25"/>
+      <c r="D29" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="25"/>
+      <c r="D30" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="25"/>
+      <c r="D31" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="25"/>
+      <c r="D32" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="25"/>
+      <c r="D33" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="25"/>
+      <c r="D34" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="25"/>
+      <c r="D35" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="25"/>
+      <c r="D36" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="25"/>
+      <c r="D37" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="25"/>
+      <c r="D38" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="25"/>
+      <c r="D39" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="25"/>
+      <c r="D40" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="I40" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="25"/>
+      <c r="D41" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="25"/>
+      <c r="D42" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="I42" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="G7" t="s">
-        <v>140</v>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="25"/>
+      <c r="D43" s="27" t="s">
+        <v>212</v>
       </c>
-      <c r="I7" s="24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.35">
-      <c r="B8" s="22"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="I43" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="I8" s="26" t="s">
-        <v>142</v>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="25"/>
+      <c r="D44" s="27" t="s">
+        <v>214</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.35">
-      <c r="B9" s="27"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="I44" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="I9" t="s">
-        <v>145</v>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="25"/>
+      <c r="D45" s="27" t="s">
+        <v>215</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.35">
-      <c r="B10" s="27"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="17" t="s">
-        <v>149</v>
+      <c r="I45" s="24" t="s">
+        <v>179</v>
       </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="25"/>
+      <c r="D46" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="25"/>
+      <c r="D47" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="I47" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="I10" t="s">
-        <v>148</v>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="25"/>
+      <c r="D48" s="27" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.35">
-      <c r="B11" s="27"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" t="s">
-        <v>150</v>
-      </c>
-      <c r="I11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.35">
-      <c r="B12" s="27"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="E12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.35">
-      <c r="B13" s="27"/>
-      <c r="D13" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="I13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.35">
-      <c r="B14" s="27"/>
-      <c r="D14" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="I14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.35">
-      <c r="B15" s="27"/>
-      <c r="D15" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="I15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.35">
-      <c r="B16" s="27"/>
-      <c r="D16" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="I16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="14.35">
-      <c r="B17" s="27"/>
-      <c r="D17" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="I17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="14.35">
-      <c r="B18" s="27"/>
-      <c r="D18" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="I18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="14.35">
-      <c r="B19" s="27"/>
-      <c r="D19" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="I19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="14.35">
-      <c r="B20" s="27"/>
-      <c r="D20" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="I20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="14.35">
-      <c r="B21" s="27"/>
-      <c r="D21" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="I21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="14.35">
-      <c r="B22" s="27"/>
-      <c r="D22" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="I22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="14.35">
-      <c r="B23" s="27"/>
-      <c r="D23" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="I23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="14.35">
-      <c r="B24" s="27"/>
-      <c r="D24" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="I24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="14.35">
-      <c r="B25" s="27"/>
-      <c r="D25" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="I25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="14.35">
-      <c r="B26" s="27"/>
-      <c r="D26" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="I26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="14.35">
-      <c r="B27" s="27"/>
-      <c r="D27" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="I27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="14.35">
-      <c r="B28" s="27"/>
-      <c r="D28" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="I28" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="14.35">
-      <c r="B29" s="27"/>
-      <c r="D29" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="I29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="14.35">
-      <c r="B30" s="27"/>
-      <c r="D30" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="I30" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="14.35">
-      <c r="B31" s="27"/>
-      <c r="D31" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="I31" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="14.35">
-      <c r="B32" s="27"/>
-      <c r="D32" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="I32" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="14.35">
-      <c r="B33" s="27"/>
-      <c r="D33" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="I33" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="14.35">
-      <c r="B34" s="27"/>
-      <c r="D34" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="I34" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="14.35">
-      <c r="B35" s="27"/>
-      <c r="D35" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="I35" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="14.35">
-      <c r="B36" s="27"/>
-      <c r="D36" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="I36" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="14.35">
-      <c r="B37" s="27"/>
-      <c r="D37" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="I37" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="14.35">
-      <c r="B38" s="27"/>
-      <c r="D38" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="I38" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="14.35">
-      <c r="B39" s="27"/>
-      <c r="D39" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="I39" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="14.35">
-      <c r="B40" s="27"/>
-      <c r="D40" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="I40" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="14.35">
-      <c r="B41" s="27"/>
-      <c r="D41" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="I41" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="14.35">
-      <c r="B42" s="27"/>
-      <c r="D42" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="I42" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="14.35">
-      <c r="B43" s="27"/>
-      <c r="D43" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="I43" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" ht="14.35">
-      <c r="B44" s="27"/>
-      <c r="D44" s="29" t="s">
+    <row r="49" spans="2:4">
+      <c r="B49" s="25"/>
+      <c r="D49" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="I44" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" ht="14.35">
-      <c r="B45" s="27"/>
-      <c r="D45" s="29" t="s">
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="25"/>
+      <c r="D50" s="27" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="14.35">
-      <c r="B46" s="27"/>
-      <c r="D46" s="29" t="s">
+    <row r="51" spans="2:4">
+      <c r="B51" s="25"/>
+      <c r="D51" s="27" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="14.35">
-      <c r="B47" s="27"/>
-      <c r="D47" s="29" t="s">
+    <row r="52" spans="2:4">
+      <c r="B52" s="25"/>
+      <c r="D52" s="27" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="14.35">
-      <c r="B48" s="27"/>
-      <c r="D48" s="29" t="s">
+    <row r="53" spans="2:4">
+      <c r="B53" s="25"/>
+      <c r="D53" s="27" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="14.35">
-      <c r="B49" s="27"/>
-      <c r="D49" s="29" t="s">
+    <row r="54" spans="2:4">
+      <c r="B54" s="25"/>
+      <c r="D54" s="27" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="14.35">
-      <c r="B50" s="27"/>
-      <c r="D50" s="29" t="s">
+    <row r="55" spans="2:4">
+      <c r="B55" s="25"/>
+      <c r="D55" s="27" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="14.35">
-      <c r="B51" s="27"/>
-      <c r="D51" s="29" t="s">
+    <row r="56" spans="2:4">
+      <c r="B56" s="25"/>
+      <c r="D56" s="27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="14.35">
-      <c r="B52" s="27"/>
-      <c r="D52" s="29" t="s">
+    <row r="57" spans="2:4">
+      <c r="B57" s="25"/>
+      <c r="D57" s="27" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="14.35">
-      <c r="B53" s="27"/>
-      <c r="D53" s="29" t="s">
+    <row r="58" spans="2:4">
+      <c r="B58" s="25"/>
+      <c r="D58" s="27" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="14.35">
-      <c r="B54" s="27"/>
-      <c r="D54" s="29" t="s">
+    <row r="59" spans="2:4">
+      <c r="B59" s="25"/>
+      <c r="D59" s="27" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="14.35">
-      <c r="B55" s="27"/>
-      <c r="D55" s="29" t="s">
+    <row r="60" spans="2:4">
+      <c r="B60" s="25"/>
+      <c r="D60" s="27" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="14.35">
-      <c r="B56" s="27"/>
-      <c r="D56" s="29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" ht="14.35">
-      <c r="B57" s="27"/>
-      <c r="D57" s="29" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" ht="14.35">
-      <c r="B58" s="27"/>
-      <c r="D58" s="29" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" ht="14.35">
-      <c r="B59" s="27"/>
-      <c r="D59" s="29" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" ht="14.35">
-      <c r="B60" s="27"/>
-      <c r="D60" s="29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" ht="14.35">
-      <c r="B61" s="27"/>
-      <c r="D61" s="29"/>
-    </row>
-    <row r="62" spans="2:4" ht="14.35">
-      <c r="D62" s="29"/>
-    </row>
-    <row r="63" spans="2:4" ht="14.35">
-      <c r="D63" s="29"/>
-    </row>
-    <row r="64" spans="2:4" ht="14.35">
-      <c r="D64" s="29"/>
-    </row>
-    <row r="65" spans="4:4" ht="14.35">
-      <c r="D65" s="29"/>
-    </row>
-    <row r="66" spans="4:4" ht="14.35">
-      <c r="D66" s="29"/>
-    </row>
-    <row r="67" spans="4:4" ht="14.35">
-      <c r="D67" s="29"/>
-    </row>
-    <row r="68" spans="4:4" ht="14.35">
-      <c r="D68" s="29"/>
-    </row>
-    <row r="69" spans="4:4" ht="14.35">
-      <c r="D69" s="29"/>
-    </row>
-    <row r="70" spans="4:4" ht="14.35">
-      <c r="D70" s="29"/>
-    </row>
-    <row r="71" spans="4:4" ht="14.35">
-      <c r="D71" s="29"/>
-    </row>
-    <row r="72" spans="4:4" ht="14.35">
-      <c r="D72" s="29"/>
-    </row>
-    <row r="73" spans="4:4" ht="14.35">
-      <c r="D73" s="29"/>
-    </row>
-    <row r="74" spans="4:4" ht="14.35">
-      <c r="D74" s="29"/>
-    </row>
-    <row r="75" spans="4:4" ht="14.35">
-      <c r="D75" s="29"/>
-    </row>
-    <row r="76" spans="4:4" ht="14.35">
-      <c r="D76" s="29"/>
-    </row>
-    <row r="77" spans="4:4" ht="14.35">
-      <c r="D77" s="29"/>
-    </row>
-    <row r="78" spans="4:4" ht="14.35">
-      <c r="D78" s="29"/>
-    </row>
-    <row r="79" spans="4:4" ht="14.35">
-      <c r="D79" s="29"/>
-    </row>
-    <row r="80" spans="4:4" ht="14.35">
-      <c r="D80" s="29"/>
-    </row>
-    <row r="81" spans="4:4" ht="14.35">
-      <c r="D81" s="29"/>
-    </row>
-    <row r="82" spans="4:4" ht="14.35">
-      <c r="D82" s="29"/>
-    </row>
-    <row r="83" spans="4:4" ht="14.35">
-      <c r="D83" s="29"/>
-    </row>
-    <row r="84" spans="4:4" ht="14.35">
-      <c r="D84" s="29"/>
-    </row>
-    <row r="85" spans="4:4" ht="14.35">
-      <c r="D85" s="29"/>
-    </row>
-    <row r="86" spans="4:4" ht="14.35">
-      <c r="D86" s="29"/>
-    </row>
-    <row r="87" spans="4:4" ht="14.35">
-      <c r="D87" s="29"/>
-    </row>
-    <row r="88" spans="4:4" ht="14.35">
-      <c r="D88" s="29"/>
-    </row>
-    <row r="89" spans="4:4" ht="14.35">
-      <c r="D89" s="29"/>
-    </row>
-    <row r="90" spans="4:4" ht="14.35">
-      <c r="D90" s="29"/>
-    </row>
-    <row r="91" spans="4:4" ht="14.35">
-      <c r="D91" s="29"/>
-    </row>
-    <row r="92" spans="4:4" ht="14.35">
-      <c r="D92" s="29"/>
-    </row>
-    <row r="93" spans="4:4" ht="14.35">
-      <c r="D93" s="29"/>
-    </row>
-    <row r="94" spans="4:4" ht="14.35">
-      <c r="D94" s="29"/>
-    </row>
-    <row r="95" spans="4:4" ht="14.35">
-      <c r="D95" s="29"/>
-    </row>
-    <row r="96" spans="4:4" ht="14.35">
-      <c r="D96" s="29"/>
-    </row>
-    <row r="97" spans="4:4" ht="14.35">
-      <c r="D97" s="29"/>
-    </row>
-    <row r="98" spans="4:4" ht="14.35">
-      <c r="D98" s="29"/>
-    </row>
-    <row r="99" spans="4:4" ht="14.35">
-      <c r="D99" s="29"/>
-    </row>
-    <row r="100" spans="4:4" ht="14.35">
-      <c r="D100" s="29"/>
-    </row>
-    <row r="101" spans="4:4" ht="14.35">
-      <c r="D101" s="29"/>
-    </row>
-    <row r="102" spans="4:4" ht="14.35">
-      <c r="D102" s="29"/>
-    </row>
-    <row r="103" spans="4:4" ht="14.35">
-      <c r="D103" s="29"/>
-    </row>
-    <row r="104" spans="4:4" ht="14.35">
-      <c r="D104" s="29"/>
-    </row>
-    <row r="105" spans="4:4" ht="14.35">
-      <c r="D105" s="29"/>
-    </row>
-    <row r="106" spans="4:4" ht="14.35">
-      <c r="D106" s="29"/>
-    </row>
-    <row r="107" spans="4:4" ht="14.35">
-      <c r="D107" s="29"/>
-    </row>
-    <row r="108" spans="4:4" ht="14.35">
-      <c r="D108" s="29"/>
-    </row>
-    <row r="109" spans="4:4" ht="14.35">
-      <c r="D109" s="29"/>
-    </row>
-    <row r="110" spans="4:4" ht="14.35">
-      <c r="D110" s="29"/>
-    </row>
-    <row r="111" spans="4:4" ht="14.35">
-      <c r="D111" s="29"/>
-    </row>
-    <row r="112" spans="4:4" ht="14.35">
-      <c r="D112" s="29"/>
-    </row>
-    <row r="113" spans="4:4" ht="14.35">
-      <c r="D113" s="29"/>
-    </row>
-    <row r="114" spans="4:4" ht="14.35">
-      <c r="D114" s="29"/>
-    </row>
-    <row r="115" spans="4:4" ht="14.35">
-      <c r="D115" s="29"/>
-    </row>
-    <row r="116" spans="4:4" ht="14.35">
-      <c r="D116" s="29"/>
-    </row>
-    <row r="117" spans="4:4" ht="14.35">
-      <c r="D117" s="29"/>
-    </row>
-    <row r="118" spans="4:4" ht="14.35">
-      <c r="D118" s="29"/>
-    </row>
-    <row r="119" spans="4:4" ht="14.35">
-      <c r="D119" s="29"/>
-    </row>
-    <row r="120" spans="4:4" ht="14.35">
-      <c r="D120" s="29"/>
-    </row>
-    <row r="121" spans="4:4" ht="14.35">
-      <c r="D121" s="29"/>
-    </row>
-    <row r="122" spans="4:4" ht="14.35">
-      <c r="D122" s="29"/>
-    </row>
-    <row r="123" spans="4:4" ht="14.35">
-      <c r="D123" s="29"/>
-    </row>
-    <row r="124" spans="4:4" ht="14.35">
-      <c r="D124" s="29"/>
-    </row>
-    <row r="125" spans="4:4" ht="14.35">
-      <c r="D125" s="29"/>
-    </row>
-    <row r="126" spans="4:4" ht="14.35">
-      <c r="D126" s="29"/>
-    </row>
-    <row r="127" spans="4:4" ht="14.35">
-      <c r="D127" s="29"/>
-    </row>
-    <row r="128" spans="4:4" ht="14.35">
-      <c r="D128" s="29"/>
-    </row>
-    <row r="129" spans="4:4" ht="14.35">
-      <c r="D129" s="29"/>
-    </row>
-    <row r="130" spans="4:4" ht="14.35">
-      <c r="D130" s="29"/>
-    </row>
-    <row r="131" spans="4:4" ht="14.35">
-      <c r="D131" s="29"/>
-    </row>
-    <row r="132" spans="4:4" ht="14.35">
-      <c r="D132" s="29"/>
-    </row>
-    <row r="133" spans="4:4" ht="14.35">
-      <c r="D133" s="29"/>
-    </row>
-    <row r="134" spans="4:4" ht="14.35">
-      <c r="D134" s="29"/>
-    </row>
-    <row r="135" spans="4:4" ht="14.35">
-      <c r="D135" s="29"/>
-    </row>
-    <row r="136" spans="4:4" ht="14.35">
-      <c r="D136" s="29"/>
-    </row>
-    <row r="137" spans="4:4" ht="14.35">
-      <c r="D137" s="29"/>
-    </row>
-    <row r="138" spans="4:4" ht="14.35">
-      <c r="D138" s="29"/>
-    </row>
-    <row r="139" spans="4:4" ht="14.35">
-      <c r="D139" s="29"/>
-    </row>
-    <row r="140" spans="4:4" ht="14.35">
-      <c r="D140" s="29"/>
-    </row>
-    <row r="141" spans="4:4" ht="14.35">
-      <c r="D141" s="29"/>
-    </row>
-    <row r="142" spans="4:4" ht="14.35">
-      <c r="D142" s="29"/>
-    </row>
-    <row r="143" spans="4:4" ht="14.35">
-      <c r="D143" s="29"/>
-    </row>
-    <row r="144" spans="4:4" ht="14.35">
-      <c r="D144" s="29"/>
-    </row>
-    <row r="145" spans="4:4" ht="14.35">
-      <c r="D145" s="29"/>
-    </row>
-    <row r="146" spans="4:4" ht="14.35">
-      <c r="D146" s="29"/>
-    </row>
-    <row r="147" spans="4:4" ht="14.35">
-      <c r="D147" s="29"/>
-    </row>
-    <row r="148" spans="4:4" ht="14.35">
-      <c r="D148" s="29"/>
-    </row>
-    <row r="149" spans="4:4" ht="14.35">
-      <c r="D149" s="29"/>
-    </row>
-    <row r="150" spans="4:4" ht="14.35">
-      <c r="D150" s="29"/>
-    </row>
-    <row r="151" spans="4:4" ht="14.35">
-      <c r="D151" s="29"/>
-    </row>
-    <row r="152" spans="4:4" ht="14.35">
-      <c r="D152" s="29"/>
-    </row>
-    <row r="153" spans="4:4" ht="14.35">
-      <c r="D153" s="29"/>
-    </row>
-    <row r="154" spans="4:4" ht="14.35">
-      <c r="D154" s="29"/>
-    </row>
-    <row r="155" spans="4:4" ht="14.35">
-      <c r="D155" s="29"/>
-    </row>
-    <row r="156" spans="4:4" ht="14.35">
-      <c r="D156" s="29"/>
-    </row>
-    <row r="157" spans="4:4" ht="14.35">
-      <c r="D157" s="29"/>
-    </row>
-    <row r="158" spans="4:4" ht="14.35">
-      <c r="D158" s="29"/>
-    </row>
-    <row r="159" spans="4:4" ht="14.35">
-      <c r="D159" s="29"/>
-    </row>
-    <row r="160" spans="4:4" ht="14.35">
-      <c r="D160" s="29"/>
-    </row>
-    <row r="161" spans="4:4" ht="14.35">
-      <c r="D161" s="29"/>
-    </row>
-    <row r="162" spans="4:4" ht="14.35">
-      <c r="D162" s="29"/>
-    </row>
-    <row r="163" spans="4:4" ht="14.35">
-      <c r="D163" s="29"/>
-    </row>
-    <row r="164" spans="4:4" ht="14.35">
-      <c r="D164" s="29"/>
-    </row>
-    <row r="165" spans="4:4" ht="14.35">
-      <c r="D165" s="29"/>
-    </row>
-    <row r="166" spans="4:4" ht="14.35">
-      <c r="D166" s="29"/>
-    </row>
-    <row r="167" spans="4:4" ht="14.35">
-      <c r="D167" s="29"/>
-    </row>
-    <row r="168" spans="4:4" ht="14.35">
-      <c r="D168" s="29"/>
-    </row>
-    <row r="169" spans="4:4" ht="14.35">
-      <c r="D169" s="29"/>
-    </row>
-    <row r="170" spans="4:4" ht="14.35">
-      <c r="D170" s="29"/>
-    </row>
-    <row r="171" spans="4:4" ht="14.35">
-      <c r="D171" s="29"/>
-    </row>
-    <row r="172" spans="4:4" ht="14.35">
-      <c r="D172" s="29"/>
-    </row>
-    <row r="173" spans="4:4" ht="14.35">
-      <c r="D173" s="29"/>
-    </row>
-    <row r="174" spans="4:4" ht="14.35">
-      <c r="D174" s="29"/>
-    </row>
-    <row r="175" spans="4:4" ht="14.35">
-      <c r="D175" s="29"/>
-    </row>
-    <row r="176" spans="4:4" ht="14.35">
-      <c r="D176" s="29"/>
-    </row>
-    <row r="177" spans="4:4" ht="14.35">
-      <c r="D177" s="29"/>
-    </row>
-    <row r="178" spans="4:4" ht="14.35">
-      <c r="D178" s="29"/>
-    </row>
-    <row r="179" spans="4:4" ht="14.35">
-      <c r="D179" s="29"/>
-    </row>
-    <row r="180" spans="4:4" ht="14.35">
-      <c r="D180" s="29"/>
-    </row>
-    <row r="181" spans="4:4" ht="14.35">
-      <c r="D181" s="29"/>
-    </row>
-    <row r="182" spans="4:4" ht="14.35">
-      <c r="D182" s="29"/>
-    </row>
-    <row r="183" spans="4:4" ht="14.35">
-      <c r="D183" s="29"/>
-    </row>
-    <row r="184" spans="4:4" ht="14.35">
-      <c r="D184" s="29"/>
-    </row>
-    <row r="185" spans="4:4" ht="14.35">
-      <c r="D185" s="29"/>
-    </row>
-    <row r="186" spans="4:4" ht="14.35">
-      <c r="D186" s="29"/>
-    </row>
-    <row r="187" spans="4:4" ht="14.35">
-      <c r="D187" s="29"/>
-    </row>
-    <row r="188" spans="4:4" ht="14.35">
-      <c r="D188" s="29"/>
-    </row>
-    <row r="189" spans="4:4" ht="14.35">
-      <c r="D189" s="29"/>
-    </row>
-    <row r="190" spans="4:4" ht="14.35">
-      <c r="D190" s="29"/>
-    </row>
-    <row r="191" spans="4:4" ht="14.35">
-      <c r="D191" s="29"/>
-    </row>
-    <row r="192" spans="4:4" ht="14.35">
-      <c r="D192" s="29"/>
-    </row>
-    <row r="193" spans="4:4" ht="14.35">
-      <c r="D193" s="29"/>
-    </row>
-    <row r="194" spans="4:4" ht="14.35">
-      <c r="D194" s="29"/>
-    </row>
-    <row r="195" spans="4:4" ht="14.35">
-      <c r="D195" s="29"/>
-    </row>
-    <row r="196" spans="4:4" ht="14.35">
-      <c r="D196" s="29"/>
-    </row>
-    <row r="197" spans="4:4" ht="14.35">
-      <c r="D197" s="29"/>
-    </row>
-    <row r="198" spans="4:4" ht="14.35">
-      <c r="D198" s="29"/>
-    </row>
-    <row r="199" spans="4:4" ht="14.35">
-      <c r="D199" s="29"/>
-    </row>
-    <row r="200" spans="4:4" ht="14.35">
-      <c r="D200" s="29"/>
-    </row>
-    <row r="201" spans="4:4" ht="14.35">
-      <c r="D201" s="29"/>
-    </row>
-    <row r="202" spans="4:4" ht="14.35">
-      <c r="D202" s="29"/>
-    </row>
-    <row r="203" spans="4:4" ht="14.35">
-      <c r="D203" s="29"/>
-    </row>
-    <row r="204" spans="4:4" ht="14.35">
-      <c r="D204" s="29"/>
-    </row>
-    <row r="205" spans="4:4" ht="14.35">
-      <c r="D205" s="29"/>
-    </row>
-    <row r="206" spans="4:4" ht="14.35">
-      <c r="D206" s="29"/>
-    </row>
-    <row r="207" spans="4:4" ht="14.35">
-      <c r="D207" s="29"/>
-    </row>
-    <row r="208" spans="4:4" ht="14.35">
-      <c r="D208" s="29"/>
-    </row>
-    <row r="209" spans="4:4" ht="14.35">
-      <c r="D209" s="29"/>
-    </row>
-    <row r="210" spans="4:4" ht="14.35">
-      <c r="D210" s="29"/>
-    </row>
-    <row r="211" spans="4:4" ht="14.35">
-      <c r="D211" s="29"/>
-    </row>
-    <row r="212" spans="4:4" ht="14.35">
-      <c r="D212" s="29"/>
-    </row>
-    <row r="213" spans="4:4" ht="14.35">
-      <c r="D213" s="29"/>
-    </row>
-    <row r="214" spans="4:4" ht="14.35">
-      <c r="D214" s="29"/>
-    </row>
-    <row r="215" spans="4:4" ht="14.35">
-      <c r="D215" s="29"/>
-    </row>
-    <row r="216" spans="4:4" ht="14.35">
-      <c r="D216" s="29"/>
-    </row>
-    <row r="217" spans="4:4" ht="14.35">
-      <c r="D217" s="29"/>
-    </row>
-    <row r="218" spans="4:4" ht="14.35">
-      <c r="D218" s="29"/>
-    </row>
-    <row r="219" spans="4:4" ht="14.35">
-      <c r="D219" s="29"/>
-    </row>
-    <row r="220" spans="4:4" ht="14.35">
-      <c r="D220" s="29"/>
-    </row>
-    <row r="221" spans="4:4" ht="14.35">
-      <c r="D221" s="29"/>
-    </row>
-    <row r="222" spans="4:4" ht="14.35">
-      <c r="D222" s="29"/>
-    </row>
-    <row r="223" spans="4:4" ht="14.35">
-      <c r="D223" s="29"/>
-    </row>
-    <row r="224" spans="4:4" ht="14.35">
-      <c r="D224" s="29"/>
-    </row>
-    <row r="225" spans="4:4" ht="14.35">
-      <c r="D225" s="29"/>
-    </row>
-    <row r="226" spans="4:4" ht="14.35">
-      <c r="D226" s="29"/>
-    </row>
-    <row r="227" spans="4:4" ht="14.35">
-      <c r="D227" s="29"/>
-    </row>
-    <row r="228" spans="4:4" ht="14.35">
-      <c r="D228" s="29"/>
-    </row>
-    <row r="229" spans="4:4" ht="14.35">
-      <c r="D229" s="29"/>
-    </row>
-    <row r="230" spans="4:4" ht="14.35">
-      <c r="D230" s="29"/>
-    </row>
-    <row r="231" spans="4:4" ht="14.35">
-      <c r="D231" s="29"/>
-    </row>
-    <row r="232" spans="4:4" ht="14.35">
-      <c r="D232" s="29"/>
-    </row>
-    <row r="233" spans="4:4" ht="14.35">
-      <c r="D233" s="29"/>
-    </row>
-    <row r="234" spans="4:4" ht="14.35">
-      <c r="D234" s="29"/>
-    </row>
-    <row r="235" spans="4:4" ht="14.35">
-      <c r="D235" s="29"/>
-    </row>
-    <row r="236" spans="4:4" ht="14.35">
-      <c r="D236" s="29"/>
-    </row>
-    <row r="237" spans="4:4" ht="14.35">
-      <c r="D237" s="29"/>
-    </row>
-    <row r="238" spans="4:4" ht="14.35">
-      <c r="D238" s="29"/>
-    </row>
-    <row r="239" spans="4:4" ht="14.35">
-      <c r="D239" s="29"/>
-    </row>
-    <row r="240" spans="4:4" ht="14.35">
-      <c r="D240" s="29"/>
-    </row>
-    <row r="241" spans="4:4" ht="14.35">
-      <c r="D241" s="29"/>
-    </row>
-    <row r="242" spans="4:4" ht="14.35">
-      <c r="D242" s="29"/>
-    </row>
-    <row r="243" spans="4:4" ht="14.35">
-      <c r="D243" s="29"/>
-    </row>
-    <row r="244" spans="4:4" ht="14.35">
-      <c r="D244" s="29"/>
-    </row>
-    <row r="245" spans="4:4" ht="14.35">
-      <c r="D245" s="29"/>
-    </row>
-    <row r="246" spans="4:4" ht="14.35">
-      <c r="D246" s="29"/>
-    </row>
-    <row r="247" spans="4:4" ht="14.35">
-      <c r="D247" s="29"/>
-    </row>
-    <row r="248" spans="4:4" ht="14.35">
-      <c r="D248" s="29"/>
-    </row>
-    <row r="249" spans="4:4" ht="14.35">
-      <c r="D249" s="29"/>
-    </row>
-    <row r="250" spans="4:4" ht="14.35">
-      <c r="D250" s="29"/>
-    </row>
-    <row r="251" spans="4:4" ht="14.35">
-      <c r="D251" s="29"/>
-    </row>
-    <row r="252" spans="4:4" ht="14.35">
-      <c r="D252" s="29"/>
-    </row>
-    <row r="253" spans="4:4" ht="14.35">
-      <c r="D253" s="29"/>
-    </row>
-    <row r="254" spans="4:4" ht="14.35">
-      <c r="D254" s="29"/>
-    </row>
-    <row r="255" spans="4:4" ht="14.35">
-      <c r="D255" s="29"/>
-    </row>
-    <row r="256" spans="4:4" ht="14.35">
-      <c r="D256" s="29"/>
-    </row>
-    <row r="257" spans="4:4" ht="14.35">
-      <c r="D257" s="29"/>
-    </row>
-    <row r="258" spans="4:4" ht="14.35">
-      <c r="D258" s="29"/>
-    </row>
-    <row r="259" spans="4:4" ht="14.35">
-      <c r="D259" s="29"/>
-    </row>
-    <row r="260" spans="4:4" ht="14.35">
-      <c r="D260" s="29"/>
-    </row>
-    <row r="261" spans="4:4" ht="14.35">
-      <c r="D261" s="29"/>
-    </row>
-    <row r="262" spans="4:4" ht="14.35">
-      <c r="D262" s="29"/>
-    </row>
-    <row r="263" spans="4:4" ht="14.35">
-      <c r="D263" s="29"/>
-    </row>
-    <row r="264" spans="4:4" ht="14.35">
-      <c r="D264" s="29"/>
-    </row>
-    <row r="265" spans="4:4" ht="14.35">
-      <c r="D265" s="29"/>
-    </row>
-    <row r="266" spans="4:4" ht="14.35">
-      <c r="D266" s="29"/>
-    </row>
-    <row r="267" spans="4:4" ht="14.35">
-      <c r="D267" s="29"/>
-    </row>
-    <row r="268" spans="4:4" ht="14.35">
-      <c r="D268" s="29"/>
-    </row>
-    <row r="269" spans="4:4" ht="14.35">
-      <c r="D269" s="29"/>
-    </row>
-    <row r="270" spans="4:4" ht="14.35">
-      <c r="D270" s="29"/>
-    </row>
-    <row r="271" spans="4:4" ht="14.35">
-      <c r="D271" s="29"/>
-    </row>
-    <row r="272" spans="4:4" ht="14.35">
-      <c r="D272" s="29"/>
-    </row>
-    <row r="273" spans="4:4" ht="14.35">
-      <c r="D273" s="29"/>
-    </row>
-    <row r="274" spans="4:4" ht="14.35">
-      <c r="D274" s="29"/>
-    </row>
-    <row r="275" spans="4:4" ht="14.35">
-      <c r="D275" s="29"/>
-    </row>
-    <row r="276" spans="4:4" ht="14.35">
-      <c r="D276" s="29"/>
-    </row>
-    <row r="277" spans="4:4" ht="14.35">
-      <c r="D277" s="29"/>
-    </row>
-    <row r="278" spans="4:4" ht="14.35">
-      <c r="D278" s="29"/>
-    </row>
-    <row r="279" spans="4:4" ht="14.35">
-      <c r="D279" s="29"/>
-    </row>
-    <row r="280" spans="4:4" ht="14.35">
-      <c r="D280" s="29"/>
-    </row>
-    <row r="281" spans="4:4" ht="14.35">
-      <c r="D281" s="29"/>
-    </row>
-    <row r="282" spans="4:4" ht="14.35">
-      <c r="D282" s="29"/>
-    </row>
-    <row r="283" spans="4:4" ht="14.35">
-      <c r="D283" s="29"/>
-    </row>
-    <row r="284" spans="4:4" ht="14.35">
-      <c r="D284" s="29"/>
-    </row>
-    <row r="285" spans="4:4" ht="14.35">
-      <c r="D285" s="29"/>
-    </row>
-    <row r="286" spans="4:4" ht="14.35">
-      <c r="D286" s="29"/>
-    </row>
-    <row r="287" spans="4:4" ht="14.35">
-      <c r="D287" s="29"/>
-    </row>
-    <row r="288" spans="4:4" ht="14.35">
-      <c r="D288" s="29"/>
-    </row>
-    <row r="289" spans="4:4" ht="14.35">
-      <c r="D289" s="29"/>
-    </row>
-    <row r="290" spans="4:4" ht="14.35">
-      <c r="D290" s="29"/>
-    </row>
-    <row r="291" spans="4:4" ht="14.35">
-      <c r="D291" s="29"/>
-    </row>
-    <row r="292" spans="4:4" ht="14.35">
-      <c r="D292" s="29"/>
-    </row>
-    <row r="293" spans="4:4" ht="14.35">
-      <c r="D293" s="29"/>
-    </row>
-    <row r="294" spans="4:4" ht="14.35">
-      <c r="D294" s="29"/>
-    </row>
-    <row r="295" spans="4:4" ht="14.35">
-      <c r="D295" s="29"/>
-    </row>
-    <row r="296" spans="4:4" ht="14.35">
-      <c r="D296" s="29"/>
-    </row>
-    <row r="297" spans="4:4" ht="14.35">
-      <c r="D297" s="29"/>
-    </row>
-    <row r="298" spans="4:4" ht="14.35">
-      <c r="D298" s="29"/>
-    </row>
-    <row r="299" spans="4:4" ht="14.35">
-      <c r="D299" s="29"/>
-    </row>
-    <row r="300" spans="4:4" ht="14.35">
-      <c r="D300" s="29"/>
-    </row>
-    <row r="301" spans="4:4" ht="14.35">
-      <c r="D301" s="29"/>
-    </row>
-    <row r="302" spans="4:4" ht="14.35">
-      <c r="D302" s="29"/>
-    </row>
-    <row r="303" spans="4:4" ht="14.35">
-      <c r="D303" s="29"/>
-    </row>
-    <row r="304" spans="4:4" ht="14.35">
-      <c r="D304" s="29"/>
-    </row>
-    <row r="305" spans="4:4" ht="14.35">
-      <c r="D305" s="29"/>
-    </row>
-    <row r="306" spans="4:4" ht="14.35">
-      <c r="D306" s="29"/>
-    </row>
-    <row r="307" spans="4:4" ht="14.35">
-      <c r="D307" s="29"/>
-    </row>
-    <row r="308" spans="4:4" ht="14.35">
-      <c r="D308" s="29"/>
-    </row>
-    <row r="309" spans="4:4" ht="14.35">
-      <c r="D309" s="29"/>
-    </row>
-    <row r="310" spans="4:4" ht="14.35">
-      <c r="D310" s="29"/>
-    </row>
-    <row r="311" spans="4:4" ht="14.35">
-      <c r="D311" s="29"/>
-    </row>
-    <row r="312" spans="4:4" ht="14.35">
-      <c r="D312" s="29"/>
-    </row>
-    <row r="313" spans="4:4" ht="14.35">
-      <c r="D313" s="29"/>
-    </row>
-    <row r="314" spans="4:4" ht="14.35">
-      <c r="D314" s="29"/>
-    </row>
-    <row r="315" spans="4:4" ht="14.35">
-      <c r="D315" s="29"/>
-    </row>
-    <row r="316" spans="4:4" ht="14.35">
-      <c r="D316" s="29"/>
-    </row>
-    <row r="317" spans="4:4" ht="14.35">
-      <c r="D317" s="29"/>
-    </row>
-    <row r="318" spans="4:4" ht="14.35">
-      <c r="D318" s="29"/>
-    </row>
-    <row r="319" spans="4:4" ht="14.35">
-      <c r="D319" s="29"/>
-    </row>
-    <row r="320" spans="4:4" ht="14.35">
-      <c r="D320" s="29"/>
-    </row>
-    <row r="321" spans="4:4" ht="14.35">
-      <c r="D321" s="29"/>
-    </row>
-    <row r="322" spans="4:4" ht="14.35">
-      <c r="D322" s="29"/>
-    </row>
-    <row r="323" spans="4:4" ht="14.35">
-      <c r="D323" s="29"/>
-    </row>
-    <row r="324" spans="4:4" ht="14.35">
-      <c r="D324" s="29"/>
-    </row>
-    <row r="325" spans="4:4" ht="14.35">
-      <c r="D325" s="29"/>
-    </row>
-    <row r="326" spans="4:4" ht="14.35">
-      <c r="D326" s="29"/>
-    </row>
-    <row r="327" spans="4:4" ht="14.35">
-      <c r="D327" s="29"/>
-    </row>
-    <row r="328" spans="4:4" ht="14.35">
-      <c r="D328" s="29"/>
-    </row>
-    <row r="329" spans="4:4" ht="14.35">
-      <c r="D329" s="29"/>
-    </row>
-    <row r="330" spans="4:4" ht="14.35">
-      <c r="D330" s="29"/>
-    </row>
-    <row r="331" spans="4:4" ht="14.35">
-      <c r="D331" s="29"/>
-    </row>
-    <row r="332" spans="4:4" ht="14.35">
-      <c r="D332" s="29"/>
-    </row>
-    <row r="333" spans="4:4" ht="14.35">
-      <c r="D333" s="29"/>
-    </row>
-    <row r="334" spans="4:4" ht="14.35">
-      <c r="D334" s="29"/>
-    </row>
-    <row r="335" spans="4:4" ht="14.35">
-      <c r="D335" s="29"/>
-    </row>
-    <row r="336" spans="4:4" ht="14.35">
-      <c r="D336" s="29"/>
-    </row>
-    <row r="337" spans="4:4" ht="14.35">
-      <c r="D337" s="29"/>
-    </row>
-    <row r="338" spans="4:4" ht="14.35">
-      <c r="D338" s="29"/>
-    </row>
-    <row r="339" spans="4:4" ht="14.35">
-      <c r="D339" s="29"/>
-    </row>
-    <row r="340" spans="4:4" ht="14.35">
-      <c r="D340" s="29"/>
-    </row>
-    <row r="341" spans="4:4" ht="14.35">
-      <c r="D341" s="29"/>
-    </row>
-    <row r="342" spans="4:4" ht="14.35">
-      <c r="D342" s="29"/>
-    </row>
-    <row r="343" spans="4:4" ht="14.35">
-      <c r="D343" s="29"/>
-    </row>
-    <row r="344" spans="4:4" ht="14.35">
-      <c r="D344" s="29"/>
-    </row>
-    <row r="345" spans="4:4" ht="14.35">
-      <c r="D345" s="29"/>
-    </row>
-    <row r="346" spans="4:4" ht="14.35">
-      <c r="D346" s="29"/>
-    </row>
-    <row r="347" spans="4:4" ht="14.35">
-      <c r="D347" s="29"/>
-    </row>
-    <row r="348" spans="4:4" ht="14.35">
-      <c r="D348" s="29"/>
-    </row>
-    <row r="349" spans="4:4" ht="14.35">
-      <c r="D349" s="29"/>
-    </row>
-    <row r="350" spans="4:4" ht="14.35">
-      <c r="D350" s="29"/>
-    </row>
-    <row r="351" spans="4:4" ht="14.35">
-      <c r="D351" s="29"/>
-    </row>
-    <row r="352" spans="4:4" ht="14.35">
-      <c r="D352" s="29"/>
-    </row>
-    <row r="353" spans="4:4" ht="14.35">
-      <c r="D353" s="29"/>
-    </row>
-    <row r="354" spans="4:4" ht="14.35">
-      <c r="D354" s="29"/>
-    </row>
-    <row r="355" spans="4:4" ht="14.35">
-      <c r="D355" s="29"/>
-    </row>
-    <row r="356" spans="4:4" ht="14.35">
-      <c r="D356" s="29"/>
-    </row>
-    <row r="357" spans="4:4" ht="14.35">
-      <c r="D357" s="29"/>
-    </row>
-    <row r="358" spans="4:4" ht="14.35">
-      <c r="D358" s="29"/>
-    </row>
-    <row r="359" spans="4:4" ht="14.35">
-      <c r="D359" s="29"/>
-    </row>
-    <row r="360" spans="4:4" ht="14.35">
-      <c r="D360" s="29"/>
-    </row>
-    <row r="361" spans="4:4" ht="14.35">
-      <c r="D361" s="29"/>
-    </row>
-    <row r="362" spans="4:4" ht="14.35">
-      <c r="D362" s="29"/>
-    </row>
-    <row r="363" spans="4:4" ht="14.35">
-      <c r="D363" s="29"/>
-    </row>
-    <row r="364" spans="4:4" ht="14.35">
-      <c r="D364" s="29"/>
-    </row>
-    <row r="365" spans="4:4" ht="14.35">
-      <c r="D365" s="29"/>
-    </row>
-    <row r="366" spans="4:4" ht="14.35">
-      <c r="D366" s="29"/>
-    </row>
-    <row r="367" spans="4:4" ht="14.35">
-      <c r="D367" s="29"/>
-    </row>
-    <row r="368" spans="4:4" ht="14.35">
-      <c r="D368" s="29"/>
-    </row>
-    <row r="369" spans="4:4" ht="14.35">
-      <c r="D369" s="29"/>
-    </row>
-    <row r="370" spans="4:4" ht="14.35">
-      <c r="D370" s="29"/>
-    </row>
-    <row r="371" spans="4:4" ht="14.35">
-      <c r="D371" s="29"/>
-    </row>
-    <row r="372" spans="4:4" ht="14.35">
-      <c r="D372" s="29"/>
-    </row>
-    <row r="373" spans="4:4" ht="14.35">
-      <c r="D373" s="29"/>
-    </row>
-    <row r="374" spans="4:4" ht="14.35">
-      <c r="D374" s="29"/>
-    </row>
-    <row r="375" spans="4:4" ht="14.35">
-      <c r="D375" s="29"/>
-    </row>
-    <row r="376" spans="4:4" ht="14.35">
-      <c r="D376" s="29"/>
-    </row>
-    <row r="377" spans="4:4" ht="14.35">
-      <c r="D377" s="29"/>
-    </row>
-    <row r="378" spans="4:4" ht="14.35">
-      <c r="D378" s="29"/>
-    </row>
-    <row r="379" spans="4:4" ht="14.35">
-      <c r="D379" s="29"/>
-    </row>
-    <row r="380" spans="4:4" ht="14.35">
-      <c r="D380" s="29"/>
-    </row>
-    <row r="381" spans="4:4" ht="14.35">
-      <c r="D381" s="29"/>
-    </row>
-    <row r="382" spans="4:4" ht="14.35">
-      <c r="D382" s="29"/>
-    </row>
-    <row r="383" spans="4:4" ht="14.35">
-      <c r="D383" s="29"/>
-    </row>
-    <row r="384" spans="4:4" ht="14.35">
-      <c r="D384" s="29"/>
-    </row>
-    <row r="385" spans="4:4" ht="14.35">
-      <c r="D385" s="29"/>
-    </row>
-    <row r="386" spans="4:4" ht="14.35">
-      <c r="D386" s="29"/>
-    </row>
-    <row r="387" spans="4:4" ht="14.35">
-      <c r="D387" s="29"/>
-    </row>
-    <row r="388" spans="4:4" ht="14.35">
-      <c r="D388" s="29"/>
-    </row>
-    <row r="389" spans="4:4" ht="14.35">
-      <c r="D389" s="29"/>
-    </row>
-    <row r="390" spans="4:4" ht="14.35">
-      <c r="D390" s="29"/>
-    </row>
-    <row r="391" spans="4:4" ht="14.35">
-      <c r="D391" s="29"/>
-    </row>
-    <row r="392" spans="4:4" ht="14.35">
-      <c r="D392" s="29"/>
-    </row>
-    <row r="393" spans="4:4" ht="14.35">
-      <c r="D393" s="29"/>
-    </row>
-    <row r="394" spans="4:4" ht="14.35">
-      <c r="D394" s="29"/>
-    </row>
-    <row r="395" spans="4:4" ht="14.35">
-      <c r="D395" s="29"/>
-    </row>
-    <row r="396" spans="4:4" ht="14.35">
-      <c r="D396" s="29"/>
-    </row>
-    <row r="397" spans="4:4" ht="14.35">
-      <c r="D397" s="29"/>
-    </row>
-    <row r="398" spans="4:4" ht="14.35">
-      <c r="D398" s="29"/>
-    </row>
-    <row r="399" spans="4:4" ht="14.35">
-      <c r="D399" s="29"/>
-    </row>
-    <row r="400" spans="4:4" ht="14.35">
-      <c r="D400" s="29"/>
-    </row>
-    <row r="401" spans="4:4" ht="14.35">
-      <c r="D401" s="29"/>
-    </row>
-    <row r="402" spans="4:4" ht="14.35">
-      <c r="D402" s="29"/>
-    </row>
-    <row r="403" spans="4:4" ht="14.35">
-      <c r="D403" s="29"/>
-    </row>
-    <row r="404" spans="4:4" ht="14.35">
-      <c r="D404" s="29"/>
-    </row>
-    <row r="405" spans="4:4" ht="14.35">
-      <c r="D405" s="29"/>
-    </row>
-    <row r="406" spans="4:4" ht="14.35">
-      <c r="D406" s="29"/>
-    </row>
-    <row r="407" spans="4:4" ht="14.35">
-      <c r="D407" s="29"/>
-    </row>
-    <row r="408" spans="4:4" ht="14.35">
-      <c r="D408" s="29"/>
-    </row>
-    <row r="409" spans="4:4" ht="14.35">
-      <c r="D409" s="29"/>
-    </row>
-    <row r="410" spans="4:4" ht="14.35">
-      <c r="D410" s="29"/>
-    </row>
-    <row r="411" spans="4:4" ht="14.35">
-      <c r="D411" s="29"/>
-    </row>
-    <row r="412" spans="4:4" ht="14.35">
-      <c r="D412" s="29"/>
-    </row>
-    <row r="413" spans="4:4" ht="14.35">
-      <c r="D413" s="29"/>
-    </row>
-    <row r="414" spans="4:4" ht="14.35">
-      <c r="D414" s="29"/>
-    </row>
-    <row r="415" spans="4:4" ht="14.35">
-      <c r="D415" s="29"/>
-    </row>
-    <row r="416" spans="4:4" ht="14.35">
-      <c r="D416" s="29"/>
-    </row>
-    <row r="417" spans="4:4" ht="14.35">
-      <c r="D417" s="29"/>
-    </row>
-    <row r="418" spans="4:4" ht="14.35">
-      <c r="D418" s="29"/>
-    </row>
-    <row r="419" spans="4:4" ht="14.35">
-      <c r="D419" s="29"/>
-    </row>
-    <row r="420" spans="4:4" ht="14.35">
-      <c r="D420" s="29"/>
-    </row>
-    <row r="421" spans="4:4" ht="14.35">
-      <c r="D421" s="29"/>
-    </row>
-    <row r="422" spans="4:4" ht="14.35">
-      <c r="D422" s="29"/>
-    </row>
-    <row r="423" spans="4:4" ht="14.35">
-      <c r="D423" s="29"/>
-    </row>
-    <row r="424" spans="4:4" ht="14.35">
-      <c r="D424" s="29"/>
-    </row>
-    <row r="425" spans="4:4" ht="14.35">
-      <c r="D425" s="29"/>
-    </row>
-    <row r="426" spans="4:4" ht="14.35">
-      <c r="D426" s="29"/>
-    </row>
-    <row r="427" spans="4:4" ht="14.35">
-      <c r="D427" s="29"/>
-    </row>
-    <row r="428" spans="4:4" ht="14.35">
-      <c r="D428" s="29"/>
-    </row>
-    <row r="429" spans="4:4" ht="14.35">
-      <c r="D429" s="29"/>
-    </row>
-    <row r="430" spans="4:4" ht="14.35">
-      <c r="D430" s="29"/>
-    </row>
-    <row r="431" spans="4:4" ht="14.35">
-      <c r="D431" s="29"/>
-    </row>
-    <row r="432" spans="4:4" ht="14.35">
-      <c r="D432" s="29"/>
-    </row>
-    <row r="433" spans="4:4" ht="14.35">
-      <c r="D433" s="29"/>
-    </row>
-    <row r="434" spans="4:4" ht="14.35">
-      <c r="D434" s="29"/>
-    </row>
-    <row r="435" spans="4:4" ht="14.35">
-      <c r="D435" s="29"/>
-    </row>
-    <row r="436" spans="4:4" ht="14.35">
-      <c r="D436" s="29"/>
-    </row>
-    <row r="437" spans="4:4" ht="14.35">
-      <c r="D437" s="29"/>
-    </row>
-    <row r="438" spans="4:4" ht="14.35">
-      <c r="D438" s="29"/>
-    </row>
-    <row r="439" spans="4:4" ht="14.35">
-      <c r="D439" s="29"/>
-    </row>
-    <row r="440" spans="4:4" ht="14.35">
-      <c r="D440" s="29"/>
-    </row>
-    <row r="441" spans="4:4" ht="14.35">
-      <c r="D441" s="29"/>
-    </row>
-    <row r="442" spans="4:4" ht="14.35">
-      <c r="D442" s="29"/>
-    </row>
-    <row r="443" spans="4:4" ht="14.35">
-      <c r="D443" s="29"/>
-    </row>
-    <row r="444" spans="4:4" ht="14.35">
-      <c r="D444" s="29"/>
-    </row>
-    <row r="445" spans="4:4" ht="14.35">
-      <c r="D445" s="29"/>
-    </row>
-    <row r="446" spans="4:4" ht="14.35">
-      <c r="D446" s="29"/>
-    </row>
-    <row r="447" spans="4:4" ht="14.35">
-      <c r="D447" s="29"/>
-    </row>
-    <row r="448" spans="4:4" ht="14.35">
-      <c r="D448" s="29"/>
-    </row>
-    <row r="449" spans="4:4" ht="14.35">
-      <c r="D449" s="29"/>
-    </row>
-    <row r="450" spans="4:4" ht="14.35">
-      <c r="D450" s="29"/>
-    </row>
-    <row r="451" spans="4:4" ht="14.35">
-      <c r="D451" s="29"/>
-    </row>
-    <row r="452" spans="4:4" ht="14.35">
-      <c r="D452" s="29"/>
-    </row>
-    <row r="453" spans="4:4" ht="14.35">
-      <c r="D453" s="29"/>
-    </row>
-    <row r="454" spans="4:4" ht="14.35">
-      <c r="D454" s="29"/>
-    </row>
-    <row r="455" spans="4:4" ht="14.35">
-      <c r="D455" s="29"/>
-    </row>
-    <row r="456" spans="4:4" ht="14.35">
-      <c r="D456" s="29"/>
-    </row>
-    <row r="457" spans="4:4" ht="14.35">
-      <c r="D457" s="29"/>
-    </row>
-    <row r="458" spans="4:4" ht="14.35">
-      <c r="D458" s="29"/>
-    </row>
-    <row r="459" spans="4:4" ht="14.35">
-      <c r="D459" s="29"/>
-    </row>
-    <row r="460" spans="4:4" ht="14.35">
-      <c r="D460" s="29"/>
-    </row>
-    <row r="461" spans="4:4" ht="14.35">
-      <c r="D461" s="29"/>
-    </row>
-    <row r="462" spans="4:4" ht="14.35">
-      <c r="D462" s="29"/>
-    </row>
-    <row r="463" spans="4:4" ht="14.35">
-      <c r="D463" s="29"/>
-    </row>
-    <row r="464" spans="4:4" ht="14.35">
-      <c r="D464" s="29"/>
-    </row>
-    <row r="465" spans="4:4" ht="14.35">
-      <c r="D465" s="29"/>
-    </row>
-    <row r="466" spans="4:4" ht="14.35">
-      <c r="D466" s="29"/>
-    </row>
-    <row r="467" spans="4:4" ht="14.35">
-      <c r="D467" s="29"/>
-    </row>
-    <row r="468" spans="4:4" ht="14.35">
-      <c r="D468" s="29"/>
-    </row>
-    <row r="469" spans="4:4" ht="14.35">
-      <c r="D469" s="29"/>
-    </row>
-    <row r="470" spans="4:4" ht="14.35">
-      <c r="D470" s="29"/>
-    </row>
-    <row r="471" spans="4:4" ht="14.35">
-      <c r="D471" s="29"/>
-    </row>
-    <row r="472" spans="4:4" ht="14.35">
-      <c r="D472" s="29"/>
-    </row>
-    <row r="473" spans="4:4" ht="14.35">
-      <c r="D473" s="29"/>
-    </row>
-    <row r="474" spans="4:4" ht="14.35">
-      <c r="D474" s="29"/>
-    </row>
-    <row r="475" spans="4:4" ht="14.35">
-      <c r="D475" s="29"/>
-    </row>
-    <row r="476" spans="4:4" ht="14.35">
-      <c r="D476" s="29"/>
-    </row>
-    <row r="477" spans="4:4" ht="14.35">
-      <c r="D477" s="29"/>
-    </row>
-    <row r="478" spans="4:4" ht="14.35">
-      <c r="D478" s="29"/>
-    </row>
-    <row r="479" spans="4:4" ht="14.35">
-      <c r="D479" s="29"/>
-    </row>
-    <row r="480" spans="4:4" ht="14.35">
-      <c r="D480" s="29"/>
-    </row>
-    <row r="481" spans="4:4" ht="14.35">
-      <c r="D481" s="29"/>
-    </row>
-    <row r="482" spans="4:4" ht="14.35">
-      <c r="D482" s="29"/>
-    </row>
-    <row r="483" spans="4:4" ht="14.35">
-      <c r="D483" s="29"/>
-    </row>
-    <row r="484" spans="4:4" ht="14.35">
-      <c r="D484" s="29"/>
-    </row>
-    <row r="485" spans="4:4" ht="14.35">
-      <c r="D485" s="29"/>
-    </row>
-    <row r="486" spans="4:4" ht="14.35">
-      <c r="D486" s="29"/>
-    </row>
-    <row r="487" spans="4:4" ht="14.35">
-      <c r="D487" s="29"/>
-    </row>
-    <row r="488" spans="4:4" ht="14.35">
-      <c r="D488" s="29"/>
-    </row>
-    <row r="489" spans="4:4" ht="14.35">
-      <c r="D489" s="29"/>
-    </row>
-    <row r="490" spans="4:4" ht="14.35">
-      <c r="D490" s="29"/>
-    </row>
-    <row r="491" spans="4:4" ht="14.35">
-      <c r="D491" s="29"/>
-    </row>
-    <row r="492" spans="4:4" ht="14.35">
-      <c r="D492" s="29"/>
-    </row>
-    <row r="493" spans="4:4" ht="14.35">
-      <c r="D493" s="29"/>
-    </row>
-    <row r="494" spans="4:4" ht="14.35">
-      <c r="D494" s="29"/>
-    </row>
-    <row r="495" spans="4:4" ht="14.35">
-      <c r="D495" s="29"/>
-    </row>
-    <row r="496" spans="4:4" ht="14.35">
-      <c r="D496" s="29"/>
-    </row>
-    <row r="497" spans="4:4" ht="14.35">
-      <c r="D497" s="29"/>
-    </row>
-    <row r="498" spans="4:4" ht="14.35">
-      <c r="D498" s="29"/>
-    </row>
-    <row r="499" spans="4:4" ht="14.35">
-      <c r="D499" s="29"/>
-    </row>
-    <row r="500" spans="4:4" ht="14.35">
-      <c r="D500" s="29"/>
-    </row>
-    <row r="501" spans="4:4" ht="14.35">
-      <c r="D501" s="29"/>
-    </row>
-    <row r="502" spans="4:4" ht="14.35">
-      <c r="D502" s="29"/>
-    </row>
-    <row r="503" spans="4:4" ht="14.35">
-      <c r="D503" s="29"/>
-    </row>
-    <row r="504" spans="4:4" ht="14.35">
-      <c r="D504" s="29"/>
-    </row>
-    <row r="505" spans="4:4" ht="14.35">
-      <c r="D505" s="29"/>
-    </row>
-    <row r="506" spans="4:4" ht="14.35">
-      <c r="D506" s="29"/>
-    </row>
-    <row r="507" spans="4:4" ht="14.35">
-      <c r="D507" s="29"/>
-    </row>
-    <row r="508" spans="4:4" ht="14.35">
-      <c r="D508" s="29"/>
-    </row>
-    <row r="509" spans="4:4" ht="14.35">
-      <c r="D509" s="29"/>
-    </row>
-    <row r="510" spans="4:4" ht="14.35">
-      <c r="D510" s="29"/>
-    </row>
-    <row r="511" spans="4:4" ht="14.35">
-      <c r="D511" s="29"/>
-    </row>
-    <row r="512" spans="4:4" ht="14.35">
-      <c r="D512" s="29"/>
-    </row>
-    <row r="513" spans="4:4" ht="14.35">
-      <c r="D513" s="29"/>
-    </row>
-    <row r="514" spans="4:4" ht="14.35">
-      <c r="D514" s="29"/>
-    </row>
-    <row r="515" spans="4:4" ht="14.35">
-      <c r="D515" s="29"/>
-    </row>
-    <row r="516" spans="4:4" ht="14.35">
-      <c r="D516" s="29"/>
-    </row>
-    <row r="517" spans="4:4" ht="14.35">
-      <c r="D517" s="29"/>
-    </row>
-    <row r="518" spans="4:4" ht="14.35">
-      <c r="D518" s="29"/>
-    </row>
-    <row r="519" spans="4:4" ht="14.35">
-      <c r="D519" s="29"/>
-    </row>
-    <row r="520" spans="4:4" ht="14.35">
-      <c r="D520" s="29"/>
-    </row>
-    <row r="521" spans="4:4" ht="14.35">
-      <c r="D521" s="29"/>
-    </row>
-    <row r="522" spans="4:4" ht="14.35">
-      <c r="D522" s="29"/>
-    </row>
-    <row r="523" spans="4:4" ht="14.35">
-      <c r="D523" s="29"/>
-    </row>
-    <row r="524" spans="4:4" ht="14.35">
-      <c r="D524" s="29"/>
-    </row>
-    <row r="525" spans="4:4" ht="14.35">
-      <c r="D525" s="29"/>
-    </row>
-    <row r="526" spans="4:4" ht="14.35">
-      <c r="D526" s="29"/>
-    </row>
-    <row r="527" spans="4:4" ht="14.35">
-      <c r="D527" s="29"/>
-    </row>
-    <row r="528" spans="4:4" ht="14.35">
-      <c r="D528" s="29"/>
-    </row>
-    <row r="529" spans="4:4" ht="14.35">
-      <c r="D529" s="29"/>
-    </row>
-    <row r="530" spans="4:4" ht="14.35">
-      <c r="D530" s="29"/>
-    </row>
-    <row r="531" spans="4:4" ht="14.35">
-      <c r="D531" s="29"/>
-    </row>
-    <row r="532" spans="4:4" ht="14.35">
-      <c r="D532" s="29"/>
-    </row>
-    <row r="533" spans="4:4" ht="14.35">
-      <c r="D533" s="29"/>
-    </row>
-    <row r="534" spans="4:4" ht="14.35">
-      <c r="D534" s="29"/>
-    </row>
-    <row r="535" spans="4:4" ht="14.35">
-      <c r="D535" s="29"/>
-    </row>
-    <row r="536" spans="4:4" ht="14.35">
-      <c r="D536" s="29"/>
-    </row>
-    <row r="537" spans="4:4" ht="14.35">
-      <c r="D537" s="29"/>
-    </row>
-    <row r="538" spans="4:4" ht="14.35">
-      <c r="D538" s="29"/>
-    </row>
-    <row r="539" spans="4:4" ht="14.35">
-      <c r="D539" s="29"/>
-    </row>
-    <row r="540" spans="4:4" ht="14.35">
-      <c r="D540" s="29"/>
-    </row>
-    <row r="541" spans="4:4" ht="14.35">
-      <c r="D541" s="29"/>
-    </row>
-    <row r="542" spans="4:4" ht="14.35">
-      <c r="D542" s="29"/>
-    </row>
-    <row r="543" spans="4:4" ht="14.35">
-      <c r="D543" s="29"/>
-    </row>
-    <row r="544" spans="4:4" ht="14.35">
-      <c r="D544" s="29"/>
-    </row>
-    <row r="545" spans="4:4" ht="14.35">
-      <c r="D545" s="29"/>
-    </row>
-    <row r="546" spans="4:4" ht="14.35">
-      <c r="D546" s="29"/>
-    </row>
-    <row r="547" spans="4:4" ht="14.35">
-      <c r="D547" s="29"/>
-    </row>
-    <row r="548" spans="4:4" ht="14.35">
-      <c r="D548" s="29"/>
-    </row>
-    <row r="549" spans="4:4" ht="14.35">
-      <c r="D549" s="29"/>
-    </row>
-    <row r="550" spans="4:4" ht="14.35">
-      <c r="D550" s="29"/>
-    </row>
-    <row r="551" spans="4:4" ht="14.35">
-      <c r="D551" s="29"/>
-    </row>
-    <row r="552" spans="4:4" ht="14.35">
-      <c r="D552" s="29"/>
-    </row>
-    <row r="553" spans="4:4" ht="14.35">
-      <c r="D553" s="29"/>
-    </row>
-    <row r="554" spans="4:4" ht="14.35">
-      <c r="D554" s="29"/>
-    </row>
-    <row r="555" spans="4:4" ht="14.35">
-      <c r="D555" s="29"/>
-    </row>
-    <row r="556" spans="4:4" ht="14.35">
-      <c r="D556" s="29"/>
-    </row>
-    <row r="557" spans="4:4" ht="14.35">
-      <c r="D557" s="29"/>
-    </row>
-    <row r="558" spans="4:4" ht="14.35">
-      <c r="D558" s="29"/>
-    </row>
-    <row r="559" spans="4:4" ht="14.35">
-      <c r="D559" s="29"/>
-    </row>
-    <row r="560" spans="4:4" ht="14.35">
-      <c r="D560" s="29"/>
-    </row>
-    <row r="561" spans="4:4" ht="14.35">
-      <c r="D561" s="29"/>
-    </row>
-    <row r="562" spans="4:4" ht="14.35">
-      <c r="D562" s="29"/>
-    </row>
-    <row r="563" spans="4:4" ht="14.35">
-      <c r="D563" s="29"/>
-    </row>
-    <row r="564" spans="4:4" ht="14.35">
-      <c r="D564" s="29"/>
-    </row>
-    <row r="565" spans="4:4" ht="14.35">
-      <c r="D565" s="29"/>
-    </row>
-    <row r="566" spans="4:4" ht="14.35">
-      <c r="D566" s="29"/>
-    </row>
-    <row r="567" spans="4:4" ht="14.35">
-      <c r="D567" s="29"/>
-    </row>
-    <row r="568" spans="4:4" ht="14.35">
-      <c r="D568" s="29"/>
-    </row>
-    <row r="569" spans="4:4" ht="14.35">
-      <c r="D569" s="29"/>
-    </row>
-    <row r="570" spans="4:4" ht="14.35">
-      <c r="D570" s="29"/>
-    </row>
-    <row r="571" spans="4:4" ht="14.35">
-      <c r="D571" s="29"/>
-    </row>
-    <row r="572" spans="4:4" ht="14.35">
-      <c r="D572" s="29"/>
-    </row>
-    <row r="573" spans="4:4" ht="14.35">
-      <c r="D573" s="29"/>
-    </row>
-    <row r="574" spans="4:4" ht="14.35">
-      <c r="D574" s="29"/>
-    </row>
-    <row r="575" spans="4:4" ht="14.35">
-      <c r="D575" s="29"/>
-    </row>
-    <row r="576" spans="4:4" ht="14.35">
-      <c r="D576" s="29"/>
-    </row>
-    <row r="577" spans="4:4" ht="14.35">
-      <c r="D577" s="29"/>
-    </row>
-    <row r="578" spans="4:4" ht="14.35">
-      <c r="D578" s="29"/>
-    </row>
-    <row r="579" spans="4:4" ht="14.35">
-      <c r="D579" s="29"/>
-    </row>
-    <row r="580" spans="4:4" ht="14.35">
-      <c r="D580" s="29"/>
-    </row>
-    <row r="581" spans="4:4" ht="14.35">
-      <c r="D581" s="29"/>
-    </row>
-    <row r="582" spans="4:4" ht="14.35">
-      <c r="D582" s="29"/>
-    </row>
-    <row r="583" spans="4:4" ht="14.35">
-      <c r="D583" s="29"/>
-    </row>
-    <row r="584" spans="4:4" ht="14.35">
-      <c r="D584" s="29"/>
-    </row>
-    <row r="585" spans="4:4" ht="14.35">
-      <c r="D585" s="29"/>
-    </row>
-    <row r="586" spans="4:4" ht="14.35">
-      <c r="D586" s="29"/>
-    </row>
-    <row r="587" spans="4:4" ht="14.35">
-      <c r="D587" s="29"/>
-    </row>
-    <row r="588" spans="4:4" ht="14.35">
-      <c r="D588" s="29"/>
-    </row>
-    <row r="589" spans="4:4" ht="14.35">
-      <c r="D589" s="29"/>
-    </row>
-    <row r="590" spans="4:4" ht="14.35">
-      <c r="D590" s="29"/>
-    </row>
-    <row r="591" spans="4:4" ht="14.35">
-      <c r="D591" s="29"/>
-    </row>
-    <row r="592" spans="4:4" ht="14.35">
-      <c r="D592" s="29"/>
-    </row>
-    <row r="593" spans="4:4" ht="14.35">
-      <c r="D593" s="29"/>
-    </row>
-    <row r="594" spans="4:4" ht="14.35">
-      <c r="D594" s="29"/>
-    </row>
-    <row r="595" spans="4:4" ht="14.35">
-      <c r="D595" s="29"/>
-    </row>
-    <row r="596" spans="4:4" ht="14.35">
-      <c r="D596" s="29"/>
-    </row>
-    <row r="597" spans="4:4" ht="14.35">
-      <c r="D597" s="29"/>
-    </row>
-    <row r="598" spans="4:4" ht="14.35">
-      <c r="D598" s="29"/>
-    </row>
-    <row r="599" spans="4:4" ht="14.35">
-      <c r="D599" s="29"/>
-    </row>
-    <row r="600" spans="4:4" ht="14.35">
-      <c r="D600" s="29"/>
-    </row>
-    <row r="601" spans="4:4" ht="14.35">
-      <c r="D601" s="29"/>
-    </row>
-    <row r="602" spans="4:4" ht="14.35">
-      <c r="D602" s="29"/>
-    </row>
-    <row r="603" spans="4:4" ht="14.35">
-      <c r="D603" s="29"/>
-    </row>
-    <row r="604" spans="4:4" ht="14.35">
-      <c r="D604" s="29"/>
-    </row>
-    <row r="605" spans="4:4" ht="14.35">
-      <c r="D605" s="29"/>
-    </row>
-    <row r="606" spans="4:4" ht="14.35">
-      <c r="D606" s="29"/>
-    </row>
-    <row r="607" spans="4:4" ht="14.35">
-      <c r="D607" s="29"/>
-    </row>
-    <row r="608" spans="4:4" ht="14.35">
-      <c r="D608" s="29"/>
-    </row>
-    <row r="609" spans="4:4" ht="14.35">
-      <c r="D609" s="29"/>
-    </row>
-    <row r="610" spans="4:4" ht="14.35">
-      <c r="D610" s="29"/>
-    </row>
-    <row r="611" spans="4:4" ht="14.35">
-      <c r="D611" s="29"/>
-    </row>
-    <row r="612" spans="4:4" ht="14.35">
-      <c r="D612" s="29"/>
-    </row>
-    <row r="613" spans="4:4" ht="14.35">
-      <c r="D613" s="29"/>
-    </row>
-    <row r="614" spans="4:4" ht="14.35">
-      <c r="D614" s="29"/>
-    </row>
-    <row r="615" spans="4:4" ht="14.35">
-      <c r="D615" s="29"/>
-    </row>
-    <row r="616" spans="4:4" ht="14.35">
-      <c r="D616" s="29"/>
-    </row>
-    <row r="617" spans="4:4" ht="14.35">
-      <c r="D617" s="29"/>
-    </row>
-    <row r="618" spans="4:4" ht="14.35">
-      <c r="D618" s="29"/>
-    </row>
-    <row r="619" spans="4:4" ht="14.35">
-      <c r="D619" s="29"/>
-    </row>
-    <row r="620" spans="4:4" ht="14.35">
-      <c r="D620" s="29"/>
-    </row>
-    <row r="621" spans="4:4" ht="14.35">
-      <c r="D621" s="29"/>
-    </row>
-    <row r="622" spans="4:4" ht="14.35">
-      <c r="D622" s="29"/>
-    </row>
-    <row r="623" spans="4:4" ht="14.35">
-      <c r="D623" s="29"/>
-    </row>
-    <row r="624" spans="4:4" ht="14.35">
-      <c r="D624" s="29"/>
-    </row>
-    <row r="625" spans="4:4" ht="14.35">
-      <c r="D625" s="29"/>
-    </row>
-    <row r="626" spans="4:4" ht="14.35">
-      <c r="D626" s="29"/>
-    </row>
-    <row r="627" spans="4:4" ht="14.35">
-      <c r="D627" s="29"/>
-    </row>
-    <row r="628" spans="4:4" ht="14.35">
-      <c r="D628" s="29"/>
-    </row>
-    <row r="629" spans="4:4" ht="14.35">
-      <c r="D629" s="29"/>
-    </row>
-    <row r="630" spans="4:4" ht="14.35">
-      <c r="D630" s="29"/>
-    </row>
-    <row r="631" spans="4:4" ht="14.35">
-      <c r="D631" s="29"/>
-    </row>
-    <row r="632" spans="4:4" ht="14.35">
-      <c r="D632" s="29"/>
-    </row>
-    <row r="633" spans="4:4" ht="14.35">
-      <c r="D633" s="29"/>
-    </row>
-    <row r="634" spans="4:4" ht="14.35">
-      <c r="D634" s="29"/>
-    </row>
-    <row r="635" spans="4:4" ht="14.35">
-      <c r="D635" s="29"/>
-    </row>
-    <row r="636" spans="4:4" ht="14.35">
-      <c r="D636" s="29"/>
-    </row>
-    <row r="637" spans="4:4" ht="14.35">
-      <c r="D637" s="29"/>
-    </row>
-    <row r="638" spans="4:4" ht="14.35">
-      <c r="D638" s="29"/>
-    </row>
-    <row r="639" spans="4:4" ht="14.35">
-      <c r="D639" s="29"/>
-    </row>
-    <row r="640" spans="4:4" ht="14.35">
-      <c r="D640" s="29"/>
-    </row>
-    <row r="641" spans="4:4" ht="14.35">
-      <c r="D641" s="29"/>
-    </row>
-    <row r="642" spans="4:4" ht="14.35">
-      <c r="D642" s="29"/>
-    </row>
-    <row r="643" spans="4:4" ht="14.35">
-      <c r="D643" s="29"/>
-    </row>
-    <row r="644" spans="4:4" ht="14.35">
-      <c r="D644" s="29"/>
-    </row>
-    <row r="645" spans="4:4" ht="14.35">
-      <c r="D645" s="29"/>
-    </row>
-    <row r="646" spans="4:4" ht="14.35">
-      <c r="D646" s="29"/>
-    </row>
-    <row r="647" spans="4:4" ht="14.35">
-      <c r="D647" s="29"/>
-    </row>
-    <row r="648" spans="4:4" ht="14.35">
-      <c r="D648" s="29"/>
-    </row>
-    <row r="649" spans="4:4" ht="14.35">
-      <c r="D649" s="29"/>
-    </row>
-    <row r="650" spans="4:4" ht="14.35">
-      <c r="D650" s="29"/>
-    </row>
-    <row r="651" spans="4:4" ht="14.35">
-      <c r="D651" s="29"/>
-    </row>
-    <row r="652" spans="4:4" ht="14.35">
-      <c r="D652" s="29"/>
-    </row>
-    <row r="653" spans="4:4" ht="14.35">
-      <c r="D653" s="29"/>
-    </row>
-    <row r="654" spans="4:4" ht="14.35">
-      <c r="D654" s="29"/>
-    </row>
-    <row r="655" spans="4:4" ht="14.35">
-      <c r="D655" s="29"/>
-    </row>
-    <row r="656" spans="4:4" ht="14.35">
-      <c r="D656" s="29"/>
-    </row>
-    <row r="657" spans="4:4" ht="14.35">
-      <c r="D657" s="29"/>
-    </row>
-    <row r="658" spans="4:4" ht="14.35">
-      <c r="D658" s="29"/>
-    </row>
-    <row r="659" spans="4:4" ht="14.35">
-      <c r="D659" s="29"/>
-    </row>
-    <row r="660" spans="4:4" ht="14.35">
-      <c r="D660" s="29"/>
-    </row>
-    <row r="661" spans="4:4" ht="14.35">
-      <c r="D661" s="29"/>
-    </row>
-    <row r="662" spans="4:4" ht="14.35">
-      <c r="D662" s="29"/>
-    </row>
-    <row r="663" spans="4:4" ht="14.35">
-      <c r="D663" s="29"/>
-    </row>
-    <row r="664" spans="4:4" ht="14.35">
-      <c r="D664" s="29"/>
-    </row>
-    <row r="665" spans="4:4" ht="14.35">
-      <c r="D665" s="29"/>
-    </row>
-    <row r="666" spans="4:4" ht="14.35">
-      <c r="D666" s="29"/>
-    </row>
-    <row r="667" spans="4:4" ht="14.35">
-      <c r="D667" s="29"/>
-    </row>
-    <row r="668" spans="4:4" ht="14.35">
-      <c r="D668" s="29"/>
-    </row>
-    <row r="669" spans="4:4" ht="14.35">
-      <c r="D669" s="29"/>
-    </row>
-    <row r="670" spans="4:4" ht="14.35">
-      <c r="D670" s="29"/>
-    </row>
-    <row r="671" spans="4:4" ht="14.35">
-      <c r="D671" s="29"/>
-    </row>
-    <row r="672" spans="4:4" ht="14.35">
-      <c r="D672" s="29"/>
-    </row>
-    <row r="673" spans="4:4" ht="14.35">
-      <c r="D673" s="29"/>
-    </row>
-    <row r="674" spans="4:4" ht="14.35">
-      <c r="D674" s="29"/>
-    </row>
-    <row r="675" spans="4:4" ht="14.35">
-      <c r="D675" s="29"/>
-    </row>
-    <row r="676" spans="4:4" ht="14.35">
-      <c r="D676" s="29"/>
-    </row>
-    <row r="677" spans="4:4" ht="14.35">
-      <c r="D677" s="29"/>
-    </row>
-    <row r="678" spans="4:4" ht="14.35">
-      <c r="D678" s="29"/>
-    </row>
-    <row r="679" spans="4:4" ht="14.35">
-      <c r="D679" s="29"/>
-    </row>
-    <row r="680" spans="4:4" ht="14.35">
-      <c r="D680" s="29"/>
-    </row>
-    <row r="681" spans="4:4" ht="14.35">
-      <c r="D681" s="29"/>
-    </row>
-    <row r="682" spans="4:4" ht="14.35">
-      <c r="D682" s="29"/>
-    </row>
-    <row r="683" spans="4:4" ht="14.35">
-      <c r="D683" s="29"/>
-    </row>
-    <row r="684" spans="4:4" ht="14.35">
-      <c r="D684" s="29"/>
-    </row>
-    <row r="685" spans="4:4" ht="14.35">
-      <c r="D685" s="29"/>
-    </row>
-    <row r="686" spans="4:4" ht="14.35">
-      <c r="D686" s="29"/>
-    </row>
-    <row r="687" spans="4:4" ht="14.35">
-      <c r="D687" s="29"/>
-    </row>
-    <row r="688" spans="4:4" ht="14.35">
-      <c r="D688" s="29"/>
-    </row>
-    <row r="689" spans="4:4" ht="14.35">
-      <c r="D689" s="29"/>
-    </row>
-    <row r="690" spans="4:4" ht="14.35">
-      <c r="D690" s="29"/>
-    </row>
-    <row r="691" spans="4:4" ht="14.35">
-      <c r="D691" s="29"/>
-    </row>
-    <row r="692" spans="4:4" ht="14.35">
-      <c r="D692" s="29"/>
-    </row>
-    <row r="693" spans="4:4" ht="14.35">
-      <c r="D693" s="29"/>
-    </row>
-    <row r="694" spans="4:4" ht="14.35">
-      <c r="D694" s="29"/>
-    </row>
-    <row r="695" spans="4:4" ht="14.35">
-      <c r="D695" s="29"/>
-    </row>
-    <row r="696" spans="4:4" ht="14.35">
-      <c r="D696" s="29"/>
-    </row>
-    <row r="697" spans="4:4" ht="14.35">
-      <c r="D697" s="29"/>
-    </row>
-    <row r="698" spans="4:4" ht="14.35">
-      <c r="D698" s="29"/>
-    </row>
-    <row r="699" spans="4:4" ht="14.35">
-      <c r="D699" s="29"/>
-    </row>
-    <row r="700" spans="4:4" ht="14.35">
-      <c r="D700" s="29"/>
-    </row>
-    <row r="701" spans="4:4" ht="14.35">
-      <c r="D701" s="29"/>
-    </row>
-    <row r="702" spans="4:4" ht="14.35">
-      <c r="D702" s="29"/>
-    </row>
-    <row r="703" spans="4:4" ht="14.35">
-      <c r="D703" s="29"/>
-    </row>
-    <row r="704" spans="4:4" ht="14.35">
-      <c r="D704" s="29"/>
-    </row>
-    <row r="705" spans="4:4" ht="14.35">
-      <c r="D705" s="29"/>
-    </row>
-    <row r="706" spans="4:4" ht="14.35">
-      <c r="D706" s="29"/>
-    </row>
-    <row r="707" spans="4:4" ht="14.35">
-      <c r="D707" s="29"/>
-    </row>
-    <row r="708" spans="4:4" ht="14.35">
-      <c r="D708" s="29"/>
-    </row>
-    <row r="709" spans="4:4" ht="14.35">
-      <c r="D709" s="29"/>
-    </row>
-    <row r="710" spans="4:4" ht="14.35">
-      <c r="D710" s="29"/>
-    </row>
-    <row r="711" spans="4:4" ht="14.35">
-      <c r="D711" s="29"/>
-    </row>
-    <row r="712" spans="4:4" ht="14.35">
-      <c r="D712" s="29"/>
-    </row>
-    <row r="713" spans="4:4" ht="14.35">
-      <c r="D713" s="29"/>
-    </row>
-    <row r="714" spans="4:4" ht="14.35">
-      <c r="D714" s="29"/>
-    </row>
-    <row r="715" spans="4:4" ht="14.35">
-      <c r="D715" s="29"/>
-    </row>
-    <row r="716" spans="4:4" ht="14.35">
-      <c r="D716" s="29"/>
-    </row>
-    <row r="717" spans="4:4" ht="14.35">
-      <c r="D717" s="29"/>
-    </row>
-    <row r="718" spans="4:4" ht="14.35">
-      <c r="D718" s="29"/>
-    </row>
-    <row r="719" spans="4:4" ht="14.35">
-      <c r="D719" s="29"/>
-    </row>
-    <row r="720" spans="4:4" ht="14.35">
-      <c r="D720" s="29"/>
-    </row>
-    <row r="721" spans="4:4" ht="14.35">
-      <c r="D721" s="29"/>
-    </row>
-    <row r="722" spans="4:4" ht="14.35">
-      <c r="D722" s="29"/>
-    </row>
-    <row r="723" spans="4:4" ht="14.35">
-      <c r="D723" s="29"/>
-    </row>
-    <row r="724" spans="4:4" ht="14.35">
-      <c r="D724" s="29"/>
-    </row>
-    <row r="725" spans="4:4" ht="14.35">
-      <c r="D725" s="29"/>
-    </row>
-    <row r="726" spans="4:4" ht="14.35">
-      <c r="D726" s="29"/>
-    </row>
-    <row r="727" spans="4:4" ht="14.35">
-      <c r="D727" s="29"/>
-    </row>
-    <row r="728" spans="4:4" ht="14.35">
-      <c r="D728" s="29"/>
-    </row>
-    <row r="729" spans="4:4" ht="14.35">
-      <c r="D729" s="29"/>
-    </row>
-    <row r="730" spans="4:4" ht="14.35">
-      <c r="D730" s="29"/>
-    </row>
-    <row r="731" spans="4:4" ht="14.35">
-      <c r="D731" s="29"/>
-    </row>
-    <row r="732" spans="4:4" ht="14.35">
-      <c r="D732" s="29"/>
-    </row>
-    <row r="733" spans="4:4" ht="14.35">
-      <c r="D733" s="29"/>
-    </row>
-    <row r="734" spans="4:4" ht="14.35">
-      <c r="D734" s="29"/>
-    </row>
-    <row r="735" spans="4:4" ht="14.35">
-      <c r="D735" s="29"/>
-    </row>
-    <row r="736" spans="4:4" ht="14.35">
-      <c r="D736" s="29"/>
-    </row>
-    <row r="737" spans="4:4" ht="14.35">
-      <c r="D737" s="29"/>
-    </row>
-    <row r="738" spans="4:4" ht="14.35">
-      <c r="D738" s="29"/>
-    </row>
-    <row r="739" spans="4:4" ht="14.35">
-      <c r="D739" s="29"/>
-    </row>
-    <row r="740" spans="4:4" ht="14.35">
-      <c r="D740" s="29"/>
-    </row>
-    <row r="741" spans="4:4" ht="14.35">
-      <c r="D741" s="29"/>
-    </row>
-    <row r="742" spans="4:4" ht="14.35">
-      <c r="D742" s="29"/>
-    </row>
-    <row r="743" spans="4:4" ht="14.35">
-      <c r="D743" s="29"/>
-    </row>
-    <row r="744" spans="4:4" ht="14.35">
-      <c r="D744" s="29"/>
-    </row>
-    <row r="745" spans="4:4" ht="14.35">
-      <c r="D745" s="29"/>
-    </row>
-    <row r="746" spans="4:4" ht="14.35">
-      <c r="D746" s="29"/>
-    </row>
-    <row r="747" spans="4:4" ht="14.35">
-      <c r="D747" s="29"/>
-    </row>
-    <row r="748" spans="4:4" ht="14.35">
-      <c r="D748" s="29"/>
-    </row>
-    <row r="749" spans="4:4" ht="14.35">
-      <c r="D749" s="29"/>
-    </row>
-    <row r="750" spans="4:4" ht="14.35">
-      <c r="D750" s="29"/>
-    </row>
-    <row r="751" spans="4:4" ht="14.35">
-      <c r="D751" s="29"/>
-    </row>
-    <row r="752" spans="4:4" ht="14.35">
-      <c r="D752" s="29"/>
-    </row>
-    <row r="753" spans="4:4" ht="14.35">
-      <c r="D753" s="29"/>
-    </row>
-    <row r="754" spans="4:4" ht="14.35">
-      <c r="D754" s="29"/>
-    </row>
-    <row r="755" spans="4:4" ht="14.35">
-      <c r="D755" s="29"/>
-    </row>
-    <row r="756" spans="4:4" ht="14.35">
-      <c r="D756" s="29"/>
-    </row>
-    <row r="757" spans="4:4" ht="14.35">
-      <c r="D757" s="29"/>
-    </row>
-    <row r="758" spans="4:4" ht="14.35">
-      <c r="D758" s="29"/>
-    </row>
-    <row r="759" spans="4:4" ht="14.35">
-      <c r="D759" s="29"/>
-    </row>
-    <row r="760" spans="4:4" ht="14.35">
-      <c r="D760" s="29"/>
-    </row>
-    <row r="761" spans="4:4" ht="14.35">
-      <c r="D761" s="29"/>
-    </row>
-    <row r="762" spans="4:4" ht="14.35">
-      <c r="D762" s="29"/>
-    </row>
-    <row r="763" spans="4:4" ht="14.35">
-      <c r="D763" s="29"/>
-    </row>
-    <row r="764" spans="4:4" ht="14.35">
-      <c r="D764" s="29"/>
-    </row>
-    <row r="765" spans="4:4" ht="14.35">
-      <c r="D765" s="29"/>
-    </row>
-    <row r="766" spans="4:4" ht="14.35">
-      <c r="D766" s="29"/>
-    </row>
-    <row r="767" spans="4:4" ht="14.35">
-      <c r="D767" s="29"/>
-    </row>
-    <row r="768" spans="4:4" ht="14.35">
-      <c r="D768" s="29"/>
-    </row>
-    <row r="769" spans="4:4" ht="14.35">
-      <c r="D769" s="29"/>
-    </row>
-    <row r="770" spans="4:4" ht="14.35">
-      <c r="D770" s="29"/>
-    </row>
-    <row r="771" spans="4:4" ht="14.35">
-      <c r="D771" s="29"/>
-    </row>
-    <row r="772" spans="4:4" ht="14.35">
-      <c r="D772" s="29"/>
-    </row>
-    <row r="773" spans="4:4" ht="14.35">
-      <c r="D773" s="29"/>
-    </row>
-    <row r="774" spans="4:4" ht="14.35">
-      <c r="D774" s="29"/>
-    </row>
-    <row r="775" spans="4:4" ht="14.35">
-      <c r="D775" s="29"/>
-    </row>
-    <row r="776" spans="4:4" ht="14.35">
-      <c r="D776" s="29"/>
-    </row>
-    <row r="777" spans="4:4" ht="14.35">
-      <c r="D777" s="29"/>
-    </row>
-    <row r="778" spans="4:4" ht="14.35">
-      <c r="D778" s="29"/>
-    </row>
-    <row r="779" spans="4:4" ht="14.35">
-      <c r="D779" s="29"/>
-    </row>
-    <row r="780" spans="4:4" ht="14.35">
-      <c r="D780" s="29"/>
-    </row>
-    <row r="781" spans="4:4" ht="14.35">
-      <c r="D781" s="29"/>
-    </row>
-    <row r="782" spans="4:4" ht="14.35">
-      <c r="D782" s="29"/>
-    </row>
-    <row r="783" spans="4:4" ht="14.35">
-      <c r="D783" s="29"/>
-    </row>
-    <row r="784" spans="4:4" ht="14.35">
-      <c r="D784" s="29"/>
-    </row>
-    <row r="785" spans="4:4" ht="14.35">
-      <c r="D785" s="29"/>
-    </row>
-    <row r="786" spans="4:4" ht="14.35">
-      <c r="D786" s="29"/>
-    </row>
-    <row r="787" spans="4:4" ht="14.35">
-      <c r="D787" s="29"/>
-    </row>
-    <row r="788" spans="4:4" ht="14.35">
-      <c r="D788" s="29"/>
-    </row>
-    <row r="789" spans="4:4" ht="14.35">
-      <c r="D789" s="29"/>
-    </row>
-    <row r="790" spans="4:4" ht="14.35">
-      <c r="D790" s="29"/>
-    </row>
-    <row r="791" spans="4:4" ht="14.35">
-      <c r="D791" s="29"/>
-    </row>
-    <row r="792" spans="4:4" ht="14.35">
-      <c r="D792" s="29"/>
-    </row>
-    <row r="793" spans="4:4" ht="14.35">
-      <c r="D793" s="29"/>
-    </row>
-    <row r="794" spans="4:4" ht="14.35">
-      <c r="D794" s="29"/>
-    </row>
-    <row r="795" spans="4:4" ht="14.35">
-      <c r="D795" s="29"/>
-    </row>
-    <row r="796" spans="4:4" ht="14.35">
-      <c r="D796" s="29"/>
-    </row>
-    <row r="797" spans="4:4" ht="14.35">
-      <c r="D797" s="29"/>
-    </row>
-    <row r="798" spans="4:4" ht="14.35">
-      <c r="D798" s="29"/>
-    </row>
-    <row r="799" spans="4:4" ht="14.35">
-      <c r="D799" s="29"/>
-    </row>
-    <row r="800" spans="4:4" ht="14.35">
-      <c r="D800" s="29"/>
-    </row>
-    <row r="801" spans="4:4" ht="14.35">
-      <c r="D801" s="29"/>
-    </row>
-    <row r="802" spans="4:4" ht="14.35">
-      <c r="D802" s="29"/>
-    </row>
-    <row r="803" spans="4:4" ht="14.35">
-      <c r="D803" s="29"/>
-    </row>
-    <row r="804" spans="4:4" ht="14.35">
-      <c r="D804" s="29"/>
-    </row>
-    <row r="805" spans="4:4" ht="14.35">
-      <c r="D805" s="29"/>
-    </row>
-    <row r="806" spans="4:4" ht="14.35">
-      <c r="D806" s="29"/>
-    </row>
-    <row r="807" spans="4:4" ht="14.35">
-      <c r="D807" s="29"/>
-    </row>
-    <row r="808" spans="4:4" ht="14.35">
-      <c r="D808" s="29"/>
-    </row>
-    <row r="809" spans="4:4" ht="14.35">
-      <c r="D809" s="29"/>
-    </row>
-    <row r="810" spans="4:4" ht="14.35">
-      <c r="D810" s="29"/>
-    </row>
-    <row r="811" spans="4:4" ht="14.35">
-      <c r="D811" s="29"/>
-    </row>
-    <row r="812" spans="4:4" ht="14.35">
-      <c r="D812" s="29"/>
-    </row>
-    <row r="813" spans="4:4" ht="14.35">
-      <c r="D813" s="29"/>
-    </row>
-    <row r="814" spans="4:4" ht="14.35">
-      <c r="D814" s="29"/>
-    </row>
-    <row r="815" spans="4:4" ht="14.35">
-      <c r="D815" s="29"/>
-    </row>
-    <row r="816" spans="4:4" ht="14.35">
-      <c r="D816" s="29"/>
-    </row>
-    <row r="817" spans="4:4" ht="14.35">
-      <c r="D817" s="29"/>
-    </row>
-    <row r="818" spans="4:4" ht="14.35">
-      <c r="D818" s="29"/>
-    </row>
-    <row r="819" spans="4:4" ht="14.35">
-      <c r="D819" s="29"/>
-    </row>
-    <row r="820" spans="4:4" ht="14.35">
-      <c r="D820" s="29"/>
-    </row>
-    <row r="821" spans="4:4" ht="14.35">
-      <c r="D821" s="29"/>
-    </row>
-    <row r="822" spans="4:4" ht="14.35">
-      <c r="D822" s="29"/>
-    </row>
-    <row r="823" spans="4:4" ht="14.35">
-      <c r="D823" s="29"/>
-    </row>
-    <row r="824" spans="4:4" ht="14.35">
-      <c r="D824" s="29"/>
-    </row>
-    <row r="825" spans="4:4" ht="14.35">
-      <c r="D825" s="29"/>
-    </row>
-    <row r="826" spans="4:4" ht="14.35">
-      <c r="D826" s="29"/>
-    </row>
-    <row r="827" spans="4:4" ht="14.35">
-      <c r="D827" s="29"/>
-    </row>
-    <row r="828" spans="4:4" ht="14.35">
-      <c r="D828" s="29"/>
-    </row>
-    <row r="829" spans="4:4" ht="14.35">
-      <c r="D829" s="29"/>
-    </row>
-    <row r="830" spans="4:4" ht="14.35">
-      <c r="D830" s="29"/>
-    </row>
-    <row r="831" spans="4:4" ht="14.35">
-      <c r="D831" s="29"/>
-    </row>
-    <row r="832" spans="4:4" ht="14.35">
-      <c r="D832" s="29"/>
-    </row>
-    <row r="833" spans="4:4" ht="14.35">
-      <c r="D833" s="29"/>
-    </row>
-    <row r="834" spans="4:4" ht="14.35">
-      <c r="D834" s="29"/>
-    </row>
-    <row r="835" spans="4:4" ht="14.35">
-      <c r="D835" s="29"/>
-    </row>
-    <row r="836" spans="4:4" ht="14.35">
-      <c r="D836" s="29"/>
-    </row>
-    <row r="837" spans="4:4" ht="14.35">
-      <c r="D837" s="29"/>
-    </row>
-    <row r="838" spans="4:4" ht="14.35">
-      <c r="D838" s="29"/>
-    </row>
-    <row r="839" spans="4:4" ht="14.35">
-      <c r="D839" s="29"/>
-    </row>
-    <row r="840" spans="4:4" ht="14.35">
-      <c r="D840" s="29"/>
-    </row>
-    <row r="841" spans="4:4" ht="14.35">
-      <c r="D841" s="29"/>
-    </row>
-    <row r="842" spans="4:4" ht="14.35">
-      <c r="D842" s="29"/>
-    </row>
-    <row r="843" spans="4:4" ht="14.35">
-      <c r="D843" s="29"/>
-    </row>
-    <row r="844" spans="4:4" ht="14.35">
-      <c r="D844" s="29"/>
-    </row>
-    <row r="845" spans="4:4" ht="14.35">
-      <c r="D845" s="29"/>
-    </row>
-    <row r="846" spans="4:4" ht="14.35">
-      <c r="D846" s="29"/>
-    </row>
-    <row r="847" spans="4:4" ht="14.35">
-      <c r="D847" s="29"/>
-    </row>
-    <row r="848" spans="4:4" ht="14.35">
-      <c r="D848" s="29"/>
-    </row>
-    <row r="849" spans="4:4" ht="14.35">
-      <c r="D849" s="29"/>
-    </row>
-    <row r="850" spans="4:4" ht="14.35">
-      <c r="D850" s="29"/>
-    </row>
-    <row r="851" spans="4:4" ht="14.35">
-      <c r="D851" s="29"/>
-    </row>
-    <row r="852" spans="4:4" ht="14.35">
-      <c r="D852" s="29"/>
-    </row>
-    <row r="853" spans="4:4" ht="14.35">
-      <c r="D853" s="29"/>
-    </row>
-    <row r="854" spans="4:4" ht="14.35">
-      <c r="D854" s="29"/>
-    </row>
-    <row r="855" spans="4:4" ht="14.35">
-      <c r="D855" s="29"/>
-    </row>
-    <row r="856" spans="4:4" ht="14.35">
-      <c r="D856" s="29"/>
-    </row>
-    <row r="857" spans="4:4" ht="14.35">
-      <c r="D857" s="29"/>
-    </row>
-    <row r="858" spans="4:4" ht="14.35">
-      <c r="D858" s="29"/>
-    </row>
-    <row r="859" spans="4:4" ht="14.35">
-      <c r="D859" s="29"/>
-    </row>
-    <row r="860" spans="4:4" ht="14.35">
-      <c r="D860" s="29"/>
-    </row>
-    <row r="861" spans="4:4" ht="14.35">
-      <c r="D861" s="29"/>
-    </row>
-    <row r="862" spans="4:4" ht="14.35">
-      <c r="D862" s="29"/>
-    </row>
-    <row r="863" spans="4:4" ht="14.35">
-      <c r="D863" s="29"/>
-    </row>
-    <row r="864" spans="4:4" ht="14.35">
-      <c r="D864" s="29"/>
-    </row>
-    <row r="865" spans="4:4" ht="14.35">
-      <c r="D865" s="29"/>
-    </row>
-    <row r="866" spans="4:4" ht="14.35">
-      <c r="D866" s="29"/>
-    </row>
-    <row r="867" spans="4:4" ht="14.35">
-      <c r="D867" s="29"/>
-    </row>
-    <row r="868" spans="4:4" ht="14.35">
-      <c r="D868" s="29"/>
-    </row>
-    <row r="869" spans="4:4" ht="14.35">
-      <c r="D869" s="29"/>
-    </row>
-    <row r="870" spans="4:4" ht="14.35">
-      <c r="D870" s="29"/>
-    </row>
-    <row r="871" spans="4:4" ht="14.35">
-      <c r="D871" s="29"/>
-    </row>
-    <row r="872" spans="4:4" ht="14.35">
-      <c r="D872" s="29"/>
-    </row>
-    <row r="873" spans="4:4" ht="14.35">
-      <c r="D873" s="29"/>
-    </row>
-    <row r="874" spans="4:4" ht="14.35">
-      <c r="D874" s="29"/>
-    </row>
-    <row r="875" spans="4:4" ht="14.35">
-      <c r="D875" s="29"/>
-    </row>
-    <row r="876" spans="4:4" ht="14.35">
-      <c r="D876" s="29"/>
-    </row>
-    <row r="877" spans="4:4" ht="14.35">
-      <c r="D877" s="29"/>
-    </row>
-    <row r="878" spans="4:4" ht="14.35">
-      <c r="D878" s="29"/>
-    </row>
-    <row r="879" spans="4:4" ht="14.35">
-      <c r="D879" s="29"/>
-    </row>
-    <row r="880" spans="4:4" ht="14.35">
-      <c r="D880" s="29"/>
-    </row>
-    <row r="881" spans="4:4" ht="14.35">
-      <c r="D881" s="29"/>
-    </row>
-    <row r="882" spans="4:4" ht="14.35">
-      <c r="D882" s="29"/>
-    </row>
-    <row r="883" spans="4:4" ht="14.35">
-      <c r="D883" s="29"/>
-    </row>
-    <row r="884" spans="4:4" ht="14.35">
-      <c r="D884" s="29"/>
-    </row>
-    <row r="885" spans="4:4" ht="14.35">
-      <c r="D885" s="29"/>
-    </row>
-    <row r="886" spans="4:4" ht="14.35">
-      <c r="D886" s="29"/>
-    </row>
-    <row r="887" spans="4:4" ht="14.35">
-      <c r="D887" s="29"/>
-    </row>
-    <row r="888" spans="4:4" ht="14.35">
-      <c r="D888" s="29"/>
-    </row>
-    <row r="889" spans="4:4" ht="14.35">
-      <c r="D889" s="29"/>
-    </row>
-    <row r="890" spans="4:4" ht="14.35">
-      <c r="D890" s="29"/>
-    </row>
-    <row r="891" spans="4:4" ht="14.35">
-      <c r="D891" s="29"/>
-    </row>
-    <row r="892" spans="4:4" ht="14.35">
-      <c r="D892" s="29"/>
-    </row>
-    <row r="893" spans="4:4" ht="14.35">
-      <c r="D893" s="29"/>
-    </row>
-    <row r="894" spans="4:4" ht="14.35">
-      <c r="D894" s="29"/>
-    </row>
-    <row r="895" spans="4:4" ht="14.35">
-      <c r="D895" s="29"/>
-    </row>
-    <row r="896" spans="4:4" ht="14.35">
-      <c r="D896" s="29"/>
-    </row>
-    <row r="897" spans="4:4" ht="14.35">
-      <c r="D897" s="29"/>
-    </row>
-    <row r="898" spans="4:4" ht="14.35">
-      <c r="D898" s="29"/>
-    </row>
-    <row r="899" spans="4:4" ht="14.35">
-      <c r="D899" s="29"/>
-    </row>
-    <row r="900" spans="4:4" ht="14.35">
-      <c r="D900" s="29"/>
-    </row>
-    <row r="901" spans="4:4" ht="14.35">
-      <c r="D901" s="29"/>
-    </row>
-    <row r="902" spans="4:4" ht="14.35">
-      <c r="D902" s="29"/>
-    </row>
-    <row r="903" spans="4:4" ht="14.35">
-      <c r="D903" s="29"/>
-    </row>
-    <row r="904" spans="4:4" ht="14.35">
-      <c r="D904" s="29"/>
-    </row>
-    <row r="905" spans="4:4" ht="14.35">
-      <c r="D905" s="29"/>
-    </row>
-    <row r="906" spans="4:4" ht="14.35">
-      <c r="D906" s="29"/>
-    </row>
-    <row r="907" spans="4:4" ht="14.35">
-      <c r="D907" s="29"/>
-    </row>
-    <row r="908" spans="4:4" ht="14.35">
-      <c r="D908" s="29"/>
-    </row>
-    <row r="909" spans="4:4" ht="14.35">
-      <c r="D909" s="29"/>
-    </row>
-    <row r="910" spans="4:4" ht="14.35">
-      <c r="D910" s="29"/>
-    </row>
-    <row r="911" spans="4:4" ht="14.35">
-      <c r="D911" s="29"/>
-    </row>
-    <row r="912" spans="4:4" ht="14.35">
-      <c r="D912" s="29"/>
-    </row>
-    <row r="913" spans="4:4" ht="14.35">
-      <c r="D913" s="29"/>
-    </row>
-    <row r="914" spans="4:4" ht="14.35">
-      <c r="D914" s="29"/>
-    </row>
-    <row r="915" spans="4:4" ht="14.35">
-      <c r="D915" s="29"/>
-    </row>
-    <row r="916" spans="4:4" ht="14.35">
-      <c r="D916" s="29"/>
-    </row>
-    <row r="917" spans="4:4" ht="14.35">
-      <c r="D917" s="29"/>
-    </row>
-    <row r="918" spans="4:4" ht="14.35">
-      <c r="D918" s="29"/>
-    </row>
-    <row r="919" spans="4:4" ht="14.35">
-      <c r="D919" s="29"/>
-    </row>
-    <row r="920" spans="4:4" ht="14.35">
-      <c r="D920" s="29"/>
-    </row>
-    <row r="921" spans="4:4" ht="14.35">
-      <c r="D921" s="29"/>
-    </row>
-    <row r="922" spans="4:4" ht="14.35">
-      <c r="D922" s="29"/>
-    </row>
-    <row r="923" spans="4:4" ht="14.35">
-      <c r="D923" s="29"/>
-    </row>
-    <row r="924" spans="4:4" ht="14.35">
-      <c r="D924" s="29"/>
-    </row>
-    <row r="925" spans="4:4" ht="14.35">
-      <c r="D925" s="29"/>
-    </row>
-    <row r="926" spans="4:4" ht="14.35">
-      <c r="D926" s="29"/>
-    </row>
-    <row r="927" spans="4:4" ht="14.35">
-      <c r="D927" s="29"/>
-    </row>
-    <row r="928" spans="4:4" ht="14.35">
-      <c r="D928" s="29"/>
-    </row>
-    <row r="929" spans="4:4" ht="14.35">
-      <c r="D929" s="29"/>
-    </row>
-    <row r="930" spans="4:4" ht="14.35">
-      <c r="D930" s="29"/>
-    </row>
-    <row r="931" spans="4:4" ht="14.35">
-      <c r="D931" s="29"/>
-    </row>
-    <row r="932" spans="4:4" ht="14.35">
-      <c r="D932" s="29"/>
-    </row>
-    <row r="933" spans="4:4" ht="14.35">
-      <c r="D933" s="29"/>
-    </row>
-    <row r="934" spans="4:4" ht="14.35">
-      <c r="D934" s="29"/>
-    </row>
-    <row r="935" spans="4:4" ht="14.35">
-      <c r="D935" s="29"/>
-    </row>
-    <row r="936" spans="4:4" ht="14.35">
-      <c r="D936" s="29"/>
-    </row>
-    <row r="937" spans="4:4" ht="14.35">
-      <c r="D937" s="29"/>
-    </row>
-    <row r="938" spans="4:4" ht="14.35">
-      <c r="D938" s="29"/>
-    </row>
-    <row r="939" spans="4:4" ht="14.35">
-      <c r="D939" s="29"/>
-    </row>
-    <row r="940" spans="4:4" ht="14.35">
-      <c r="D940" s="29"/>
-    </row>
-    <row r="941" spans="4:4" ht="14.35">
-      <c r="D941" s="29"/>
-    </row>
-    <row r="942" spans="4:4" ht="14.35">
-      <c r="D942" s="29"/>
-    </row>
-    <row r="943" spans="4:4" ht="14.35">
-      <c r="D943" s="29"/>
-    </row>
-    <row r="944" spans="4:4" ht="14.35">
-      <c r="D944" s="29"/>
-    </row>
-    <row r="945" spans="4:4" ht="14.35">
-      <c r="D945" s="29"/>
-    </row>
-    <row r="946" spans="4:4" ht="14.35">
-      <c r="D946" s="29"/>
-    </row>
-    <row r="947" spans="4:4" ht="14.35">
-      <c r="D947" s="29"/>
-    </row>
-    <row r="948" spans="4:4" ht="14.35">
-      <c r="D948" s="29"/>
-    </row>
-    <row r="949" spans="4:4" ht="14.35">
-      <c r="D949" s="29"/>
-    </row>
-    <row r="950" spans="4:4" ht="14.35">
-      <c r="D950" s="29"/>
-    </row>
-    <row r="951" spans="4:4" ht="14.35">
-      <c r="D951" s="29"/>
-    </row>
-    <row r="952" spans="4:4" ht="14.35">
-      <c r="D952" s="29"/>
-    </row>
-    <row r="953" spans="4:4" ht="14.35">
-      <c r="D953" s="29"/>
-    </row>
-    <row r="954" spans="4:4" ht="14.35">
-      <c r="D954" s="29"/>
-    </row>
-    <row r="955" spans="4:4" ht="14.35">
-      <c r="D955" s="29"/>
-    </row>
-    <row r="956" spans="4:4" ht="14.35">
-      <c r="D956" s="29"/>
-    </row>
-    <row r="957" spans="4:4" ht="14.35">
-      <c r="D957" s="29"/>
-    </row>
-    <row r="958" spans="4:4" ht="14.35">
-      <c r="D958" s="29"/>
-    </row>
-    <row r="959" spans="4:4" ht="14.35">
-      <c r="D959" s="29"/>
-    </row>
-    <row r="960" spans="4:4" ht="14.35">
-      <c r="D960" s="29"/>
-    </row>
-    <row r="961" spans="4:4" ht="14.35">
-      <c r="D961" s="29"/>
-    </row>
-    <row r="962" spans="4:4" ht="14.35">
-      <c r="D962" s="29"/>
-    </row>
-    <row r="963" spans="4:4" ht="14.35">
-      <c r="D963" s="29"/>
-    </row>
-    <row r="964" spans="4:4" ht="14.35">
-      <c r="D964" s="29"/>
-    </row>
-    <row r="965" spans="4:4" ht="14.35">
-      <c r="D965" s="29"/>
-    </row>
-    <row r="966" spans="4:4" ht="14.35">
-      <c r="D966" s="29"/>
-    </row>
-    <row r="967" spans="4:4" ht="14.35">
-      <c r="D967" s="29"/>
-    </row>
-    <row r="968" spans="4:4" ht="14.35">
-      <c r="D968" s="29"/>
-    </row>
-    <row r="969" spans="4:4" ht="14.35">
-      <c r="D969" s="29"/>
-    </row>
-    <row r="970" spans="4:4" ht="14.35">
-      <c r="D970" s="29"/>
-    </row>
-    <row r="971" spans="4:4" ht="14.35">
-      <c r="D971" s="29"/>
-    </row>
-    <row r="972" spans="4:4" ht="14.35">
-      <c r="D972" s="29"/>
-    </row>
-    <row r="973" spans="4:4" ht="14.35">
-      <c r="D973" s="29"/>
-    </row>
-    <row r="974" spans="4:4" ht="14.35">
-      <c r="D974" s="29"/>
-    </row>
-    <row r="975" spans="4:4" ht="14.35">
-      <c r="D975" s="29"/>
-    </row>
-    <row r="976" spans="4:4" ht="14.35">
-      <c r="D976" s="29"/>
-    </row>
-    <row r="977" spans="4:4" ht="14.35">
-      <c r="D977" s="29"/>
-    </row>
-    <row r="978" spans="4:4" ht="14.35">
-      <c r="D978" s="29"/>
-    </row>
-    <row r="979" spans="4:4" ht="14.35">
-      <c r="D979" s="29"/>
-    </row>
-    <row r="980" spans="4:4" ht="14.35">
-      <c r="D980" s="29"/>
-    </row>
-    <row r="981" spans="4:4" ht="14.35">
-      <c r="D981" s="29"/>
-    </row>
-    <row r="982" spans="4:4" ht="14.35">
-      <c r="D982" s="29"/>
-    </row>
-    <row r="983" spans="4:4" ht="14.35">
-      <c r="D983" s="29"/>
-    </row>
-    <row r="984" spans="4:4" ht="14.35">
-      <c r="D984" s="29"/>
-    </row>
-    <row r="985" spans="4:4" ht="14.35">
-      <c r="D985" s="29"/>
-    </row>
-    <row r="986" spans="4:4" ht="14.35">
-      <c r="D986" s="29"/>
-    </row>
-    <row r="987" spans="4:4" ht="14.35">
-      <c r="D987" s="29"/>
-    </row>
-    <row r="988" spans="4:4" ht="14.35">
-      <c r="D988" s="29"/>
-    </row>
-    <row r="989" spans="4:4" ht="14.35">
-      <c r="D989" s="29"/>
-    </row>
-    <row r="990" spans="4:4" ht="14.35">
-      <c r="D990" s="29"/>
-    </row>
-    <row r="991" spans="4:4" ht="14.35">
-      <c r="D991" s="29"/>
-    </row>
-    <row r="992" spans="4:4" ht="14.35">
-      <c r="D992" s="29"/>
-    </row>
-    <row r="993" spans="4:4" ht="14.35">
-      <c r="D993" s="29"/>
-    </row>
-    <row r="994" spans="4:4" ht="14.35">
-      <c r="D994" s="29"/>
-    </row>
-    <row r="995" spans="4:4" ht="14.35">
-      <c r="D995" s="29"/>
-    </row>
-    <row r="996" spans="4:4" ht="14.35">
-      <c r="D996" s="29"/>
-    </row>
-    <row r="997" spans="4:4" ht="14.35">
-      <c r="D997" s="29"/>
-    </row>
-    <row r="998" spans="4:4" ht="14.35">
-      <c r="D998" s="29"/>
-    </row>
-    <row r="999" spans="4:4" ht="14.35">
-      <c r="D999" s="29"/>
-    </row>
-    <row r="1000" spans="4:4" ht="14.35">
-      <c r="D1000" s="29"/>
-    </row>
-    <row r="1001" spans="4:4" ht="14.35">
-      <c r="D1001" s="29"/>
-    </row>
-    <row r="1002" spans="4:4" ht="13.7"/>
+    <row r="61" spans="2:4">
+      <c r="B61" s="25"/>
+      <c r="D61" s="27"/>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="D62" s="27"/>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="D63" s="27"/>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="D64" s="27"/>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" s="27"/>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" s="27"/>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" s="27"/>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="27"/>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" s="27"/>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" s="27"/>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" s="27"/>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" s="27"/>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" s="27"/>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" s="27"/>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" s="27"/>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="27"/>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77" s="27"/>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" s="27"/>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="D79" s="27"/>
+    </row>
+    <row r="80" spans="4:4">
+      <c r="D80" s="27"/>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" s="27"/>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" s="27"/>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" s="27"/>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="D84" s="27"/>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" s="27"/>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="D86" s="27"/>
+    </row>
+    <row r="87" spans="4:4">
+      <c r="D87" s="27"/>
+    </row>
+    <row r="88" spans="4:4">
+      <c r="D88" s="27"/>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="D89" s="27"/>
+    </row>
+    <row r="90" spans="4:4">
+      <c r="D90" s="27"/>
+    </row>
+    <row r="91" spans="4:4">
+      <c r="D91" s="27"/>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="D92" s="27"/>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="D93" s="27"/>
+    </row>
+    <row r="94" spans="4:4">
+      <c r="D94" s="27"/>
+    </row>
+    <row r="95" spans="4:4">
+      <c r="D95" s="27"/>
+    </row>
+    <row r="96" spans="4:4">
+      <c r="D96" s="27"/>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" s="27"/>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" s="27"/>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" s="27"/>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" s="27"/>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101" s="27"/>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" s="27"/>
+    </row>
+    <row r="103" spans="4:4">
+      <c r="D103" s="27"/>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="D104" s="27"/>
+    </row>
+    <row r="105" spans="4:4">
+      <c r="D105" s="27"/>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106" s="27"/>
+    </row>
+    <row r="107" spans="4:4">
+      <c r="D107" s="27"/>
+    </row>
+    <row r="108" spans="4:4">
+      <c r="D108" s="27"/>
+    </row>
+    <row r="109" spans="4:4">
+      <c r="D109" s="27"/>
+    </row>
+    <row r="110" spans="4:4">
+      <c r="D110" s="27"/>
+    </row>
+    <row r="111" spans="4:4">
+      <c r="D111" s="27"/>
+    </row>
+    <row r="112" spans="4:4">
+      <c r="D112" s="27"/>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" s="27"/>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" s="27"/>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="D115" s="27"/>
+    </row>
+    <row r="116" spans="4:4">
+      <c r="D116" s="27"/>
+    </row>
+    <row r="117" spans="4:4">
+      <c r="D117" s="27"/>
+    </row>
+    <row r="118" spans="4:4">
+      <c r="D118" s="27"/>
+    </row>
+    <row r="119" spans="4:4">
+      <c r="D119" s="27"/>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" s="27"/>
+    </row>
+    <row r="121" spans="4:4">
+      <c r="D121" s="27"/>
+    </row>
+    <row r="122" spans="4:4">
+      <c r="D122" s="27"/>
+    </row>
+    <row r="123" spans="4:4">
+      <c r="D123" s="27"/>
+    </row>
+    <row r="124" spans="4:4">
+      <c r="D124" s="27"/>
+    </row>
+    <row r="125" spans="4:4">
+      <c r="D125" s="27"/>
+    </row>
+    <row r="126" spans="4:4">
+      <c r="D126" s="27"/>
+    </row>
+    <row r="127" spans="4:4">
+      <c r="D127" s="27"/>
+    </row>
+    <row r="128" spans="4:4">
+      <c r="D128" s="27"/>
+    </row>
+    <row r="129" spans="4:4">
+      <c r="D129" s="27"/>
+    </row>
+    <row r="130" spans="4:4">
+      <c r="D130" s="27"/>
+    </row>
+    <row r="131" spans="4:4">
+      <c r="D131" s="27"/>
+    </row>
+    <row r="132" spans="4:4">
+      <c r="D132" s="27"/>
+    </row>
+    <row r="133" spans="4:4">
+      <c r="D133" s="27"/>
+    </row>
+    <row r="134" spans="4:4">
+      <c r="D134" s="27"/>
+    </row>
+    <row r="135" spans="4:4">
+      <c r="D135" s="27"/>
+    </row>
+    <row r="136" spans="4:4">
+      <c r="D136" s="27"/>
+    </row>
+    <row r="137" spans="4:4">
+      <c r="D137" s="27"/>
+    </row>
+    <row r="138" spans="4:4">
+      <c r="D138" s="27"/>
+    </row>
+    <row r="139" spans="4:4">
+      <c r="D139" s="27"/>
+    </row>
+    <row r="140" spans="4:4">
+      <c r="D140" s="27"/>
+    </row>
+    <row r="141" spans="4:4">
+      <c r="D141" s="27"/>
+    </row>
+    <row r="142" spans="4:4">
+      <c r="D142" s="27"/>
+    </row>
+    <row r="143" spans="4:4">
+      <c r="D143" s="27"/>
+    </row>
+    <row r="144" spans="4:4">
+      <c r="D144" s="27"/>
+    </row>
+    <row r="145" spans="4:4">
+      <c r="D145" s="27"/>
+    </row>
+    <row r="146" spans="4:4">
+      <c r="D146" s="27"/>
+    </row>
+    <row r="147" spans="4:4">
+      <c r="D147" s="27"/>
+    </row>
+    <row r="148" spans="4:4">
+      <c r="D148" s="27"/>
+    </row>
+    <row r="149" spans="4:4">
+      <c r="D149" s="27"/>
+    </row>
+    <row r="150" spans="4:4">
+      <c r="D150" s="27"/>
+    </row>
+    <row r="151" spans="4:4">
+      <c r="D151" s="27"/>
+    </row>
+    <row r="152" spans="4:4">
+      <c r="D152" s="27"/>
+    </row>
+    <row r="153" spans="4:4">
+      <c r="D153" s="27"/>
+    </row>
+    <row r="154" spans="4:4">
+      <c r="D154" s="27"/>
+    </row>
+    <row r="155" spans="4:4">
+      <c r="D155" s="27"/>
+    </row>
+    <row r="156" spans="4:4">
+      <c r="D156" s="27"/>
+    </row>
+    <row r="157" spans="4:4">
+      <c r="D157" s="27"/>
+    </row>
+    <row r="158" spans="4:4">
+      <c r="D158" s="27"/>
+    </row>
+    <row r="159" spans="4:4">
+      <c r="D159" s="27"/>
+    </row>
+    <row r="160" spans="4:4">
+      <c r="D160" s="27"/>
+    </row>
+    <row r="161" spans="4:4">
+      <c r="D161" s="27"/>
+    </row>
+    <row r="162" spans="4:4">
+      <c r="D162" s="27"/>
+    </row>
+    <row r="163" spans="4:4">
+      <c r="D163" s="27"/>
+    </row>
+    <row r="164" spans="4:4">
+      <c r="D164" s="27"/>
+    </row>
+    <row r="165" spans="4:4">
+      <c r="D165" s="27"/>
+    </row>
+    <row r="166" spans="4:4">
+      <c r="D166" s="27"/>
+    </row>
+    <row r="167" spans="4:4">
+      <c r="D167" s="27"/>
+    </row>
+    <row r="168" spans="4:4">
+      <c r="D168" s="27"/>
+    </row>
+    <row r="169" spans="4:4">
+      <c r="D169" s="27"/>
+    </row>
+    <row r="170" spans="4:4">
+      <c r="D170" s="27"/>
+    </row>
+    <row r="171" spans="4:4">
+      <c r="D171" s="27"/>
+    </row>
+    <row r="172" spans="4:4">
+      <c r="D172" s="27"/>
+    </row>
+    <row r="173" spans="4:4">
+      <c r="D173" s="27"/>
+    </row>
+    <row r="174" spans="4:4">
+      <c r="D174" s="27"/>
+    </row>
+    <row r="175" spans="4:4">
+      <c r="D175" s="27"/>
+    </row>
+    <row r="176" spans="4:4">
+      <c r="D176" s="27"/>
+    </row>
+    <row r="177" spans="4:4">
+      <c r="D177" s="27"/>
+    </row>
+    <row r="178" spans="4:4">
+      <c r="D178" s="27"/>
+    </row>
+    <row r="179" spans="4:4">
+      <c r="D179" s="27"/>
+    </row>
+    <row r="180" spans="4:4">
+      <c r="D180" s="27"/>
+    </row>
+    <row r="181" spans="4:4">
+      <c r="D181" s="27"/>
+    </row>
+    <row r="182" spans="4:4">
+      <c r="D182" s="27"/>
+    </row>
+    <row r="183" spans="4:4">
+      <c r="D183" s="27"/>
+    </row>
+    <row r="184" spans="4:4">
+      <c r="D184" s="27"/>
+    </row>
+    <row r="185" spans="4:4">
+      <c r="D185" s="27"/>
+    </row>
+    <row r="186" spans="4:4">
+      <c r="D186" s="27"/>
+    </row>
+    <row r="187" spans="4:4">
+      <c r="D187" s="27"/>
+    </row>
+    <row r="188" spans="4:4">
+      <c r="D188" s="27"/>
+    </row>
+    <row r="189" spans="4:4">
+      <c r="D189" s="27"/>
+    </row>
+    <row r="190" spans="4:4">
+      <c r="D190" s="27"/>
+    </row>
+    <row r="191" spans="4:4">
+      <c r="D191" s="27"/>
+    </row>
+    <row r="192" spans="4:4">
+      <c r="D192" s="27"/>
+    </row>
+    <row r="193" spans="4:4">
+      <c r="D193" s="27"/>
+    </row>
+    <row r="194" spans="4:4">
+      <c r="D194" s="27"/>
+    </row>
+    <row r="195" spans="4:4">
+      <c r="D195" s="27"/>
+    </row>
+    <row r="196" spans="4:4">
+      <c r="D196" s="27"/>
+    </row>
+    <row r="197" spans="4:4">
+      <c r="D197" s="27"/>
+    </row>
+    <row r="198" spans="4:4">
+      <c r="D198" s="27"/>
+    </row>
+    <row r="199" spans="4:4">
+      <c r="D199" s="27"/>
+    </row>
+    <row r="200" spans="4:4">
+      <c r="D200" s="27"/>
+    </row>
+    <row r="201" spans="4:4">
+      <c r="D201" s="27"/>
+    </row>
+    <row r="202" spans="4:4">
+      <c r="D202" s="27"/>
+    </row>
+    <row r="203" spans="4:4">
+      <c r="D203" s="27"/>
+    </row>
+    <row r="204" spans="4:4">
+      <c r="D204" s="27"/>
+    </row>
+    <row r="205" spans="4:4">
+      <c r="D205" s="27"/>
+    </row>
+    <row r="206" spans="4:4">
+      <c r="D206" s="27"/>
+    </row>
+    <row r="207" spans="4:4">
+      <c r="D207" s="27"/>
+    </row>
+    <row r="208" spans="4:4">
+      <c r="D208" s="27"/>
+    </row>
+    <row r="209" spans="4:4">
+      <c r="D209" s="27"/>
+    </row>
+    <row r="210" spans="4:4">
+      <c r="D210" s="27"/>
+    </row>
+    <row r="211" spans="4:4">
+      <c r="D211" s="27"/>
+    </row>
+    <row r="212" spans="4:4">
+      <c r="D212" s="27"/>
+    </row>
+    <row r="213" spans="4:4">
+      <c r="D213" s="27"/>
+    </row>
+    <row r="214" spans="4:4">
+      <c r="D214" s="27"/>
+    </row>
+    <row r="215" spans="4:4">
+      <c r="D215" s="27"/>
+    </row>
+    <row r="216" spans="4:4">
+      <c r="D216" s="27"/>
+    </row>
+    <row r="217" spans="4:4">
+      <c r="D217" s="27"/>
+    </row>
+    <row r="218" spans="4:4">
+      <c r="D218" s="27"/>
+    </row>
+    <row r="219" spans="4:4">
+      <c r="D219" s="27"/>
+    </row>
+    <row r="220" spans="4:4">
+      <c r="D220" s="27"/>
+    </row>
+    <row r="221" spans="4:4">
+      <c r="D221" s="27"/>
+    </row>
+    <row r="222" spans="4:4">
+      <c r="D222" s="27"/>
+    </row>
+    <row r="223" spans="4:4">
+      <c r="D223" s="27"/>
+    </row>
+    <row r="224" spans="4:4">
+      <c r="D224" s="27"/>
+    </row>
+    <row r="225" spans="4:4">
+      <c r="D225" s="27"/>
+    </row>
+    <row r="226" spans="4:4">
+      <c r="D226" s="27"/>
+    </row>
+    <row r="227" spans="4:4">
+      <c r="D227" s="27"/>
+    </row>
+    <row r="228" spans="4:4">
+      <c r="D228" s="27"/>
+    </row>
+    <row r="229" spans="4:4">
+      <c r="D229" s="27"/>
+    </row>
+    <row r="230" spans="4:4">
+      <c r="D230" s="27"/>
+    </row>
+    <row r="231" spans="4:4">
+      <c r="D231" s="27"/>
+    </row>
+    <row r="232" spans="4:4">
+      <c r="D232" s="27"/>
+    </row>
+    <row r="233" spans="4:4">
+      <c r="D233" s="27"/>
+    </row>
+    <row r="234" spans="4:4">
+      <c r="D234" s="27"/>
+    </row>
+    <row r="235" spans="4:4">
+      <c r="D235" s="27"/>
+    </row>
+    <row r="236" spans="4:4">
+      <c r="D236" s="27"/>
+    </row>
+    <row r="237" spans="4:4">
+      <c r="D237" s="27"/>
+    </row>
+    <row r="238" spans="4:4">
+      <c r="D238" s="27"/>
+    </row>
+    <row r="239" spans="4:4">
+      <c r="D239" s="27"/>
+    </row>
+    <row r="240" spans="4:4">
+      <c r="D240" s="27"/>
+    </row>
+    <row r="241" spans="4:4">
+      <c r="D241" s="27"/>
+    </row>
+    <row r="242" spans="4:4">
+      <c r="D242" s="27"/>
+    </row>
+    <row r="243" spans="4:4">
+      <c r="D243" s="27"/>
+    </row>
+    <row r="244" spans="4:4">
+      <c r="D244" s="27"/>
+    </row>
+    <row r="245" spans="4:4">
+      <c r="D245" s="27"/>
+    </row>
+    <row r="246" spans="4:4">
+      <c r="D246" s="27"/>
+    </row>
+    <row r="247" spans="4:4">
+      <c r="D247" s="27"/>
+    </row>
+    <row r="248" spans="4:4">
+      <c r="D248" s="27"/>
+    </row>
+    <row r="249" spans="4:4">
+      <c r="D249" s="27"/>
+    </row>
+    <row r="250" spans="4:4">
+      <c r="D250" s="27"/>
+    </row>
+    <row r="251" spans="4:4">
+      <c r="D251" s="27"/>
+    </row>
+    <row r="252" spans="4:4">
+      <c r="D252" s="27"/>
+    </row>
+    <row r="253" spans="4:4">
+      <c r="D253" s="27"/>
+    </row>
+    <row r="254" spans="4:4">
+      <c r="D254" s="27"/>
+    </row>
+    <row r="255" spans="4:4">
+      <c r="D255" s="27"/>
+    </row>
+    <row r="256" spans="4:4">
+      <c r="D256" s="27"/>
+    </row>
+    <row r="257" spans="4:4">
+      <c r="D257" s="27"/>
+    </row>
+    <row r="258" spans="4:4">
+      <c r="D258" s="27"/>
+    </row>
+    <row r="259" spans="4:4">
+      <c r="D259" s="27"/>
+    </row>
+    <row r="260" spans="4:4">
+      <c r="D260" s="27"/>
+    </row>
+    <row r="261" spans="4:4">
+      <c r="D261" s="27"/>
+    </row>
+    <row r="262" spans="4:4">
+      <c r="D262" s="27"/>
+    </row>
+    <row r="263" spans="4:4">
+      <c r="D263" s="27"/>
+    </row>
+    <row r="264" spans="4:4">
+      <c r="D264" s="27"/>
+    </row>
+    <row r="265" spans="4:4">
+      <c r="D265" s="27"/>
+    </row>
+    <row r="266" spans="4:4">
+      <c r="D266" s="27"/>
+    </row>
+    <row r="267" spans="4:4">
+      <c r="D267" s="27"/>
+    </row>
+    <row r="268" spans="4:4">
+      <c r="D268" s="27"/>
+    </row>
+    <row r="269" spans="4:4">
+      <c r="D269" s="27"/>
+    </row>
+    <row r="270" spans="4:4">
+      <c r="D270" s="27"/>
+    </row>
+    <row r="271" spans="4:4">
+      <c r="D271" s="27"/>
+    </row>
+    <row r="272" spans="4:4">
+      <c r="D272" s="27"/>
+    </row>
+    <row r="273" spans="4:4">
+      <c r="D273" s="27"/>
+    </row>
+    <row r="274" spans="4:4">
+      <c r="D274" s="27"/>
+    </row>
+    <row r="275" spans="4:4">
+      <c r="D275" s="27"/>
+    </row>
+    <row r="276" spans="4:4">
+      <c r="D276" s="27"/>
+    </row>
+    <row r="277" spans="4:4">
+      <c r="D277" s="27"/>
+    </row>
+    <row r="278" spans="4:4">
+      <c r="D278" s="27"/>
+    </row>
+    <row r="279" spans="4:4">
+      <c r="D279" s="27"/>
+    </row>
+    <row r="280" spans="4:4">
+      <c r="D280" s="27"/>
+    </row>
+    <row r="281" spans="4:4">
+      <c r="D281" s="27"/>
+    </row>
+    <row r="282" spans="4:4">
+      <c r="D282" s="27"/>
+    </row>
+    <row r="283" spans="4:4">
+      <c r="D283" s="27"/>
+    </row>
+    <row r="284" spans="4:4">
+      <c r="D284" s="27"/>
+    </row>
+    <row r="285" spans="4:4">
+      <c r="D285" s="27"/>
+    </row>
+    <row r="286" spans="4:4">
+      <c r="D286" s="27"/>
+    </row>
+    <row r="287" spans="4:4">
+      <c r="D287" s="27"/>
+    </row>
+    <row r="288" spans="4:4">
+      <c r="D288" s="27"/>
+    </row>
+    <row r="289" spans="4:4">
+      <c r="D289" s="27"/>
+    </row>
+    <row r="290" spans="4:4">
+      <c r="D290" s="27"/>
+    </row>
+    <row r="291" spans="4:4">
+      <c r="D291" s="27"/>
+    </row>
+    <row r="292" spans="4:4">
+      <c r="D292" s="27"/>
+    </row>
+    <row r="293" spans="4:4">
+      <c r="D293" s="27"/>
+    </row>
+    <row r="294" spans="4:4">
+      <c r="D294" s="27"/>
+    </row>
+    <row r="295" spans="4:4">
+      <c r="D295" s="27"/>
+    </row>
+    <row r="296" spans="4:4">
+      <c r="D296" s="27"/>
+    </row>
+    <row r="297" spans="4:4">
+      <c r="D297" s="27"/>
+    </row>
+    <row r="298" spans="4:4">
+      <c r="D298" s="27"/>
+    </row>
+    <row r="299" spans="4:4">
+      <c r="D299" s="27"/>
+    </row>
+    <row r="300" spans="4:4">
+      <c r="D300" s="27"/>
+    </row>
+    <row r="301" spans="4:4">
+      <c r="D301" s="27"/>
+    </row>
+    <row r="302" spans="4:4">
+      <c r="D302" s="27"/>
+    </row>
+    <row r="303" spans="4:4">
+      <c r="D303" s="27"/>
+    </row>
+    <row r="304" spans="4:4">
+      <c r="D304" s="27"/>
+    </row>
+    <row r="305" spans="4:4">
+      <c r="D305" s="27"/>
+    </row>
+    <row r="306" spans="4:4">
+      <c r="D306" s="27"/>
+    </row>
+    <row r="307" spans="4:4">
+      <c r="D307" s="27"/>
+    </row>
+    <row r="308" spans="4:4">
+      <c r="D308" s="27"/>
+    </row>
+    <row r="309" spans="4:4">
+      <c r="D309" s="27"/>
+    </row>
+    <row r="310" spans="4:4">
+      <c r="D310" s="27"/>
+    </row>
+    <row r="311" spans="4:4">
+      <c r="D311" s="27"/>
+    </row>
+    <row r="312" spans="4:4">
+      <c r="D312" s="27"/>
+    </row>
+    <row r="313" spans="4:4">
+      <c r="D313" s="27"/>
+    </row>
+    <row r="314" spans="4:4">
+      <c r="D314" s="27"/>
+    </row>
+    <row r="315" spans="4:4">
+      <c r="D315" s="27"/>
+    </row>
+    <row r="316" spans="4:4">
+      <c r="D316" s="27"/>
+    </row>
+    <row r="317" spans="4:4">
+      <c r="D317" s="27"/>
+    </row>
+    <row r="318" spans="4:4">
+      <c r="D318" s="27"/>
+    </row>
+    <row r="319" spans="4:4">
+      <c r="D319" s="27"/>
+    </row>
+    <row r="320" spans="4:4">
+      <c r="D320" s="27"/>
+    </row>
+    <row r="321" spans="4:4">
+      <c r="D321" s="27"/>
+    </row>
+    <row r="322" spans="4:4">
+      <c r="D322" s="27"/>
+    </row>
+    <row r="323" spans="4:4">
+      <c r="D323" s="27"/>
+    </row>
+    <row r="324" spans="4:4">
+      <c r="D324" s="27"/>
+    </row>
+    <row r="325" spans="4:4">
+      <c r="D325" s="27"/>
+    </row>
+    <row r="326" spans="4:4">
+      <c r="D326" s="27"/>
+    </row>
+    <row r="327" spans="4:4">
+      <c r="D327" s="27"/>
+    </row>
+    <row r="328" spans="4:4">
+      <c r="D328" s="27"/>
+    </row>
+    <row r="329" spans="4:4">
+      <c r="D329" s="27"/>
+    </row>
+    <row r="330" spans="4:4">
+      <c r="D330" s="27"/>
+    </row>
+    <row r="331" spans="4:4">
+      <c r="D331" s="27"/>
+    </row>
+    <row r="332" spans="4:4">
+      <c r="D332" s="27"/>
+    </row>
+    <row r="333" spans="4:4">
+      <c r="D333" s="27"/>
+    </row>
+    <row r="334" spans="4:4">
+      <c r="D334" s="27"/>
+    </row>
+    <row r="335" spans="4:4">
+      <c r="D335" s="27"/>
+    </row>
+    <row r="336" spans="4:4">
+      <c r="D336" s="27"/>
+    </row>
+    <row r="337" spans="4:4">
+      <c r="D337" s="27"/>
+    </row>
+    <row r="338" spans="4:4">
+      <c r="D338" s="27"/>
+    </row>
+    <row r="339" spans="4:4">
+      <c r="D339" s="27"/>
+    </row>
+    <row r="340" spans="4:4">
+      <c r="D340" s="27"/>
+    </row>
+    <row r="341" spans="4:4">
+      <c r="D341" s="27"/>
+    </row>
+    <row r="342" spans="4:4">
+      <c r="D342" s="27"/>
+    </row>
+    <row r="343" spans="4:4">
+      <c r="D343" s="27"/>
+    </row>
+    <row r="344" spans="4:4">
+      <c r="D344" s="27"/>
+    </row>
+    <row r="345" spans="4:4">
+      <c r="D345" s="27"/>
+    </row>
+    <row r="346" spans="4:4">
+      <c r="D346" s="27"/>
+    </row>
+    <row r="347" spans="4:4">
+      <c r="D347" s="27"/>
+    </row>
+    <row r="348" spans="4:4">
+      <c r="D348" s="27"/>
+    </row>
+    <row r="349" spans="4:4">
+      <c r="D349" s="27"/>
+    </row>
+    <row r="350" spans="4:4">
+      <c r="D350" s="27"/>
+    </row>
+    <row r="351" spans="4:4">
+      <c r="D351" s="27"/>
+    </row>
+    <row r="352" spans="4:4">
+      <c r="D352" s="27"/>
+    </row>
+    <row r="353" spans="4:4">
+      <c r="D353" s="27"/>
+    </row>
+    <row r="354" spans="4:4">
+      <c r="D354" s="27"/>
+    </row>
+    <row r="355" spans="4:4">
+      <c r="D355" s="27"/>
+    </row>
+    <row r="356" spans="4:4">
+      <c r="D356" s="27"/>
+    </row>
+    <row r="357" spans="4:4">
+      <c r="D357" s="27"/>
+    </row>
+    <row r="358" spans="4:4">
+      <c r="D358" s="27"/>
+    </row>
+    <row r="359" spans="4:4">
+      <c r="D359" s="27"/>
+    </row>
+    <row r="360" spans="4:4">
+      <c r="D360" s="27"/>
+    </row>
+    <row r="361" spans="4:4">
+      <c r="D361" s="27"/>
+    </row>
+    <row r="362" spans="4:4">
+      <c r="D362" s="27"/>
+    </row>
+    <row r="363" spans="4:4">
+      <c r="D363" s="27"/>
+    </row>
+    <row r="364" spans="4:4">
+      <c r="D364" s="27"/>
+    </row>
+    <row r="365" spans="4:4">
+      <c r="D365" s="27"/>
+    </row>
+    <row r="366" spans="4:4">
+      <c r="D366" s="27"/>
+    </row>
+    <row r="367" spans="4:4">
+      <c r="D367" s="27"/>
+    </row>
+    <row r="368" spans="4:4">
+      <c r="D368" s="27"/>
+    </row>
+    <row r="369" spans="4:4">
+      <c r="D369" s="27"/>
+    </row>
+    <row r="370" spans="4:4">
+      <c r="D370" s="27"/>
+    </row>
+    <row r="371" spans="4:4">
+      <c r="D371" s="27"/>
+    </row>
+    <row r="372" spans="4:4">
+      <c r="D372" s="27"/>
+    </row>
+    <row r="373" spans="4:4">
+      <c r="D373" s="27"/>
+    </row>
+    <row r="374" spans="4:4">
+      <c r="D374" s="27"/>
+    </row>
+    <row r="375" spans="4:4">
+      <c r="D375" s="27"/>
+    </row>
+    <row r="376" spans="4:4">
+      <c r="D376" s="27"/>
+    </row>
+    <row r="377" spans="4:4">
+      <c r="D377" s="27"/>
+    </row>
+    <row r="378" spans="4:4">
+      <c r="D378" s="27"/>
+    </row>
+    <row r="379" spans="4:4">
+      <c r="D379" s="27"/>
+    </row>
+    <row r="380" spans="4:4">
+      <c r="D380" s="27"/>
+    </row>
+    <row r="381" spans="4:4">
+      <c r="D381" s="27"/>
+    </row>
+    <row r="382" spans="4:4">
+      <c r="D382" s="27"/>
+    </row>
+    <row r="383" spans="4:4">
+      <c r="D383" s="27"/>
+    </row>
+    <row r="384" spans="4:4">
+      <c r="D384" s="27"/>
+    </row>
+    <row r="385" spans="4:4">
+      <c r="D385" s="27"/>
+    </row>
+    <row r="386" spans="4:4">
+      <c r="D386" s="27"/>
+    </row>
+    <row r="387" spans="4:4">
+      <c r="D387" s="27"/>
+    </row>
+    <row r="388" spans="4:4">
+      <c r="D388" s="27"/>
+    </row>
+    <row r="389" spans="4:4">
+      <c r="D389" s="27"/>
+    </row>
+    <row r="390" spans="4:4">
+      <c r="D390" s="27"/>
+    </row>
+    <row r="391" spans="4:4">
+      <c r="D391" s="27"/>
+    </row>
+    <row r="392" spans="4:4">
+      <c r="D392" s="27"/>
+    </row>
+    <row r="393" spans="4:4">
+      <c r="D393" s="27"/>
+    </row>
+    <row r="394" spans="4:4">
+      <c r="D394" s="27"/>
+    </row>
+    <row r="395" spans="4:4">
+      <c r="D395" s="27"/>
+    </row>
+    <row r="396" spans="4:4">
+      <c r="D396" s="27"/>
+    </row>
+    <row r="397" spans="4:4">
+      <c r="D397" s="27"/>
+    </row>
+    <row r="398" spans="4:4">
+      <c r="D398" s="27"/>
+    </row>
+    <row r="399" spans="4:4">
+      <c r="D399" s="27"/>
+    </row>
+    <row r="400" spans="4:4">
+      <c r="D400" s="27"/>
+    </row>
+    <row r="401" spans="4:4">
+      <c r="D401" s="27"/>
+    </row>
+    <row r="402" spans="4:4">
+      <c r="D402" s="27"/>
+    </row>
+    <row r="403" spans="4:4">
+      <c r="D403" s="27"/>
+    </row>
+    <row r="404" spans="4:4">
+      <c r="D404" s="27"/>
+    </row>
+    <row r="405" spans="4:4">
+      <c r="D405" s="27"/>
+    </row>
+    <row r="406" spans="4:4">
+      <c r="D406" s="27"/>
+    </row>
+    <row r="407" spans="4:4">
+      <c r="D407" s="27"/>
+    </row>
+    <row r="408" spans="4:4">
+      <c r="D408" s="27"/>
+    </row>
+    <row r="409" spans="4:4">
+      <c r="D409" s="27"/>
+    </row>
+    <row r="410" spans="4:4">
+      <c r="D410" s="27"/>
+    </row>
+    <row r="411" spans="4:4">
+      <c r="D411" s="27"/>
+    </row>
+    <row r="412" spans="4:4">
+      <c r="D412" s="27"/>
+    </row>
+    <row r="413" spans="4:4">
+      <c r="D413" s="27"/>
+    </row>
+    <row r="414" spans="4:4">
+      <c r="D414" s="27"/>
+    </row>
+    <row r="415" spans="4:4">
+      <c r="D415" s="27"/>
+    </row>
+    <row r="416" spans="4:4">
+      <c r="D416" s="27"/>
+    </row>
+    <row r="417" spans="4:4">
+      <c r="D417" s="27"/>
+    </row>
+    <row r="418" spans="4:4">
+      <c r="D418" s="27"/>
+    </row>
+    <row r="419" spans="4:4">
+      <c r="D419" s="27"/>
+    </row>
+    <row r="420" spans="4:4">
+      <c r="D420" s="27"/>
+    </row>
+    <row r="421" spans="4:4">
+      <c r="D421" s="27"/>
+    </row>
+    <row r="422" spans="4:4">
+      <c r="D422" s="27"/>
+    </row>
+    <row r="423" spans="4:4">
+      <c r="D423" s="27"/>
+    </row>
+    <row r="424" spans="4:4">
+      <c r="D424" s="27"/>
+    </row>
+    <row r="425" spans="4:4">
+      <c r="D425" s="27"/>
+    </row>
+    <row r="426" spans="4:4">
+      <c r="D426" s="27"/>
+    </row>
+    <row r="427" spans="4:4">
+      <c r="D427" s="27"/>
+    </row>
+    <row r="428" spans="4:4">
+      <c r="D428" s="27"/>
+    </row>
+    <row r="429" spans="4:4">
+      <c r="D429" s="27"/>
+    </row>
+    <row r="430" spans="4:4">
+      <c r="D430" s="27"/>
+    </row>
+    <row r="431" spans="4:4">
+      <c r="D431" s="27"/>
+    </row>
+    <row r="432" spans="4:4">
+      <c r="D432" s="27"/>
+    </row>
+    <row r="433" spans="4:4">
+      <c r="D433" s="27"/>
+    </row>
+    <row r="434" spans="4:4">
+      <c r="D434" s="27"/>
+    </row>
+    <row r="435" spans="4:4">
+      <c r="D435" s="27"/>
+    </row>
+    <row r="436" spans="4:4">
+      <c r="D436" s="27"/>
+    </row>
+    <row r="437" spans="4:4">
+      <c r="D437" s="27"/>
+    </row>
+    <row r="438" spans="4:4">
+      <c r="D438" s="27"/>
+    </row>
+    <row r="439" spans="4:4">
+      <c r="D439" s="27"/>
+    </row>
+    <row r="440" spans="4:4">
+      <c r="D440" s="27"/>
+    </row>
+    <row r="441" spans="4:4">
+      <c r="D441" s="27"/>
+    </row>
+    <row r="442" spans="4:4">
+      <c r="D442" s="27"/>
+    </row>
+    <row r="443" spans="4:4">
+      <c r="D443" s="27"/>
+    </row>
+    <row r="444" spans="4:4">
+      <c r="D444" s="27"/>
+    </row>
+    <row r="445" spans="4:4">
+      <c r="D445" s="27"/>
+    </row>
+    <row r="446" spans="4:4">
+      <c r="D446" s="27"/>
+    </row>
+    <row r="447" spans="4:4">
+      <c r="D447" s="27"/>
+    </row>
+    <row r="448" spans="4:4">
+      <c r="D448" s="27"/>
+    </row>
+    <row r="449" spans="4:4">
+      <c r="D449" s="27"/>
+    </row>
+    <row r="450" spans="4:4">
+      <c r="D450" s="27"/>
+    </row>
+    <row r="451" spans="4:4">
+      <c r="D451" s="27"/>
+    </row>
+    <row r="452" spans="4:4">
+      <c r="D452" s="27"/>
+    </row>
+    <row r="453" spans="4:4">
+      <c r="D453" s="27"/>
+    </row>
+    <row r="454" spans="4:4">
+      <c r="D454" s="27"/>
+    </row>
+    <row r="455" spans="4:4">
+      <c r="D455" s="27"/>
+    </row>
+    <row r="456" spans="4:4">
+      <c r="D456" s="27"/>
+    </row>
+    <row r="457" spans="4:4">
+      <c r="D457" s="27"/>
+    </row>
+    <row r="458" spans="4:4">
+      <c r="D458" s="27"/>
+    </row>
+    <row r="459" spans="4:4">
+      <c r="D459" s="27"/>
+    </row>
+    <row r="460" spans="4:4">
+      <c r="D460" s="27"/>
+    </row>
+    <row r="461" spans="4:4">
+      <c r="D461" s="27"/>
+    </row>
+    <row r="462" spans="4:4">
+      <c r="D462" s="27"/>
+    </row>
+    <row r="463" spans="4:4">
+      <c r="D463" s="27"/>
+    </row>
+    <row r="464" spans="4:4">
+      <c r="D464" s="27"/>
+    </row>
+    <row r="465" spans="4:4">
+      <c r="D465" s="27"/>
+    </row>
+    <row r="466" spans="4:4">
+      <c r="D466" s="27"/>
+    </row>
+    <row r="467" spans="4:4">
+      <c r="D467" s="27"/>
+    </row>
+    <row r="468" spans="4:4">
+      <c r="D468" s="27"/>
+    </row>
+    <row r="469" spans="4:4">
+      <c r="D469" s="27"/>
+    </row>
+    <row r="470" spans="4:4">
+      <c r="D470" s="27"/>
+    </row>
+    <row r="471" spans="4:4">
+      <c r="D471" s="27"/>
+    </row>
+    <row r="472" spans="4:4">
+      <c r="D472" s="27"/>
+    </row>
+    <row r="473" spans="4:4">
+      <c r="D473" s="27"/>
+    </row>
+    <row r="474" spans="4:4">
+      <c r="D474" s="27"/>
+    </row>
+    <row r="475" spans="4:4">
+      <c r="D475" s="27"/>
+    </row>
+    <row r="476" spans="4:4">
+      <c r="D476" s="27"/>
+    </row>
+    <row r="477" spans="4:4">
+      <c r="D477" s="27"/>
+    </row>
+    <row r="478" spans="4:4">
+      <c r="D478" s="27"/>
+    </row>
+    <row r="479" spans="4:4">
+      <c r="D479" s="27"/>
+    </row>
+    <row r="480" spans="4:4">
+      <c r="D480" s="27"/>
+    </row>
+    <row r="481" spans="4:4">
+      <c r="D481" s="27"/>
+    </row>
+    <row r="482" spans="4:4">
+      <c r="D482" s="27"/>
+    </row>
+    <row r="483" spans="4:4">
+      <c r="D483" s="27"/>
+    </row>
+    <row r="484" spans="4:4">
+      <c r="D484" s="27"/>
+    </row>
+    <row r="485" spans="4:4">
+      <c r="D485" s="27"/>
+    </row>
+    <row r="486" spans="4:4">
+      <c r="D486" s="27"/>
+    </row>
+    <row r="487" spans="4:4">
+      <c r="D487" s="27"/>
+    </row>
+    <row r="488" spans="4:4">
+      <c r="D488" s="27"/>
+    </row>
+    <row r="489" spans="4:4">
+      <c r="D489" s="27"/>
+    </row>
+    <row r="490" spans="4:4">
+      <c r="D490" s="27"/>
+    </row>
+    <row r="491" spans="4:4">
+      <c r="D491" s="27"/>
+    </row>
+    <row r="492" spans="4:4">
+      <c r="D492" s="27"/>
+    </row>
+    <row r="493" spans="4:4">
+      <c r="D493" s="27"/>
+    </row>
+    <row r="494" spans="4:4">
+      <c r="D494" s="27"/>
+    </row>
+    <row r="495" spans="4:4">
+      <c r="D495" s="27"/>
+    </row>
+    <row r="496" spans="4:4">
+      <c r="D496" s="27"/>
+    </row>
+    <row r="497" spans="4:4">
+      <c r="D497" s="27"/>
+    </row>
+    <row r="498" spans="4:4">
+      <c r="D498" s="27"/>
+    </row>
+    <row r="499" spans="4:4">
+      <c r="D499" s="27"/>
+    </row>
+    <row r="500" spans="4:4">
+      <c r="D500" s="27"/>
+    </row>
+    <row r="501" spans="4:4">
+      <c r="D501" s="27"/>
+    </row>
+    <row r="502" spans="4:4">
+      <c r="D502" s="27"/>
+    </row>
+    <row r="503" spans="4:4">
+      <c r="D503" s="27"/>
+    </row>
+    <row r="504" spans="4:4">
+      <c r="D504" s="27"/>
+    </row>
+    <row r="505" spans="4:4">
+      <c r="D505" s="27"/>
+    </row>
+    <row r="506" spans="4:4">
+      <c r="D506" s="27"/>
+    </row>
+    <row r="507" spans="4:4">
+      <c r="D507" s="27"/>
+    </row>
+    <row r="508" spans="4:4">
+      <c r="D508" s="27"/>
+    </row>
+    <row r="509" spans="4:4">
+      <c r="D509" s="27"/>
+    </row>
+    <row r="510" spans="4:4">
+      <c r="D510" s="27"/>
+    </row>
+    <row r="511" spans="4:4">
+      <c r="D511" s="27"/>
+    </row>
+    <row r="512" spans="4:4">
+      <c r="D512" s="27"/>
+    </row>
+    <row r="513" spans="4:4">
+      <c r="D513" s="27"/>
+    </row>
+    <row r="514" spans="4:4">
+      <c r="D514" s="27"/>
+    </row>
+    <row r="515" spans="4:4">
+      <c r="D515" s="27"/>
+    </row>
+    <row r="516" spans="4:4">
+      <c r="D516" s="27"/>
+    </row>
+    <row r="517" spans="4:4">
+      <c r="D517" s="27"/>
+    </row>
+    <row r="518" spans="4:4">
+      <c r="D518" s="27"/>
+    </row>
+    <row r="519" spans="4:4">
+      <c r="D519" s="27"/>
+    </row>
+    <row r="520" spans="4:4">
+      <c r="D520" s="27"/>
+    </row>
+    <row r="521" spans="4:4">
+      <c r="D521" s="27"/>
+    </row>
+    <row r="522" spans="4:4">
+      <c r="D522" s="27"/>
+    </row>
+    <row r="523" spans="4:4">
+      <c r="D523" s="27"/>
+    </row>
+    <row r="524" spans="4:4">
+      <c r="D524" s="27"/>
+    </row>
+    <row r="525" spans="4:4">
+      <c r="D525" s="27"/>
+    </row>
+    <row r="526" spans="4:4">
+      <c r="D526" s="27"/>
+    </row>
+    <row r="527" spans="4:4">
+      <c r="D527" s="27"/>
+    </row>
+    <row r="528" spans="4:4">
+      <c r="D528" s="27"/>
+    </row>
+    <row r="529" spans="4:4">
+      <c r="D529" s="27"/>
+    </row>
+    <row r="530" spans="4:4">
+      <c r="D530" s="27"/>
+    </row>
+    <row r="531" spans="4:4">
+      <c r="D531" s="27"/>
+    </row>
+    <row r="532" spans="4:4">
+      <c r="D532" s="27"/>
+    </row>
+    <row r="533" spans="4:4">
+      <c r="D533" s="27"/>
+    </row>
+    <row r="534" spans="4:4">
+      <c r="D534" s="27"/>
+    </row>
+    <row r="535" spans="4:4">
+      <c r="D535" s="27"/>
+    </row>
+    <row r="536" spans="4:4">
+      <c r="D536" s="27"/>
+    </row>
+    <row r="537" spans="4:4">
+      <c r="D537" s="27"/>
+    </row>
+    <row r="538" spans="4:4">
+      <c r="D538" s="27"/>
+    </row>
+    <row r="539" spans="4:4">
+      <c r="D539" s="27"/>
+    </row>
+    <row r="540" spans="4:4">
+      <c r="D540" s="27"/>
+    </row>
+    <row r="541" spans="4:4">
+      <c r="D541" s="27"/>
+    </row>
+    <row r="542" spans="4:4">
+      <c r="D542" s="27"/>
+    </row>
+    <row r="543" spans="4:4">
+      <c r="D543" s="27"/>
+    </row>
+    <row r="544" spans="4:4">
+      <c r="D544" s="27"/>
+    </row>
+    <row r="545" spans="4:4">
+      <c r="D545" s="27"/>
+    </row>
+    <row r="546" spans="4:4">
+      <c r="D546" s="27"/>
+    </row>
+    <row r="547" spans="4:4">
+      <c r="D547" s="27"/>
+    </row>
+    <row r="548" spans="4:4">
+      <c r="D548" s="27"/>
+    </row>
+    <row r="549" spans="4:4">
+      <c r="D549" s="27"/>
+    </row>
+    <row r="550" spans="4:4">
+      <c r="D550" s="27"/>
+    </row>
+    <row r="551" spans="4:4">
+      <c r="D551" s="27"/>
+    </row>
+    <row r="552" spans="4:4">
+      <c r="D552" s="27"/>
+    </row>
+    <row r="553" spans="4:4">
+      <c r="D553" s="27"/>
+    </row>
+    <row r="554" spans="4:4">
+      <c r="D554" s="27"/>
+    </row>
+    <row r="555" spans="4:4">
+      <c r="D555" s="27"/>
+    </row>
+    <row r="556" spans="4:4">
+      <c r="D556" s="27"/>
+    </row>
+    <row r="557" spans="4:4">
+      <c r="D557" s="27"/>
+    </row>
+    <row r="558" spans="4:4">
+      <c r="D558" s="27"/>
+    </row>
+    <row r="559" spans="4:4">
+      <c r="D559" s="27"/>
+    </row>
+    <row r="560" spans="4:4">
+      <c r="D560" s="27"/>
+    </row>
+    <row r="561" spans="4:4">
+      <c r="D561" s="27"/>
+    </row>
+    <row r="562" spans="4:4">
+      <c r="D562" s="27"/>
+    </row>
+    <row r="563" spans="4:4">
+      <c r="D563" s="27"/>
+    </row>
+    <row r="564" spans="4:4">
+      <c r="D564" s="27"/>
+    </row>
+    <row r="565" spans="4:4">
+      <c r="D565" s="27"/>
+    </row>
+    <row r="566" spans="4:4">
+      <c r="D566" s="27"/>
+    </row>
+    <row r="567" spans="4:4">
+      <c r="D567" s="27"/>
+    </row>
+    <row r="568" spans="4:4">
+      <c r="D568" s="27"/>
+    </row>
+    <row r="569" spans="4:4">
+      <c r="D569" s="27"/>
+    </row>
+    <row r="570" spans="4:4">
+      <c r="D570" s="27"/>
+    </row>
+    <row r="571" spans="4:4">
+      <c r="D571" s="27"/>
+    </row>
+    <row r="572" spans="4:4">
+      <c r="D572" s="27"/>
+    </row>
+    <row r="573" spans="4:4">
+      <c r="D573" s="27"/>
+    </row>
+    <row r="574" spans="4:4">
+      <c r="D574" s="27"/>
+    </row>
+    <row r="575" spans="4:4">
+      <c r="D575" s="27"/>
+    </row>
+    <row r="576" spans="4:4">
+      <c r="D576" s="27"/>
+    </row>
+    <row r="577" spans="4:4">
+      <c r="D577" s="27"/>
+    </row>
+    <row r="578" spans="4:4">
+      <c r="D578" s="27"/>
+    </row>
+    <row r="579" spans="4:4">
+      <c r="D579" s="27"/>
+    </row>
+    <row r="580" spans="4:4">
+      <c r="D580" s="27"/>
+    </row>
+    <row r="581" spans="4:4">
+      <c r="D581" s="27"/>
+    </row>
+    <row r="582" spans="4:4">
+      <c r="D582" s="27"/>
+    </row>
+    <row r="583" spans="4:4">
+      <c r="D583" s="27"/>
+    </row>
+    <row r="584" spans="4:4">
+      <c r="D584" s="27"/>
+    </row>
+    <row r="585" spans="4:4">
+      <c r="D585" s="27"/>
+    </row>
+    <row r="586" spans="4:4">
+      <c r="D586" s="27"/>
+    </row>
+    <row r="587" spans="4:4">
+      <c r="D587" s="27"/>
+    </row>
+    <row r="588" spans="4:4">
+      <c r="D588" s="27"/>
+    </row>
+    <row r="589" spans="4:4">
+      <c r="D589" s="27"/>
+    </row>
+    <row r="590" spans="4:4">
+      <c r="D590" s="27"/>
+    </row>
+    <row r="591" spans="4:4">
+      <c r="D591" s="27"/>
+    </row>
+    <row r="592" spans="4:4">
+      <c r="D592" s="27"/>
+    </row>
+    <row r="593" spans="4:4">
+      <c r="D593" s="27"/>
+    </row>
+    <row r="594" spans="4:4">
+      <c r="D594" s="27"/>
+    </row>
+    <row r="595" spans="4:4">
+      <c r="D595" s="27"/>
+    </row>
+    <row r="596" spans="4:4">
+      <c r="D596" s="27"/>
+    </row>
+    <row r="597" spans="4:4">
+      <c r="D597" s="27"/>
+    </row>
+    <row r="598" spans="4:4">
+      <c r="D598" s="27"/>
+    </row>
+    <row r="599" spans="4:4">
+      <c r="D599" s="27"/>
+    </row>
+    <row r="600" spans="4:4">
+      <c r="D600" s="27"/>
+    </row>
+    <row r="601" spans="4:4">
+      <c r="D601" s="27"/>
+    </row>
+    <row r="602" spans="4:4">
+      <c r="D602" s="27"/>
+    </row>
+    <row r="603" spans="4:4">
+      <c r="D603" s="27"/>
+    </row>
+    <row r="604" spans="4:4">
+      <c r="D604" s="27"/>
+    </row>
+    <row r="605" spans="4:4">
+      <c r="D605" s="27"/>
+    </row>
+    <row r="606" spans="4:4">
+      <c r="D606" s="27"/>
+    </row>
+    <row r="607" spans="4:4">
+      <c r="D607" s="27"/>
+    </row>
+    <row r="608" spans="4:4">
+      <c r="D608" s="27"/>
+    </row>
+    <row r="609" spans="4:4">
+      <c r="D609" s="27"/>
+    </row>
+    <row r="610" spans="4:4">
+      <c r="D610" s="27"/>
+    </row>
+    <row r="611" spans="4:4">
+      <c r="D611" s="27"/>
+    </row>
+    <row r="612" spans="4:4">
+      <c r="D612" s="27"/>
+    </row>
+    <row r="613" spans="4:4">
+      <c r="D613" s="27"/>
+    </row>
+    <row r="614" spans="4:4">
+      <c r="D614" s="27"/>
+    </row>
+    <row r="615" spans="4:4">
+      <c r="D615" s="27"/>
+    </row>
+    <row r="616" spans="4:4">
+      <c r="D616" s="27"/>
+    </row>
+    <row r="617" spans="4:4">
+      <c r="D617" s="27"/>
+    </row>
+    <row r="618" spans="4:4">
+      <c r="D618" s="27"/>
+    </row>
+    <row r="619" spans="4:4">
+      <c r="D619" s="27"/>
+    </row>
+    <row r="620" spans="4:4">
+      <c r="D620" s="27"/>
+    </row>
+    <row r="621" spans="4:4">
+      <c r="D621" s="27"/>
+    </row>
+    <row r="622" spans="4:4">
+      <c r="D622" s="27"/>
+    </row>
+    <row r="623" spans="4:4">
+      <c r="D623" s="27"/>
+    </row>
+    <row r="624" spans="4:4">
+      <c r="D624" s="27"/>
+    </row>
+    <row r="625" spans="4:4">
+      <c r="D625" s="27"/>
+    </row>
+    <row r="626" spans="4:4">
+      <c r="D626" s="27"/>
+    </row>
+    <row r="627" spans="4:4">
+      <c r="D627" s="27"/>
+    </row>
+    <row r="628" spans="4:4">
+      <c r="D628" s="27"/>
+    </row>
+    <row r="629" spans="4:4">
+      <c r="D629" s="27"/>
+    </row>
+    <row r="630" spans="4:4">
+      <c r="D630" s="27"/>
+    </row>
+    <row r="631" spans="4:4">
+      <c r="D631" s="27"/>
+    </row>
+    <row r="632" spans="4:4">
+      <c r="D632" s="27"/>
+    </row>
+    <row r="633" spans="4:4">
+      <c r="D633" s="27"/>
+    </row>
+    <row r="634" spans="4:4">
+      <c r="D634" s="27"/>
+    </row>
+    <row r="635" spans="4:4">
+      <c r="D635" s="27"/>
+    </row>
+    <row r="636" spans="4:4">
+      <c r="D636" s="27"/>
+    </row>
+    <row r="637" spans="4:4">
+      <c r="D637" s="27"/>
+    </row>
+    <row r="638" spans="4:4">
+      <c r="D638" s="27"/>
+    </row>
+    <row r="639" spans="4:4">
+      <c r="D639" s="27"/>
+    </row>
+    <row r="640" spans="4:4">
+      <c r="D640" s="27"/>
+    </row>
+    <row r="641" spans="4:4">
+      <c r="D641" s="27"/>
+    </row>
+    <row r="642" spans="4:4">
+      <c r="D642" s="27"/>
+    </row>
+    <row r="643" spans="4:4">
+      <c r="D643" s="27"/>
+    </row>
+    <row r="644" spans="4:4">
+      <c r="D644" s="27"/>
+    </row>
+    <row r="645" spans="4:4">
+      <c r="D645" s="27"/>
+    </row>
+    <row r="646" spans="4:4">
+      <c r="D646" s="27"/>
+    </row>
+    <row r="647" spans="4:4">
+      <c r="D647" s="27"/>
+    </row>
+    <row r="648" spans="4:4">
+      <c r="D648" s="27"/>
+    </row>
+    <row r="649" spans="4:4">
+      <c r="D649" s="27"/>
+    </row>
+    <row r="650" spans="4:4">
+      <c r="D650" s="27"/>
+    </row>
+    <row r="651" spans="4:4">
+      <c r="D651" s="27"/>
+    </row>
+    <row r="652" spans="4:4">
+      <c r="D652" s="27"/>
+    </row>
+    <row r="653" spans="4:4">
+      <c r="D653" s="27"/>
+    </row>
+    <row r="654" spans="4:4">
+      <c r="D654" s="27"/>
+    </row>
+    <row r="655" spans="4:4">
+      <c r="D655" s="27"/>
+    </row>
+    <row r="656" spans="4:4">
+      <c r="D656" s="27"/>
+    </row>
+    <row r="657" spans="4:4">
+      <c r="D657" s="27"/>
+    </row>
+    <row r="658" spans="4:4">
+      <c r="D658" s="27"/>
+    </row>
+    <row r="659" spans="4:4">
+      <c r="D659" s="27"/>
+    </row>
+    <row r="660" spans="4:4">
+      <c r="D660" s="27"/>
+    </row>
+    <row r="661" spans="4:4">
+      <c r="D661" s="27"/>
+    </row>
+    <row r="662" spans="4:4">
+      <c r="D662" s="27"/>
+    </row>
+    <row r="663" spans="4:4">
+      <c r="D663" s="27"/>
+    </row>
+    <row r="664" spans="4:4">
+      <c r="D664" s="27"/>
+    </row>
+    <row r="665" spans="4:4">
+      <c r="D665" s="27"/>
+    </row>
+    <row r="666" spans="4:4">
+      <c r="D666" s="27"/>
+    </row>
+    <row r="667" spans="4:4">
+      <c r="D667" s="27"/>
+    </row>
+    <row r="668" spans="4:4">
+      <c r="D668" s="27"/>
+    </row>
+    <row r="669" spans="4:4">
+      <c r="D669" s="27"/>
+    </row>
+    <row r="670" spans="4:4">
+      <c r="D670" s="27"/>
+    </row>
+    <row r="671" spans="4:4">
+      <c r="D671" s="27"/>
+    </row>
+    <row r="672" spans="4:4">
+      <c r="D672" s="27"/>
+    </row>
+    <row r="673" spans="4:4">
+      <c r="D673" s="27"/>
+    </row>
+    <row r="674" spans="4:4">
+      <c r="D674" s="27"/>
+    </row>
+    <row r="675" spans="4:4">
+      <c r="D675" s="27"/>
+    </row>
+    <row r="676" spans="4:4">
+      <c r="D676" s="27"/>
+    </row>
+    <row r="677" spans="4:4">
+      <c r="D677" s="27"/>
+    </row>
+    <row r="678" spans="4:4">
+      <c r="D678" s="27"/>
+    </row>
+    <row r="679" spans="4:4">
+      <c r="D679" s="27"/>
+    </row>
+    <row r="680" spans="4:4">
+      <c r="D680" s="27"/>
+    </row>
+    <row r="681" spans="4:4">
+      <c r="D681" s="27"/>
+    </row>
+    <row r="682" spans="4:4">
+      <c r="D682" s="27"/>
+    </row>
+    <row r="683" spans="4:4">
+      <c r="D683" s="27"/>
+    </row>
+    <row r="684" spans="4:4">
+      <c r="D684" s="27"/>
+    </row>
+    <row r="685" spans="4:4">
+      <c r="D685" s="27"/>
+    </row>
+    <row r="686" spans="4:4">
+      <c r="D686" s="27"/>
+    </row>
+    <row r="687" spans="4:4">
+      <c r="D687" s="27"/>
+    </row>
+    <row r="688" spans="4:4">
+      <c r="D688" s="27"/>
+    </row>
+    <row r="689" spans="4:4">
+      <c r="D689" s="27"/>
+    </row>
+    <row r="690" spans="4:4">
+      <c r="D690" s="27"/>
+    </row>
+    <row r="691" spans="4:4">
+      <c r="D691" s="27"/>
+    </row>
+    <row r="692" spans="4:4">
+      <c r="D692" s="27"/>
+    </row>
+    <row r="693" spans="4:4">
+      <c r="D693" s="27"/>
+    </row>
+    <row r="694" spans="4:4">
+      <c r="D694" s="27"/>
+    </row>
+    <row r="695" spans="4:4">
+      <c r="D695" s="27"/>
+    </row>
+    <row r="696" spans="4:4">
+      <c r="D696" s="27"/>
+    </row>
+    <row r="697" spans="4:4">
+      <c r="D697" s="27"/>
+    </row>
+    <row r="698" spans="4:4">
+      <c r="D698" s="27"/>
+    </row>
+    <row r="699" spans="4:4">
+      <c r="D699" s="27"/>
+    </row>
+    <row r="700" spans="4:4">
+      <c r="D700" s="27"/>
+    </row>
+    <row r="701" spans="4:4">
+      <c r="D701" s="27"/>
+    </row>
+    <row r="702" spans="4:4">
+      <c r="D702" s="27"/>
+    </row>
+    <row r="703" spans="4:4">
+      <c r="D703" s="27"/>
+    </row>
+    <row r="704" spans="4:4">
+      <c r="D704" s="27"/>
+    </row>
+    <row r="705" spans="4:4">
+      <c r="D705" s="27"/>
+    </row>
+    <row r="706" spans="4:4">
+      <c r="D706" s="27"/>
+    </row>
+    <row r="707" spans="4:4">
+      <c r="D707" s="27"/>
+    </row>
+    <row r="708" spans="4:4">
+      <c r="D708" s="27"/>
+    </row>
+    <row r="709" spans="4:4">
+      <c r="D709" s="27"/>
+    </row>
+    <row r="710" spans="4:4">
+      <c r="D710" s="27"/>
+    </row>
+    <row r="711" spans="4:4">
+      <c r="D711" s="27"/>
+    </row>
+    <row r="712" spans="4:4">
+      <c r="D712" s="27"/>
+    </row>
+    <row r="713" spans="4:4">
+      <c r="D713" s="27"/>
+    </row>
+    <row r="714" spans="4:4">
+      <c r="D714" s="27"/>
+    </row>
+    <row r="715" spans="4:4">
+      <c r="D715" s="27"/>
+    </row>
+    <row r="716" spans="4:4">
+      <c r="D716" s="27"/>
+    </row>
+    <row r="717" spans="4:4">
+      <c r="D717" s="27"/>
+    </row>
+    <row r="718" spans="4:4">
+      <c r="D718" s="27"/>
+    </row>
+    <row r="719" spans="4:4">
+      <c r="D719" s="27"/>
+    </row>
+    <row r="720" spans="4:4">
+      <c r="D720" s="27"/>
+    </row>
+    <row r="721" spans="4:4">
+      <c r="D721" s="27"/>
+    </row>
+    <row r="722" spans="4:4">
+      <c r="D722" s="27"/>
+    </row>
+    <row r="723" spans="4:4">
+      <c r="D723" s="27"/>
+    </row>
+    <row r="724" spans="4:4">
+      <c r="D724" s="27"/>
+    </row>
+    <row r="725" spans="4:4">
+      <c r="D725" s="27"/>
+    </row>
+    <row r="726" spans="4:4">
+      <c r="D726" s="27"/>
+    </row>
+    <row r="727" spans="4:4">
+      <c r="D727" s="27"/>
+    </row>
+    <row r="728" spans="4:4">
+      <c r="D728" s="27"/>
+    </row>
+    <row r="729" spans="4:4">
+      <c r="D729" s="27"/>
+    </row>
+    <row r="730" spans="4:4">
+      <c r="D730" s="27"/>
+    </row>
+    <row r="731" spans="4:4">
+      <c r="D731" s="27"/>
+    </row>
+    <row r="732" spans="4:4">
+      <c r="D732" s="27"/>
+    </row>
+    <row r="733" spans="4:4">
+      <c r="D733" s="27"/>
+    </row>
+    <row r="734" spans="4:4">
+      <c r="D734" s="27"/>
+    </row>
+    <row r="735" spans="4:4">
+      <c r="D735" s="27"/>
+    </row>
+    <row r="736" spans="4:4">
+      <c r="D736" s="27"/>
+    </row>
+    <row r="737" spans="4:4">
+      <c r="D737" s="27"/>
+    </row>
+    <row r="738" spans="4:4">
+      <c r="D738" s="27"/>
+    </row>
+    <row r="739" spans="4:4">
+      <c r="D739" s="27"/>
+    </row>
+    <row r="740" spans="4:4">
+      <c r="D740" s="27"/>
+    </row>
+    <row r="741" spans="4:4">
+      <c r="D741" s="27"/>
+    </row>
+    <row r="742" spans="4:4">
+      <c r="D742" s="27"/>
+    </row>
+    <row r="743" spans="4:4">
+      <c r="D743" s="27"/>
+    </row>
+    <row r="744" spans="4:4">
+      <c r="D744" s="27"/>
+    </row>
+    <row r="745" spans="4:4">
+      <c r="D745" s="27"/>
+    </row>
+    <row r="746" spans="4:4">
+      <c r="D746" s="27"/>
+    </row>
+    <row r="747" spans="4:4">
+      <c r="D747" s="27"/>
+    </row>
+    <row r="748" spans="4:4">
+      <c r="D748" s="27"/>
+    </row>
+    <row r="749" spans="4:4">
+      <c r="D749" s="27"/>
+    </row>
+    <row r="750" spans="4:4">
+      <c r="D750" s="27"/>
+    </row>
+    <row r="751" spans="4:4">
+      <c r="D751" s="27"/>
+    </row>
+    <row r="752" spans="4:4">
+      <c r="D752" s="27"/>
+    </row>
+    <row r="753" spans="4:4">
+      <c r="D753" s="27"/>
+    </row>
+    <row r="754" spans="4:4">
+      <c r="D754" s="27"/>
+    </row>
+    <row r="755" spans="4:4">
+      <c r="D755" s="27"/>
+    </row>
+    <row r="756" spans="4:4">
+      <c r="D756" s="27"/>
+    </row>
+    <row r="757" spans="4:4">
+      <c r="D757" s="27"/>
+    </row>
+    <row r="758" spans="4:4">
+      <c r="D758" s="27"/>
+    </row>
+    <row r="759" spans="4:4">
+      <c r="D759" s="27"/>
+    </row>
+    <row r="760" spans="4:4">
+      <c r="D760" s="27"/>
+    </row>
+    <row r="761" spans="4:4">
+      <c r="D761" s="27"/>
+    </row>
+    <row r="762" spans="4:4">
+      <c r="D762" s="27"/>
+    </row>
+    <row r="763" spans="4:4">
+      <c r="D763" s="27"/>
+    </row>
+    <row r="764" spans="4:4">
+      <c r="D764" s="27"/>
+    </row>
+    <row r="765" spans="4:4">
+      <c r="D765" s="27"/>
+    </row>
+    <row r="766" spans="4:4">
+      <c r="D766" s="27"/>
+    </row>
+    <row r="767" spans="4:4">
+      <c r="D767" s="27"/>
+    </row>
+    <row r="768" spans="4:4">
+      <c r="D768" s="27"/>
+    </row>
+    <row r="769" spans="4:4">
+      <c r="D769" s="27"/>
+    </row>
+    <row r="770" spans="4:4">
+      <c r="D770" s="27"/>
+    </row>
+    <row r="771" spans="4:4">
+      <c r="D771" s="27"/>
+    </row>
+    <row r="772" spans="4:4">
+      <c r="D772" s="27"/>
+    </row>
+    <row r="773" spans="4:4">
+      <c r="D773" s="27"/>
+    </row>
+    <row r="774" spans="4:4">
+      <c r="D774" s="27"/>
+    </row>
+    <row r="775" spans="4:4">
+      <c r="D775" s="27"/>
+    </row>
+    <row r="776" spans="4:4">
+      <c r="D776" s="27"/>
+    </row>
+    <row r="777" spans="4:4">
+      <c r="D777" s="27"/>
+    </row>
+    <row r="778" spans="4:4">
+      <c r="D778" s="27"/>
+    </row>
+    <row r="779" spans="4:4">
+      <c r="D779" s="27"/>
+    </row>
+    <row r="780" spans="4:4">
+      <c r="D780" s="27"/>
+    </row>
+    <row r="781" spans="4:4">
+      <c r="D781" s="27"/>
+    </row>
+    <row r="782" spans="4:4">
+      <c r="D782" s="27"/>
+    </row>
+    <row r="783" spans="4:4">
+      <c r="D783" s="27"/>
+    </row>
+    <row r="784" spans="4:4">
+      <c r="D784" s="27"/>
+    </row>
+    <row r="785" spans="4:4">
+      <c r="D785" s="27"/>
+    </row>
+    <row r="786" spans="4:4">
+      <c r="D786" s="27"/>
+    </row>
+    <row r="787" spans="4:4">
+      <c r="D787" s="27"/>
+    </row>
+    <row r="788" spans="4:4">
+      <c r="D788" s="27"/>
+    </row>
+    <row r="789" spans="4:4">
+      <c r="D789" s="27"/>
+    </row>
+    <row r="790" spans="4:4">
+      <c r="D790" s="27"/>
+    </row>
+    <row r="791" spans="4:4">
+      <c r="D791" s="27"/>
+    </row>
+    <row r="792" spans="4:4">
+      <c r="D792" s="27"/>
+    </row>
+    <row r="793" spans="4:4">
+      <c r="D793" s="27"/>
+    </row>
+    <row r="794" spans="4:4">
+      <c r="D794" s="27"/>
+    </row>
+    <row r="795" spans="4:4">
+      <c r="D795" s="27"/>
+    </row>
+    <row r="796" spans="4:4">
+      <c r="D796" s="27"/>
+    </row>
+    <row r="797" spans="4:4">
+      <c r="D797" s="27"/>
+    </row>
+    <row r="798" spans="4:4">
+      <c r="D798" s="27"/>
+    </row>
+    <row r="799" spans="4:4">
+      <c r="D799" s="27"/>
+    </row>
+    <row r="800" spans="4:4">
+      <c r="D800" s="27"/>
+    </row>
+    <row r="801" spans="4:4">
+      <c r="D801" s="27"/>
+    </row>
+    <row r="802" spans="4:4">
+      <c r="D802" s="27"/>
+    </row>
+    <row r="803" spans="4:4">
+      <c r="D803" s="27"/>
+    </row>
+    <row r="804" spans="4:4">
+      <c r="D804" s="27"/>
+    </row>
+    <row r="805" spans="4:4">
+      <c r="D805" s="27"/>
+    </row>
+    <row r="806" spans="4:4">
+      <c r="D806" s="27"/>
+    </row>
+    <row r="807" spans="4:4">
+      <c r="D807" s="27"/>
+    </row>
+    <row r="808" spans="4:4">
+      <c r="D808" s="27"/>
+    </row>
+    <row r="809" spans="4:4">
+      <c r="D809" s="27"/>
+    </row>
+    <row r="810" spans="4:4">
+      <c r="D810" s="27"/>
+    </row>
+    <row r="811" spans="4:4">
+      <c r="D811" s="27"/>
+    </row>
+    <row r="812" spans="4:4">
+      <c r="D812" s="27"/>
+    </row>
+    <row r="813" spans="4:4">
+      <c r="D813" s="27"/>
+    </row>
+    <row r="814" spans="4:4">
+      <c r="D814" s="27"/>
+    </row>
+    <row r="815" spans="4:4">
+      <c r="D815" s="27"/>
+    </row>
+    <row r="816" spans="4:4">
+      <c r="D816" s="27"/>
+    </row>
+    <row r="817" spans="4:4">
+      <c r="D817" s="27"/>
+    </row>
+    <row r="818" spans="4:4">
+      <c r="D818" s="27"/>
+    </row>
+    <row r="819" spans="4:4">
+      <c r="D819" s="27"/>
+    </row>
+    <row r="820" spans="4:4">
+      <c r="D820" s="27"/>
+    </row>
+    <row r="821" spans="4:4">
+      <c r="D821" s="27"/>
+    </row>
+    <row r="822" spans="4:4">
+      <c r="D822" s="27"/>
+    </row>
+    <row r="823" spans="4:4">
+      <c r="D823" s="27"/>
+    </row>
+    <row r="824" spans="4:4">
+      <c r="D824" s="27"/>
+    </row>
+    <row r="825" spans="4:4">
+      <c r="D825" s="27"/>
+    </row>
+    <row r="826" spans="4:4">
+      <c r="D826" s="27"/>
+    </row>
+    <row r="827" spans="4:4">
+      <c r="D827" s="27"/>
+    </row>
+    <row r="828" spans="4:4">
+      <c r="D828" s="27"/>
+    </row>
+    <row r="829" spans="4:4">
+      <c r="D829" s="27"/>
+    </row>
+    <row r="830" spans="4:4">
+      <c r="D830" s="27"/>
+    </row>
+    <row r="831" spans="4:4">
+      <c r="D831" s="27"/>
+    </row>
+    <row r="832" spans="4:4">
+      <c r="D832" s="27"/>
+    </row>
+    <row r="833" spans="4:4">
+      <c r="D833" s="27"/>
+    </row>
+    <row r="834" spans="4:4">
+      <c r="D834" s="27"/>
+    </row>
+    <row r="835" spans="4:4">
+      <c r="D835" s="27"/>
+    </row>
+    <row r="836" spans="4:4">
+      <c r="D836" s="27"/>
+    </row>
+    <row r="837" spans="4:4">
+      <c r="D837" s="27"/>
+    </row>
+    <row r="838" spans="4:4">
+      <c r="D838" s="27"/>
+    </row>
+    <row r="839" spans="4:4">
+      <c r="D839" s="27"/>
+    </row>
+    <row r="840" spans="4:4">
+      <c r="D840" s="27"/>
+    </row>
+    <row r="841" spans="4:4">
+      <c r="D841" s="27"/>
+    </row>
+    <row r="842" spans="4:4">
+      <c r="D842" s="27"/>
+    </row>
+    <row r="843" spans="4:4">
+      <c r="D843" s="27"/>
+    </row>
+    <row r="844" spans="4:4">
+      <c r="D844" s="27"/>
+    </row>
+    <row r="845" spans="4:4">
+      <c r="D845" s="27"/>
+    </row>
+    <row r="846" spans="4:4">
+      <c r="D846" s="27"/>
+    </row>
+    <row r="847" spans="4:4">
+      <c r="D847" s="27"/>
+    </row>
+    <row r="848" spans="4:4">
+      <c r="D848" s="27"/>
+    </row>
+    <row r="849" spans="4:4">
+      <c r="D849" s="27"/>
+    </row>
+    <row r="850" spans="4:4">
+      <c r="D850" s="27"/>
+    </row>
+    <row r="851" spans="4:4">
+      <c r="D851" s="27"/>
+    </row>
+    <row r="852" spans="4:4">
+      <c r="D852" s="27"/>
+    </row>
+    <row r="853" spans="4:4">
+      <c r="D853" s="27"/>
+    </row>
+    <row r="854" spans="4:4">
+      <c r="D854" s="27"/>
+    </row>
+    <row r="855" spans="4:4">
+      <c r="D855" s="27"/>
+    </row>
+    <row r="856" spans="4:4">
+      <c r="D856" s="27"/>
+    </row>
+    <row r="857" spans="4:4">
+      <c r="D857" s="27"/>
+    </row>
+    <row r="858" spans="4:4">
+      <c r="D858" s="27"/>
+    </row>
+    <row r="859" spans="4:4">
+      <c r="D859" s="27"/>
+    </row>
+    <row r="860" spans="4:4">
+      <c r="D860" s="27"/>
+    </row>
+    <row r="861" spans="4:4">
+      <c r="D861" s="27"/>
+    </row>
+    <row r="862" spans="4:4">
+      <c r="D862" s="27"/>
+    </row>
+    <row r="863" spans="4:4">
+      <c r="D863" s="27"/>
+    </row>
+    <row r="864" spans="4:4">
+      <c r="D864" s="27"/>
+    </row>
+    <row r="865" spans="4:4">
+      <c r="D865" s="27"/>
+    </row>
+    <row r="866" spans="4:4">
+      <c r="D866" s="27"/>
+    </row>
+    <row r="867" spans="4:4">
+      <c r="D867" s="27"/>
+    </row>
+    <row r="868" spans="4:4">
+      <c r="D868" s="27"/>
+    </row>
+    <row r="869" spans="4:4">
+      <c r="D869" s="27"/>
+    </row>
+    <row r="870" spans="4:4">
+      <c r="D870" s="27"/>
+    </row>
+    <row r="871" spans="4:4">
+      <c r="D871" s="27"/>
+    </row>
+    <row r="872" spans="4:4">
+      <c r="D872" s="27"/>
+    </row>
+    <row r="873" spans="4:4">
+      <c r="D873" s="27"/>
+    </row>
+    <row r="874" spans="4:4">
+      <c r="D874" s="27"/>
+    </row>
+    <row r="875" spans="4:4">
+      <c r="D875" s="27"/>
+    </row>
+    <row r="876" spans="4:4">
+      <c r="D876" s="27"/>
+    </row>
+    <row r="877" spans="4:4">
+      <c r="D877" s="27"/>
+    </row>
+    <row r="878" spans="4:4">
+      <c r="D878" s="27"/>
+    </row>
+    <row r="879" spans="4:4">
+      <c r="D879" s="27"/>
+    </row>
+    <row r="880" spans="4:4">
+      <c r="D880" s="27"/>
+    </row>
+    <row r="881" spans="4:4">
+      <c r="D881" s="27"/>
+    </row>
+    <row r="882" spans="4:4">
+      <c r="D882" s="27"/>
+    </row>
+    <row r="883" spans="4:4">
+      <c r="D883" s="27"/>
+    </row>
+    <row r="884" spans="4:4">
+      <c r="D884" s="27"/>
+    </row>
+    <row r="885" spans="4:4">
+      <c r="D885" s="27"/>
+    </row>
+    <row r="886" spans="4:4">
+      <c r="D886" s="27"/>
+    </row>
+    <row r="887" spans="4:4">
+      <c r="D887" s="27"/>
+    </row>
+    <row r="888" spans="4:4">
+      <c r="D888" s="27"/>
+    </row>
+    <row r="889" spans="4:4">
+      <c r="D889" s="27"/>
+    </row>
+    <row r="890" spans="4:4">
+      <c r="D890" s="27"/>
+    </row>
+    <row r="891" spans="4:4">
+      <c r="D891" s="27"/>
+    </row>
+    <row r="892" spans="4:4">
+      <c r="D892" s="27"/>
+    </row>
+    <row r="893" spans="4:4">
+      <c r="D893" s="27"/>
+    </row>
+    <row r="894" spans="4:4">
+      <c r="D894" s="27"/>
+    </row>
+    <row r="895" spans="4:4">
+      <c r="D895" s="27"/>
+    </row>
+    <row r="896" spans="4:4">
+      <c r="D896" s="27"/>
+    </row>
+    <row r="897" spans="4:4">
+      <c r="D897" s="27"/>
+    </row>
+    <row r="898" spans="4:4">
+      <c r="D898" s="27"/>
+    </row>
+    <row r="899" spans="4:4">
+      <c r="D899" s="27"/>
+    </row>
+    <row r="900" spans="4:4">
+      <c r="D900" s="27"/>
+    </row>
+    <row r="901" spans="4:4">
+      <c r="D901" s="27"/>
+    </row>
+    <row r="902" spans="4:4">
+      <c r="D902" s="27"/>
+    </row>
+    <row r="903" spans="4:4">
+      <c r="D903" s="27"/>
+    </row>
+    <row r="904" spans="4:4">
+      <c r="D904" s="27"/>
+    </row>
+    <row r="905" spans="4:4">
+      <c r="D905" s="27"/>
+    </row>
+    <row r="906" spans="4:4">
+      <c r="D906" s="27"/>
+    </row>
+    <row r="907" spans="4:4">
+      <c r="D907" s="27"/>
+    </row>
+    <row r="908" spans="4:4">
+      <c r="D908" s="27"/>
+    </row>
+    <row r="909" spans="4:4">
+      <c r="D909" s="27"/>
+    </row>
+    <row r="910" spans="4:4">
+      <c r="D910" s="27"/>
+    </row>
+    <row r="911" spans="4:4">
+      <c r="D911" s="27"/>
+    </row>
+    <row r="912" spans="4:4">
+      <c r="D912" s="27"/>
+    </row>
+    <row r="913" spans="4:4">
+      <c r="D913" s="27"/>
+    </row>
+    <row r="914" spans="4:4">
+      <c r="D914" s="27"/>
+    </row>
+    <row r="915" spans="4:4">
+      <c r="D915" s="27"/>
+    </row>
+    <row r="916" spans="4:4">
+      <c r="D916" s="27"/>
+    </row>
+    <row r="917" spans="4:4">
+      <c r="D917" s="27"/>
+    </row>
+    <row r="918" spans="4:4">
+      <c r="D918" s="27"/>
+    </row>
+    <row r="919" spans="4:4">
+      <c r="D919" s="27"/>
+    </row>
+    <row r="920" spans="4:4">
+      <c r="D920" s="27"/>
+    </row>
+    <row r="921" spans="4:4">
+      <c r="D921" s="27"/>
+    </row>
+    <row r="922" spans="4:4">
+      <c r="D922" s="27"/>
+    </row>
+    <row r="923" spans="4:4">
+      <c r="D923" s="27"/>
+    </row>
+    <row r="924" spans="4:4">
+      <c r="D924" s="27"/>
+    </row>
+    <row r="925" spans="4:4">
+      <c r="D925" s="27"/>
+    </row>
+    <row r="926" spans="4:4">
+      <c r="D926" s="27"/>
+    </row>
+    <row r="927" spans="4:4">
+      <c r="D927" s="27"/>
+    </row>
+    <row r="928" spans="4:4">
+      <c r="D928" s="27"/>
+    </row>
+    <row r="929" spans="4:4">
+      <c r="D929" s="27"/>
+    </row>
+    <row r="930" spans="4:4">
+      <c r="D930" s="27"/>
+    </row>
+    <row r="931" spans="4:4">
+      <c r="D931" s="27"/>
+    </row>
+    <row r="932" spans="4:4">
+      <c r="D932" s="27"/>
+    </row>
+    <row r="933" spans="4:4">
+      <c r="D933" s="27"/>
+    </row>
+    <row r="934" spans="4:4">
+      <c r="D934" s="27"/>
+    </row>
+    <row r="935" spans="4:4">
+      <c r="D935" s="27"/>
+    </row>
+    <row r="936" spans="4:4">
+      <c r="D936" s="27"/>
+    </row>
+    <row r="937" spans="4:4">
+      <c r="D937" s="27"/>
+    </row>
+    <row r="938" spans="4:4">
+      <c r="D938" s="27"/>
+    </row>
+    <row r="939" spans="4:4">
+      <c r="D939" s="27"/>
+    </row>
+    <row r="940" spans="4:4">
+      <c r="D940" s="27"/>
+    </row>
+    <row r="941" spans="4:4">
+      <c r="D941" s="27"/>
+    </row>
+    <row r="942" spans="4:4">
+      <c r="D942" s="27"/>
+    </row>
+    <row r="943" spans="4:4">
+      <c r="D943" s="27"/>
+    </row>
+    <row r="944" spans="4:4">
+      <c r="D944" s="27"/>
+    </row>
+    <row r="945" spans="4:4">
+      <c r="D945" s="27"/>
+    </row>
+    <row r="946" spans="4:4">
+      <c r="D946" s="27"/>
+    </row>
+    <row r="947" spans="4:4">
+      <c r="D947" s="27"/>
+    </row>
+    <row r="948" spans="4:4">
+      <c r="D948" s="27"/>
+    </row>
+    <row r="949" spans="4:4">
+      <c r="D949" s="27"/>
+    </row>
+    <row r="950" spans="4:4">
+      <c r="D950" s="27"/>
+    </row>
+    <row r="951" spans="4:4">
+      <c r="D951" s="27"/>
+    </row>
+    <row r="952" spans="4:4">
+      <c r="D952" s="27"/>
+    </row>
+    <row r="953" spans="4:4">
+      <c r="D953" s="27"/>
+    </row>
+    <row r="954" spans="4:4">
+      <c r="D954" s="27"/>
+    </row>
+    <row r="955" spans="4:4">
+      <c r="D955" s="27"/>
+    </row>
+    <row r="956" spans="4:4">
+      <c r="D956" s="27"/>
+    </row>
+    <row r="957" spans="4:4">
+      <c r="D957" s="27"/>
+    </row>
+    <row r="958" spans="4:4">
+      <c r="D958" s="27"/>
+    </row>
+    <row r="959" spans="4:4">
+      <c r="D959" s="27"/>
+    </row>
+    <row r="960" spans="4:4">
+      <c r="D960" s="27"/>
+    </row>
+    <row r="961" spans="4:4">
+      <c r="D961" s="27"/>
+    </row>
+    <row r="962" spans="4:4">
+      <c r="D962" s="27"/>
+    </row>
+    <row r="963" spans="4:4">
+      <c r="D963" s="27"/>
+    </row>
+    <row r="964" spans="4:4">
+      <c r="D964" s="27"/>
+    </row>
+    <row r="965" spans="4:4">
+      <c r="D965" s="27"/>
+    </row>
+    <row r="966" spans="4:4">
+      <c r="D966" s="27"/>
+    </row>
+    <row r="967" spans="4:4">
+      <c r="D967" s="27"/>
+    </row>
+    <row r="968" spans="4:4">
+      <c r="D968" s="27"/>
+    </row>
+    <row r="969" spans="4:4">
+      <c r="D969" s="27"/>
+    </row>
+    <row r="970" spans="4:4">
+      <c r="D970" s="27"/>
+    </row>
+    <row r="971" spans="4:4">
+      <c r="D971" s="27"/>
+    </row>
+    <row r="972" spans="4:4">
+      <c r="D972" s="27"/>
+    </row>
+    <row r="973" spans="4:4">
+      <c r="D973" s="27"/>
+    </row>
+    <row r="974" spans="4:4">
+      <c r="D974" s="27"/>
+    </row>
+    <row r="975" spans="4:4">
+      <c r="D975" s="27"/>
+    </row>
+    <row r="976" spans="4:4">
+      <c r="D976" s="27"/>
+    </row>
+    <row r="977" spans="4:4">
+      <c r="D977" s="27"/>
+    </row>
+    <row r="978" spans="4:4">
+      <c r="D978" s="27"/>
+    </row>
+    <row r="979" spans="4:4">
+      <c r="D979" s="27"/>
+    </row>
+    <row r="980" spans="4:4">
+      <c r="D980" s="27"/>
+    </row>
+    <row r="981" spans="4:4">
+      <c r="D981" s="27"/>
+    </row>
+    <row r="982" spans="4:4">
+      <c r="D982" s="27"/>
+    </row>
+    <row r="983" spans="4:4">
+      <c r="D983" s="27"/>
+    </row>
+    <row r="984" spans="4:4">
+      <c r="D984" s="27"/>
+    </row>
+    <row r="985" spans="4:4">
+      <c r="D985" s="27"/>
+    </row>
+    <row r="986" spans="4:4">
+      <c r="D986" s="27"/>
+    </row>
+    <row r="987" spans="4:4">
+      <c r="D987" s="27"/>
+    </row>
+    <row r="988" spans="4:4">
+      <c r="D988" s="27"/>
+    </row>
+    <row r="989" spans="4:4">
+      <c r="D989" s="27"/>
+    </row>
+    <row r="990" spans="4:4">
+      <c r="D990" s="27"/>
+    </row>
+    <row r="991" spans="4:4">
+      <c r="D991" s="27"/>
+    </row>
+    <row r="992" spans="4:4">
+      <c r="D992" s="27"/>
+    </row>
+    <row r="993" spans="4:4">
+      <c r="D993" s="27"/>
+    </row>
+    <row r="994" spans="4:4">
+      <c r="D994" s="27"/>
+    </row>
+    <row r="995" spans="4:4">
+      <c r="D995" s="27"/>
+    </row>
+    <row r="996" spans="4:4">
+      <c r="D996" s="27"/>
+    </row>
+    <row r="997" spans="4:4">
+      <c r="D997" s="27"/>
+    </row>
+    <row r="998" spans="4:4">
+      <c r="D998" s="27"/>
+    </row>
+    <row r="999" spans="4:4">
+      <c r="D999" s="27"/>
+    </row>
+    <row r="1000" spans="4:4">
+      <c r="D1000" s="27"/>
+    </row>
+    <row r="1001" spans="4:4">
+      <c r="D1001" s="27"/>
+    </row>
+    <row r="1002" spans="4:4" ht="14.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/infection_signature_curation_template.xlsx
+++ b/docs/infection_signature_curation_template.xlsx
@@ -154,9 +154,6 @@
     <t>curation date YYYY-MM-DD</t>
   </si>
   <si>
-    <t>cohort - any characteristics of the population(s) studied, plus whether the result was taken from a subgroup of the broader cohort tested</t>
-  </si>
-  <si>
     <t>age_min - age of youngest subject including both cases and controls</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
   </si>
   <si>
     <t>response behavior (direction, correlation type etc.)</t>
-  </si>
-  <si>
-    <t>comparison (affected vs control, correlated variable, time vs baseline event etc.)</t>
   </si>
   <si>
     <t>baseline time event</t>
@@ -356,14 +350,6 @@
     <t>Date curation completed</t>
   </si>
   <si>
-    <t>Any characteristics of the population(s) studied, besides age. Example: 
-Hong Kong, Atlanta
-Also report if the result was limited to a subgroup of the tested cohort, e.g. 
-- subjects suffering adverse events 
-- particular threshold levels of antibody titer level
-- based on a receiving a particular treatment</t>
-  </si>
-  <si>
     <t>Include both case/affected and control subjects</t>
   </si>
   <si>
@@ -444,39 +430,6 @@
 - up, down
 - positively correlated, negatively correlated, correlated
 - positively predictive, negatively predictive, predictive</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri, Arial"/>
-      </rPr>
-      <t xml:space="preserve">Comparisons are typically between two groups, or may reflect a correlation of the response component with some other measured variable. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri, Arial"/>
-      </rPr>
-      <t>Only report significant results. E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri, Arial"/>
-      </rPr>
-      <t>xamples:
-- severe COVID-19 cases vs healthy
-- moderate COVID-19 cases vs healthy; severe COVID-19 cases vs healthy
-- interferon-stimulated genes in COVID-19 vs healthy
-- bacterial DNA levels across COVID-19 and healthy subjects
-Include time comparison if relevant, e.g. 7d vs 0d, where the times are relative to the baseline reference event time (0d). Times before baseline event can be entered as negative numbers, e.g. days before vaccination (7d vs -1d).
-**Please be concise.**</t>
-    </r>
   </si>
   <si>
     <t>The reference event from which the time of the experimental response  is measured, e.g. hospital admission, onset of symptoms</t>
@@ -955,6 +908,51 @@
   <si>
     <t>UBERON:0002097 (skin of body)</t>
   </si>
+  <si>
+    <t>Construct using relevant characteristics of the studied population(s), as reported in the publication. Indicate if the result is relevant to a subgroup of the overall cohort, e.g.
+• subjects suffering adverse events
+• particular threshold levels of antibody titer
+• based on a receiving a particular treatment
+Example: “COVID-19 patients and healthy controls (Hong Kong, China)”, “Vaccine non-responders with mild/moderate disease (Atlanta, Georgia)”.</t>
+  </si>
+  <si>
+    <t>A short description of the population where the immune signature is measured.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Comparisons are typically between two groups, or may reflect a correlation of the response component with some other measured variable. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Only report significant results. E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xamples:
+- severe COVID-19 cases (N=24) vs healthy (N=28)
+- moderate COVID-19 cases vs healthy; severe COVID-19 cases vs healthy
+- interferon-stimulated genes in COVID-19 vs healthy
+- bacterial DNA levels across COVID-19 and healthy subjects
+If known, include the number of subjects in each comparison group using (N=&lt;num&gt;) notation. Include time comparison if relevant, e.g. 7d vs 0d, where the times are relative to the baseline reference event time (0d). Times before baseline event can be entered as negative numbers, e.g. days before vaccination (7d vs -1d).
+**Please be concise.**</t>
+    </r>
+  </si>
+  <si>
+    <t>Description of the comparison which gives rise to the response behavior reported in the immune signature.</t>
+  </si>
 </sst>
 </file>
 
@@ -963,11 +961,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1086,6 +1091,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1165,143 +1184,149 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1523,10 +1548,10 @@
   </sheetPr>
   <dimension ref="A1:AL1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D24" sqref="D24"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1983,91 +2008,91 @@
     </row>
     <row r="7" spans="1:38" s="60" customFormat="1" ht="66" customHeight="1">
       <c r="A7" s="55" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B7" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="E7" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="F7" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="G7" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="H7" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="I7" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="56" t="s">
+      <c r="J7" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="K7" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="57" t="s">
+      <c r="L7" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="57" t="s">
+      <c r="M7" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="57" t="s">
+      <c r="N7" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="57" t="s">
+      <c r="O7" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="P7" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="57" t="s">
+      <c r="Q7" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="57" t="s">
+      <c r="R7" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q7" s="57" t="s">
+      <c r="S7" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="R7" s="57" t="s">
+      <c r="T7" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="S7" s="57" t="s">
+      <c r="U7" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="T7" s="57" t="s">
+      <c r="V7" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="U7" s="57" t="s">
+      <c r="W7" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="V7" s="57" t="s">
-        <v>63</v>
+      <c r="X7" s="57" t="s">
+        <v>228</v>
       </c>
-      <c r="W7" s="57" t="s">
-        <v>64</v>
+      <c r="Y7" s="57" t="s">
+        <v>229</v>
       </c>
-      <c r="X7" s="57" t="s">
+      <c r="Z7" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA7" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB7" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="Y7" s="57" t="s">
+      <c r="AC7" s="57" t="s">
         <v>233</v>
-      </c>
-      <c r="Z7" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="AA7" s="57" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB7" s="57" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC7" s="57" t="s">
-        <v>237</v>
       </c>
       <c r="AD7" s="59"/>
       <c r="AE7" s="59"/>
@@ -2081,91 +2106,91 @@
     </row>
     <row r="8" spans="1:38" s="60" customFormat="1" ht="58.5" customHeight="1">
       <c r="A8" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="D8" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="E8" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="G8" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="56" t="s">
+      <c r="I8" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="57" t="s">
+      <c r="J8" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="58" t="s">
+      <c r="K8" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="57" t="s">
+      <c r="L8" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="57" t="s">
+      <c r="M8" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="57" t="s">
+      <c r="N8" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="M8" s="57" t="s">
+      <c r="O8" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="57" t="s">
+      <c r="P8" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="57" t="s">
+      <c r="Q8" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="57" t="s">
+      <c r="R8" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="Q8" s="56" t="s">
+      <c r="S8" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="T8" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="R8" s="57" t="s">
+      <c r="U8" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="S8" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="T8" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="U8" s="57" t="s">
-        <v>82</v>
-      </c>
       <c r="V8" s="57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W8" s="57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="X8" s="57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y8" s="57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z8" s="57" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AA8" s="57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AB8" s="57" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AC8" s="57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AD8" s="59"/>
       <c r="AE8" s="59"/>
@@ -2177,93 +2202,93 @@
       <c r="AK8" s="59"/>
       <c r="AL8" s="59"/>
     </row>
-    <row r="9" spans="1:38" s="60" customFormat="1" ht="146.44999999999999" customHeight="1">
+    <row r="9" spans="1:38" s="60" customFormat="1" ht="170.25" customHeight="1">
       <c r="A9" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="E9" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="G9" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="H9" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="56" t="s">
+      <c r="I9" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="J9" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="K9" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="I9" s="58" t="s">
+      <c r="L9" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="M9" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="N9" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="L9" s="57" t="s">
+      <c r="O9" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="P9" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="M9" s="57" t="s">
+      <c r="Q9" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="N9" s="57" t="s">
+      <c r="R9" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="57" t="s">
+      <c r="S9" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="57" t="s">
+      <c r="T9" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="Q9" s="57" t="s">
+      <c r="U9" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="R9" s="57" t="s">
+      <c r="V9" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="S9" s="57" t="s">
+      <c r="W9" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="T9" s="57" t="s">
-        <v>101</v>
+      <c r="X9" s="57" t="s">
+        <v>236</v>
       </c>
-      <c r="U9" s="57" t="s">
-        <v>102</v>
+      <c r="Y9" s="57" t="s">
+        <v>237</v>
       </c>
-      <c r="V9" s="57" t="s">
-        <v>103</v>
+      <c r="Z9" s="57" t="s">
+        <v>238</v>
       </c>
-      <c r="W9" s="57" t="s">
-        <v>104</v>
+      <c r="AA9" s="57" t="s">
+        <v>239</v>
       </c>
-      <c r="X9" s="57" t="s">
+      <c r="AB9" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="Y9" s="57" t="s">
+      <c r="AC9" s="57" t="s">
         <v>241</v>
-      </c>
-      <c r="Z9" s="57" t="s">
-        <v>242</v>
-      </c>
-      <c r="AA9" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB9" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC9" s="57" t="s">
-        <v>245</v>
       </c>
       <c r="AD9" s="59"/>
       <c r="AE9" s="59"/>
@@ -42067,8 +42092,8 @@
   </sheetPr>
   <dimension ref="A1:I1002"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -42101,7 +42126,7 @@
         <v>11</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>16</v>
@@ -42112,601 +42137,601 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>111</v>
-      </c>
       <c r="I2" s="24" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="24" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>119</v>
-      </c>
       <c r="H3" s="24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="24" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="24"/>
       <c r="D4" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="61" t="s">
-        <v>246</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" t="s">
-        <v>124</v>
-      </c>
       <c r="I4" s="24" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="24" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="24"/>
       <c r="D5" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" t="s">
-        <v>130</v>
-      </c>
       <c r="I5" s="24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="12"/>
       <c r="C6" s="18"/>
       <c r="D6" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="6"/>
       <c r="C7" s="24"/>
       <c r="D7" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="22"/>
       <c r="C8" s="24"/>
       <c r="D8" s="27" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E8" s="61" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="25"/>
       <c r="C9" s="24"/>
       <c r="D9" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="61" t="s">
-        <v>146</v>
-      </c>
       <c r="I9" s="24" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="25"/>
       <c r="C10" s="24"/>
       <c r="D10" s="17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="25"/>
       <c r="C11" s="24"/>
       <c r="D11" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="25"/>
       <c r="C12" s="24"/>
       <c r="D12" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="25"/>
       <c r="D13" s="17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="25"/>
       <c r="D14" s="26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="25"/>
       <c r="D15" s="17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="25"/>
       <c r="D16" s="17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="25"/>
       <c r="D17" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="25"/>
       <c r="D18" s="17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="25"/>
       <c r="D19" s="17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="25"/>
       <c r="D20" s="17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="25"/>
       <c r="D21" s="17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="25"/>
       <c r="D22" s="17" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="25"/>
       <c r="D23" s="17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="25"/>
       <c r="D24" s="17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="25"/>
       <c r="D25" s="27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="25"/>
       <c r="D26" s="27" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="25"/>
       <c r="D27" s="26" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="25"/>
       <c r="D28" s="27" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="25"/>
       <c r="D29" s="27" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="25"/>
       <c r="D30" s="27" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="25"/>
       <c r="D31" s="27" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="25"/>
       <c r="D32" s="27" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="25"/>
       <c r="D33" s="27" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="25"/>
       <c r="D34" s="27" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="25"/>
       <c r="D35" s="27" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I35" s="24" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="25"/>
       <c r="D36" s="27" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I36" s="24" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="25"/>
       <c r="D37" s="27" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="25"/>
       <c r="D38" s="27" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="25"/>
       <c r="D39" s="27" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="25"/>
       <c r="D40" s="27" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="25"/>
       <c r="D41" s="27" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="25"/>
       <c r="D42" s="27" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="25"/>
       <c r="D43" s="27" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="25"/>
       <c r="D44" s="27" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I44" s="24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="25"/>
       <c r="D45" s="27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="25"/>
       <c r="D46" s="27" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="25"/>
       <c r="D47" s="27" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="25"/>
       <c r="D48" s="27" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="25"/>
       <c r="D49" s="27" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="25"/>
       <c r="D50" s="27" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="25"/>
       <c r="D51" s="27" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="25"/>
       <c r="D52" s="27" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="25"/>
       <c r="D53" s="27" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="25"/>
       <c r="D54" s="27" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="25"/>
       <c r="D55" s="27" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="25"/>
       <c r="D56" s="27" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="25"/>
       <c r="D57" s="27" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="25"/>
       <c r="D58" s="27" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="25"/>
       <c r="D59" s="27" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="25"/>
       <c r="D60" s="27" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="2:4">
